--- a/Pflichtenheft/Organisatorisch/Projektstrukturplan.xlsx
+++ b/Pflichtenheft/Organisatorisch/Projektstrukturplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\GitHub\pro4e\Pflichtenheft\Organisatorisch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7C9F28-57CA-43FE-A08B-95F3BE2E5ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B78DCE-7523-4AFC-9481-FEA3FDFEE7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="2850" windowWidth="21600" windowHeight="11400" activeTab="1" xr2:uid="{8373446C-4546-4EB0-9D8E-7B57F7AE5753}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11400" activeTab="1" xr2:uid="{8373446C-4546-4EB0-9D8E-7B57F7AE5753}"/>
   </bookViews>
   <sheets>
     <sheet name="Strukturplan" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
   <si>
     <t>Zwischenpräsentation</t>
   </si>
@@ -335,8 +335,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1731,13 +1731,13 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1746,19 +1746,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1767,7 +1767,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1776,7 +1776,7 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1785,7 +1785,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1794,7 +1794,7 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1803,7 +1803,7 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1821,7 +1821,7 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1830,11 +1830,11 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1858,7 +1858,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2108,60 +2108,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2174,29 +2120,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2244,6 +2190,60 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2273,13 +2273,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFC5FFCF"/>
       <color rgb="FF9FFFAF"/>
       <color rgb="FF89FF9D"/>
       <color rgb="FF66FF99"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FFFF66CC"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF6600"/>
       <color rgb="FFFF0000"/>
     </mruColors>
@@ -2594,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EF78CF-0BF4-4991-AC83-ABD1D98215EE}">
   <dimension ref="B1:Z89"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z79" sqref="Z79"/>
+    <sheetView topLeftCell="B47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,13 +2610,13 @@
     <row r="1" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
-      <c r="P2" s="249" t="s">
+      <c r="P2" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="250"/>
-      <c r="R2" s="250"/>
-      <c r="S2" s="250"/>
-      <c r="T2" s="251"/>
+      <c r="Q2" s="321"/>
+      <c r="R2" s="321"/>
+      <c r="S2" s="321"/>
+      <c r="T2" s="322"/>
     </row>
     <row r="3" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2"/>
@@ -2691,10 +2691,10 @@
       <c r="B4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="257" t="s">
+      <c r="C4" s="327" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="258"/>
+      <c r="D4" s="328"/>
       <c r="E4" s="54"/>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
@@ -2721,10 +2721,10 @@
       <c r="B5" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="259">
+      <c r="C5" s="329">
         <v>19.02</v>
       </c>
-      <c r="D5" s="260"/>
+      <c r="D5" s="330"/>
       <c r="E5" s="10"/>
       <c r="F5" s="127"/>
       <c r="G5" s="127"/>
@@ -2751,10 +2751,10 @@
       <c r="B6" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="255">
+      <c r="C6" s="325">
         <v>10.029999999999999</v>
       </c>
-      <c r="D6" s="256"/>
+      <c r="D6" s="326"/>
       <c r="E6" s="132"/>
       <c r="F6" s="133"/>
       <c r="G6" s="133"/>
@@ -2781,10 +2781,10 @@
       <c r="B7" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="255">
+      <c r="C7" s="325">
         <v>24.03</v>
       </c>
-      <c r="D7" s="256"/>
+      <c r="D7" s="326"/>
       <c r="E7" s="132"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
@@ -2811,10 +2811,10 @@
       <c r="B8" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="255">
+      <c r="C8" s="325">
         <v>29.03</v>
       </c>
-      <c r="D8" s="256"/>
+      <c r="D8" s="326"/>
       <c r="E8" s="132"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
@@ -2841,10 +2841,10 @@
       <c r="B9" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="255">
+      <c r="C9" s="325">
         <v>7.04</v>
       </c>
-      <c r="D9" s="256"/>
+      <c r="D9" s="326"/>
       <c r="E9" s="132"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
@@ -2871,8 +2871,8 @@
       <c r="B10" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="255"/>
-      <c r="D10" s="256"/>
+      <c r="C10" s="325"/>
+      <c r="D10" s="326"/>
       <c r="E10" s="132"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
@@ -2899,10 +2899,10 @@
       <c r="B11" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="255">
+      <c r="C11" s="325">
         <v>3.05</v>
       </c>
-      <c r="D11" s="256"/>
+      <c r="D11" s="326"/>
       <c r="E11" s="132"/>
       <c r="F11" s="133"/>
       <c r="G11" s="133"/>
@@ -2929,8 +2929,8 @@
       <c r="B12" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="255"/>
-      <c r="D12" s="256"/>
+      <c r="C12" s="325"/>
+      <c r="D12" s="326"/>
       <c r="E12" s="132"/>
       <c r="F12" s="133"/>
       <c r="G12" s="133"/>
@@ -2957,10 +2957,10 @@
       <c r="B13" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="255">
+      <c r="C13" s="325">
         <v>17.05</v>
       </c>
-      <c r="D13" s="256"/>
+      <c r="D13" s="326"/>
       <c r="E13" s="132"/>
       <c r="F13" s="133"/>
       <c r="G13" s="133"/>
@@ -2987,10 +2987,10 @@
       <c r="B14" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="255">
+      <c r="C14" s="325">
         <v>9.06</v>
       </c>
-      <c r="D14" s="256"/>
+      <c r="D14" s="326"/>
       <c r="E14" s="132"/>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
@@ -3017,10 +3017,10 @@
       <c r="B15" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="255">
+      <c r="C15" s="325">
         <v>9.06</v>
       </c>
-      <c r="D15" s="256"/>
+      <c r="D15" s="326"/>
       <c r="E15" s="132"/>
       <c r="F15" s="133"/>
       <c r="G15" s="133"/>
@@ -3047,10 +3047,10 @@
       <c r="B16" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="253">
+      <c r="C16" s="323">
         <v>9.06</v>
       </c>
-      <c r="D16" s="254"/>
+      <c r="D16" s="324"/>
       <c r="E16" s="138"/>
       <c r="F16" s="139"/>
       <c r="G16" s="139"/>
@@ -3074,8 +3074,8 @@
       <c r="Y16" s="9"/>
     </row>
     <row r="17" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="252"/>
-      <c r="C17" s="252"/>
+      <c r="B17" s="319"/>
+      <c r="C17" s="319"/>
       <c r="D17" s="6"/>
       <c r="P17" s="4"/>
       <c r="T17" s="5"/>
@@ -3305,8 +3305,8 @@
       <c r="Y24" s="167"/>
     </row>
     <row r="25" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="252"/>
-      <c r="C25" s="252"/>
+      <c r="B25" s="319"/>
+      <c r="C25" s="319"/>
       <c r="D25" s="6"/>
       <c r="E25" s="174"/>
       <c r="F25" s="174"/>
@@ -3337,7 +3337,7 @@
       <c r="C26" s="42"/>
       <c r="D26" s="32">
         <f>SUM(D27,D35,D42)</f>
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="E26" s="217"/>
       <c r="F26" s="218"/>
@@ -3368,7 +3368,7 @@
       <c r="C27" s="205"/>
       <c r="D27" s="28">
         <f>SUM(D28:D34)</f>
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E27" s="144"/>
       <c r="F27" s="145"/>
@@ -3400,20 +3400,20 @@
         <v>62</v>
       </c>
       <c r="D28" s="29">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E28" s="150"/>
-      <c r="F28" s="293">
-        <v>8</v>
-      </c>
-      <c r="G28" s="293">
-        <v>8</v>
-      </c>
-      <c r="H28" s="293">
-        <v>8</v>
-      </c>
-      <c r="I28" s="293">
-        <v>8</v>
+      <c r="F28" s="275">
+        <v>6</v>
+      </c>
+      <c r="G28" s="275">
+        <v>6</v>
+      </c>
+      <c r="H28" s="275">
+        <v>6</v>
+      </c>
+      <c r="I28" s="275">
+        <v>6</v>
       </c>
       <c r="J28" s="151"/>
       <c r="K28" s="151"/>
@@ -3443,14 +3443,14 @@
         <v>8</v>
       </c>
       <c r="E29" s="150"/>
-      <c r="F29" s="293">
+      <c r="F29" s="275">
         <v>4</v>
       </c>
-      <c r="G29" s="293">
+      <c r="G29" s="275">
         <v>4</v>
       </c>
-      <c r="H29" s="294"/>
-      <c r="I29" s="294"/>
+      <c r="H29" s="276"/>
+      <c r="I29" s="276"/>
       <c r="J29" s="151"/>
       <c r="K29" s="151"/>
       <c r="L29" s="151"/>
@@ -3479,14 +3479,14 @@
         <v>8</v>
       </c>
       <c r="E30" s="150"/>
-      <c r="F30" s="293">
+      <c r="F30" s="275">
         <v>4</v>
       </c>
-      <c r="G30" s="293">
+      <c r="G30" s="275">
         <v>4</v>
       </c>
-      <c r="H30" s="294"/>
-      <c r="I30" s="294"/>
+      <c r="H30" s="276"/>
+      <c r="I30" s="276"/>
       <c r="J30" s="151"/>
       <c r="K30" s="151"/>
       <c r="L30" s="151"/>
@@ -3515,14 +3515,14 @@
         <v>12</v>
       </c>
       <c r="E31" s="193"/>
-      <c r="F31" s="295">
+      <c r="F31" s="277">
         <v>6</v>
       </c>
-      <c r="G31" s="295">
+      <c r="G31" s="277">
         <v>6</v>
       </c>
-      <c r="H31" s="296"/>
-      <c r="I31" s="296"/>
+      <c r="H31" s="278"/>
+      <c r="I31" s="278"/>
       <c r="J31" s="194"/>
       <c r="K31" s="194"/>
       <c r="L31" s="194"/>
@@ -3551,14 +3551,14 @@
         <v>12</v>
       </c>
       <c r="E32" s="193"/>
-      <c r="F32" s="295">
+      <c r="F32" s="277">
         <v>6</v>
       </c>
-      <c r="G32" s="295">
+      <c r="G32" s="277">
         <v>6</v>
       </c>
-      <c r="H32" s="296"/>
-      <c r="I32" s="296"/>
+      <c r="H32" s="278"/>
+      <c r="I32" s="278"/>
       <c r="J32" s="194"/>
       <c r="K32" s="194"/>
       <c r="L32" s="194"/>
@@ -3584,18 +3584,18 @@
         <v>63</v>
       </c>
       <c r="D33" s="192">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="193"/>
-      <c r="F33" s="296"/>
-      <c r="G33" s="295">
+      <c r="F33" s="278"/>
+      <c r="G33" s="277">
         <v>5</v>
       </c>
-      <c r="H33" s="295">
+      <c r="H33" s="277">
         <v>5</v>
       </c>
-      <c r="I33" s="295">
-        <v>6</v>
+      <c r="I33" s="277">
+        <v>5</v>
       </c>
       <c r="J33" s="194"/>
       <c r="K33" s="194"/>
@@ -3620,18 +3620,18 @@
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="30">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E34" s="156"/>
-      <c r="F34" s="297"/>
-      <c r="G34" s="298">
+      <c r="F34" s="279"/>
+      <c r="G34" s="280">
         <v>6</v>
       </c>
-      <c r="H34" s="298">
-        <v>7</v>
-      </c>
-      <c r="I34" s="298">
-        <v>7</v>
+      <c r="H34" s="280">
+        <v>6</v>
+      </c>
+      <c r="I34" s="280">
+        <v>6</v>
       </c>
       <c r="J34" s="157"/>
       <c r="K34" s="157"/>
@@ -3657,13 +3657,13 @@
       <c r="C35" s="205"/>
       <c r="D35" s="28">
         <f>SUM(D36:D41)</f>
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E35" s="144"/>
-      <c r="F35" s="299"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="299"/>
-      <c r="I35" s="299"/>
+      <c r="F35" s="281"/>
+      <c r="G35" s="281"/>
+      <c r="H35" s="281"/>
+      <c r="I35" s="281"/>
       <c r="J35" s="145"/>
       <c r="K35" s="145"/>
       <c r="L35" s="145"/>
@@ -3687,19 +3687,19 @@
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="29">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E36" s="150"/>
-      <c r="F36" s="293">
-        <v>8</v>
-      </c>
-      <c r="G36" s="293">
-        <v>8</v>
-      </c>
-      <c r="H36" s="293">
-        <v>8</v>
-      </c>
-      <c r="I36" s="294"/>
+      <c r="F36" s="275">
+        <v>4</v>
+      </c>
+      <c r="G36" s="275">
+        <v>4</v>
+      </c>
+      <c r="H36" s="275">
+        <v>4</v>
+      </c>
+      <c r="I36" s="276"/>
       <c r="J36" s="151"/>
       <c r="K36" s="151"/>
       <c r="L36" s="151"/>
@@ -3721,22 +3721,20 @@
       <c r="B37" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="C37" s="38"/>
       <c r="D37" s="29">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E37" s="150"/>
-      <c r="F37" s="294"/>
-      <c r="G37" s="293">
-        <v>4</v>
-      </c>
-      <c r="H37" s="293">
-        <v>4</v>
-      </c>
-      <c r="I37" s="293">
-        <v>4</v>
+      <c r="F37" s="276"/>
+      <c r="G37" s="275">
+        <v>3</v>
+      </c>
+      <c r="H37" s="275">
+        <v>3</v>
+      </c>
+      <c r="I37" s="275">
+        <v>3</v>
       </c>
       <c r="J37" s="151"/>
       <c r="K37" s="151"/>
@@ -3759,21 +3757,19 @@
       <c r="B38" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="38" t="s">
-        <v>48</v>
-      </c>
+      <c r="C38" s="38"/>
       <c r="D38" s="29">
         <v>12</v>
       </c>
       <c r="E38" s="150"/>
-      <c r="F38" s="294"/>
-      <c r="G38" s="293">
+      <c r="F38" s="276"/>
+      <c r="G38" s="275">
         <v>4</v>
       </c>
-      <c r="H38" s="293">
+      <c r="H38" s="275">
         <v>4</v>
       </c>
-      <c r="I38" s="293">
+      <c r="I38" s="275">
         <v>4</v>
       </c>
       <c r="J38" s="151"/>
@@ -3799,18 +3795,18 @@
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E39" s="193"/>
-      <c r="F39" s="296"/>
-      <c r="G39" s="295">
-        <v>3</v>
-      </c>
-      <c r="H39" s="295">
-        <v>3</v>
-      </c>
-      <c r="I39" s="295">
-        <v>4</v>
+      <c r="F39" s="278"/>
+      <c r="G39" s="277">
+        <v>2</v>
+      </c>
+      <c r="H39" s="277">
+        <v>2</v>
+      </c>
+      <c r="I39" s="277">
+        <v>2</v>
       </c>
       <c r="J39" s="151"/>
       <c r="K39" s="151"/>
@@ -3835,18 +3831,14 @@
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E40" s="193"/>
-      <c r="F40" s="296"/>
-      <c r="G40" s="295">
-        <v>3</v>
-      </c>
-      <c r="H40" s="295">
-        <v>3</v>
-      </c>
-      <c r="I40" s="295">
-        <v>2</v>
+      <c r="F40" s="278"/>
+      <c r="G40" s="278"/>
+      <c r="H40" s="278"/>
+      <c r="I40" s="277">
+        <v>4</v>
       </c>
       <c r="J40" s="151"/>
       <c r="K40" s="151"/>
@@ -3870,10 +3862,10 @@
       <c r="C41" s="38"/>
       <c r="D41" s="29"/>
       <c r="E41" s="201"/>
-      <c r="F41" s="300"/>
-      <c r="G41" s="300"/>
-      <c r="H41" s="300"/>
-      <c r="I41" s="300"/>
+      <c r="F41" s="282"/>
+      <c r="G41" s="282"/>
+      <c r="H41" s="282"/>
+      <c r="I41" s="282"/>
       <c r="J41" s="151"/>
       <c r="K41" s="151"/>
       <c r="L41" s="151"/>
@@ -3898,13 +3890,13 @@
       <c r="C42" s="205"/>
       <c r="D42" s="28">
         <f>SUM(D43:D49)</f>
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E42" s="178"/>
-      <c r="F42" s="301"/>
-      <c r="G42" s="301"/>
-      <c r="H42" s="301"/>
-      <c r="I42" s="301"/>
+      <c r="F42" s="283"/>
+      <c r="G42" s="283"/>
+      <c r="H42" s="283"/>
+      <c r="I42" s="283"/>
       <c r="J42" s="145"/>
       <c r="K42" s="145"/>
       <c r="L42" s="145"/>
@@ -3933,14 +3925,14 @@
         <v>8</v>
       </c>
       <c r="E43" s="178"/>
-      <c r="F43" s="301"/>
-      <c r="G43" s="302">
+      <c r="F43" s="283"/>
+      <c r="G43" s="284">
         <v>4</v>
       </c>
-      <c r="H43" s="302">
+      <c r="H43" s="284">
         <v>4</v>
       </c>
-      <c r="I43" s="301"/>
+      <c r="I43" s="283"/>
       <c r="J43" s="178"/>
       <c r="K43" s="178"/>
       <c r="L43" s="178"/>
@@ -3964,17 +3956,17 @@
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="29">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E44" s="151"/>
-      <c r="F44" s="294"/>
-      <c r="G44" s="293">
-        <v>8</v>
-      </c>
-      <c r="H44" s="293">
-        <v>8</v>
-      </c>
-      <c r="I44" s="294"/>
+      <c r="F44" s="276"/>
+      <c r="G44" s="275">
+        <v>4</v>
+      </c>
+      <c r="H44" s="275">
+        <v>4</v>
+      </c>
+      <c r="I44" s="276"/>
       <c r="J44" s="151"/>
       <c r="K44" s="151"/>
       <c r="L44" s="151"/>
@@ -3991,9 +3983,9 @@
       <c r="W44" s="151"/>
       <c r="X44" s="151"/>
       <c r="Y44" s="155"/>
-      <c r="Z44" s="329">
+      <c r="Z44" s="311">
         <f>SUM(F27:F49)</f>
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4002,17 +3994,17 @@
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E45" s="151"/>
-      <c r="F45" s="294"/>
-      <c r="G45" s="293">
-        <v>5</v>
-      </c>
-      <c r="H45" s="293">
-        <v>5</v>
-      </c>
-      <c r="I45" s="294"/>
+      <c r="F45" s="276"/>
+      <c r="G45" s="275">
+        <v>4</v>
+      </c>
+      <c r="H45" s="275">
+        <v>4</v>
+      </c>
+      <c r="I45" s="276"/>
       <c r="J45" s="151"/>
       <c r="K45" s="151"/>
       <c r="L45" s="151"/>
@@ -4029,9 +4021,9 @@
       <c r="W45" s="151"/>
       <c r="X45" s="151"/>
       <c r="Y45" s="155"/>
-      <c r="Z45" s="329">
+      <c r="Z45" s="311">
         <f>SUM(G27:G49)</f>
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4040,18 +4032,18 @@
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E46" s="151"/>
-      <c r="F46" s="294"/>
-      <c r="G46" s="293">
-        <v>3</v>
-      </c>
-      <c r="H46" s="293">
-        <v>3</v>
-      </c>
-      <c r="I46" s="293">
-        <v>4</v>
+      <c r="F46" s="276"/>
+      <c r="G46" s="275">
+        <v>2</v>
+      </c>
+      <c r="H46" s="275">
+        <v>2</v>
+      </c>
+      <c r="I46" s="275">
+        <v>2</v>
       </c>
       <c r="J46" s="151"/>
       <c r="K46" s="151"/>
@@ -4069,9 +4061,9 @@
       <c r="W46" s="151"/>
       <c r="X46" s="151"/>
       <c r="Y46" s="155"/>
-      <c r="Z46" s="329">
+      <c r="Z46" s="311">
         <f>SUM(H27:H49)</f>
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4080,18 +4072,18 @@
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E47" s="150"/>
-      <c r="F47" s="294"/>
-      <c r="G47" s="293">
+      <c r="F47" s="276"/>
+      <c r="G47" s="275">
         <v>2</v>
       </c>
-      <c r="H47" s="293">
-        <v>3</v>
-      </c>
-      <c r="I47" s="293">
-        <v>3</v>
+      <c r="H47" s="275">
+        <v>2</v>
+      </c>
+      <c r="I47" s="275">
+        <v>2</v>
       </c>
       <c r="J47" s="151"/>
       <c r="K47" s="151"/>
@@ -4109,9 +4101,9 @@
       <c r="W47" s="151"/>
       <c r="X47" s="151"/>
       <c r="Y47" s="155"/>
-      <c r="Z47" s="329">
+      <c r="Z47" s="311">
         <f>SUM(I27:I49)</f>
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4120,18 +4112,18 @@
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E48" s="150"/>
-      <c r="F48" s="294"/>
-      <c r="G48" s="293">
-        <v>3</v>
-      </c>
-      <c r="H48" s="293">
+      <c r="F48" s="276"/>
+      <c r="G48" s="275">
         <v>2</v>
       </c>
-      <c r="I48" s="293">
-        <v>3</v>
+      <c r="H48" s="275">
+        <v>2</v>
+      </c>
+      <c r="I48" s="275">
+        <v>2</v>
       </c>
       <c r="J48" s="151"/>
       <c r="K48" s="151"/>
@@ -4149,9 +4141,9 @@
       <c r="W48" s="151"/>
       <c r="X48" s="151"/>
       <c r="Y48" s="155"/>
-      <c r="Z48" s="329">
+      <c r="Z48" s="311">
         <f>SUM(Z44:Z47)</f>
-        <v>242</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4160,16 +4152,16 @@
       </c>
       <c r="C49" s="39"/>
       <c r="D49" s="30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E49" s="156"/>
-      <c r="F49" s="300"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="298">
-        <v>4</v>
-      </c>
-      <c r="I49" s="298">
-        <v>4</v>
+      <c r="F49" s="282"/>
+      <c r="G49" s="285"/>
+      <c r="H49" s="280">
+        <v>2</v>
+      </c>
+      <c r="I49" s="280">
+        <v>2</v>
       </c>
       <c r="J49" s="157"/>
       <c r="K49" s="157"/>
@@ -4198,8 +4190,8 @@
       <c r="T50" s="221"/>
     </row>
     <row r="51" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="252"/>
-      <c r="C51" s="252"/>
+      <c r="B51" s="319"/>
+      <c r="C51" s="319"/>
       <c r="D51" s="48" t="s">
         <v>20</v>
       </c>
@@ -4274,7 +4266,7 @@
       <c r="C52" s="43"/>
       <c r="D52" s="33">
         <f>SUM(D53,D60)</f>
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E52" s="168"/>
       <c r="F52" s="169"/>
@@ -4305,7 +4297,7 @@
       <c r="C53" s="183"/>
       <c r="D53" s="28">
         <f>SUM(D54:D59)</f>
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E53" s="144"/>
       <c r="F53" s="145"/>
@@ -4342,18 +4334,18 @@
       <c r="G54" s="151"/>
       <c r="H54" s="151"/>
       <c r="I54" s="227"/>
-      <c r="J54" s="304">
+      <c r="J54" s="286">
         <v>8</v>
       </c>
-      <c r="K54" s="304">
+      <c r="K54" s="286">
         <v>8</v>
       </c>
-      <c r="L54" s="304">
+      <c r="L54" s="286">
         <v>8</v>
       </c>
-      <c r="M54" s="294"/>
-      <c r="N54" s="294"/>
-      <c r="O54" s="305"/>
+      <c r="M54" s="276"/>
+      <c r="N54" s="276"/>
+      <c r="O54" s="287"/>
       <c r="P54" s="153"/>
       <c r="Q54" s="151"/>
       <c r="R54" s="151"/>
@@ -4371,25 +4363,25 @@
       </c>
       <c r="C55" s="184"/>
       <c r="D55" s="29">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E55" s="150"/>
       <c r="F55" s="151"/>
       <c r="G55" s="151"/>
       <c r="H55" s="151"/>
       <c r="I55" s="151"/>
-      <c r="J55" s="304">
-        <v>10</v>
-      </c>
-      <c r="K55" s="304">
-        <v>11</v>
-      </c>
-      <c r="L55" s="304">
-        <v>11</v>
-      </c>
-      <c r="M55" s="294"/>
-      <c r="N55" s="294"/>
-      <c r="O55" s="305"/>
+      <c r="J55" s="286">
+        <v>12</v>
+      </c>
+      <c r="K55" s="286">
+        <v>12</v>
+      </c>
+      <c r="L55" s="286">
+        <v>12</v>
+      </c>
+      <c r="M55" s="276"/>
+      <c r="N55" s="276"/>
+      <c r="O55" s="287"/>
       <c r="P55" s="153"/>
       <c r="Q55" s="151"/>
       <c r="R55" s="151"/>
@@ -4407,23 +4399,23 @@
       </c>
       <c r="C56" s="225"/>
       <c r="D56" s="192">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E56" s="193"/>
       <c r="F56" s="194"/>
       <c r="G56" s="194"/>
       <c r="H56" s="194"/>
       <c r="I56" s="194"/>
-      <c r="J56" s="306">
-        <v>16</v>
-      </c>
-      <c r="K56" s="306">
-        <v>16</v>
-      </c>
-      <c r="L56" s="296"/>
-      <c r="M56" s="296"/>
-      <c r="N56" s="296"/>
-      <c r="O56" s="307"/>
+      <c r="J56" s="288">
+        <v>9</v>
+      </c>
+      <c r="K56" s="288">
+        <v>9</v>
+      </c>
+      <c r="L56" s="278"/>
+      <c r="M56" s="278"/>
+      <c r="N56" s="278"/>
+      <c r="O56" s="289"/>
       <c r="P56" s="196"/>
       <c r="Q56" s="194"/>
       <c r="R56" s="194"/>
@@ -4448,16 +4440,16 @@
       <c r="G57" s="194"/>
       <c r="H57" s="194"/>
       <c r="I57" s="194"/>
-      <c r="J57" s="306">
+      <c r="J57" s="288">
         <v>8</v>
       </c>
-      <c r="K57" s="306">
+      <c r="K57" s="288">
         <v>8</v>
       </c>
-      <c r="L57" s="296"/>
-      <c r="M57" s="296"/>
-      <c r="N57" s="296"/>
-      <c r="O57" s="307"/>
+      <c r="L57" s="278"/>
+      <c r="M57" s="278"/>
+      <c r="N57" s="278"/>
+      <c r="O57" s="289"/>
       <c r="P57" s="196"/>
       <c r="Q57" s="194"/>
       <c r="R57" s="194"/>
@@ -4468,9 +4460,9 @@
       <c r="W57" s="194"/>
       <c r="X57" s="194"/>
       <c r="Y57" s="198"/>
-      <c r="Z57" s="329">
+      <c r="Z57" s="311">
         <f>SUM(J53:J63)</f>
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4486,18 +4478,18 @@
       <c r="G58" s="194"/>
       <c r="H58" s="194"/>
       <c r="I58" s="194"/>
-      <c r="J58" s="296"/>
-      <c r="K58" s="296"/>
-      <c r="L58" s="306">
+      <c r="J58" s="278"/>
+      <c r="K58" s="278"/>
+      <c r="L58" s="288">
         <v>16</v>
       </c>
-      <c r="M58" s="306">
+      <c r="M58" s="288">
         <v>16</v>
       </c>
-      <c r="N58" s="306">
+      <c r="N58" s="288">
         <v>16</v>
       </c>
-      <c r="O58" s="307"/>
+      <c r="O58" s="289"/>
       <c r="P58" s="196"/>
       <c r="Q58" s="194"/>
       <c r="R58" s="194"/>
@@ -4508,9 +4500,9 @@
       <c r="W58" s="194"/>
       <c r="X58" s="194"/>
       <c r="Y58" s="198"/>
-      <c r="Z58" s="329">
+      <c r="Z58" s="311">
         <f>SUM(K53:K63)</f>
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4526,18 +4518,18 @@
       <c r="G59" s="151"/>
       <c r="H59" s="151"/>
       <c r="I59" s="151"/>
-      <c r="J59" s="294"/>
-      <c r="K59" s="294"/>
-      <c r="L59" s="304">
+      <c r="J59" s="276"/>
+      <c r="K59" s="276"/>
+      <c r="L59" s="286">
         <v>12</v>
       </c>
-      <c r="M59" s="304">
+      <c r="M59" s="286">
         <v>12</v>
       </c>
-      <c r="N59" s="304">
+      <c r="N59" s="286">
         <v>12</v>
       </c>
-      <c r="O59" s="308">
+      <c r="O59" s="290">
         <v>12</v>
       </c>
       <c r="P59" s="153"/>
@@ -4550,9 +4542,9 @@
       <c r="W59" s="151"/>
       <c r="X59" s="151"/>
       <c r="Y59" s="155"/>
-      <c r="Z59" s="329">
+      <c r="Z59" s="311">
         <f>SUM(L53:L63)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4562,19 +4554,19 @@
       <c r="C60" s="183"/>
       <c r="D60" s="28">
         <f>SUM(D61:D63)</f>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E60" s="144"/>
       <c r="F60" s="145"/>
       <c r="G60" s="145"/>
       <c r="H60" s="145"/>
       <c r="I60" s="145"/>
-      <c r="J60" s="299"/>
-      <c r="K60" s="299"/>
-      <c r="L60" s="299"/>
-      <c r="M60" s="299"/>
-      <c r="N60" s="299"/>
-      <c r="O60" s="309"/>
+      <c r="J60" s="281"/>
+      <c r="K60" s="281"/>
+      <c r="L60" s="281"/>
+      <c r="M60" s="281"/>
+      <c r="N60" s="281"/>
+      <c r="O60" s="291"/>
       <c r="P60" s="147"/>
       <c r="Q60" s="145"/>
       <c r="R60" s="145"/>
@@ -4585,9 +4577,9 @@
       <c r="W60" s="145"/>
       <c r="X60" s="145"/>
       <c r="Y60" s="149"/>
-      <c r="Z60" s="329">
+      <c r="Z60" s="311">
         <f>SUM(M53:M63)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4603,18 +4595,18 @@
       <c r="G61" s="151"/>
       <c r="H61" s="151"/>
       <c r="I61" s="151"/>
-      <c r="J61" s="304">
+      <c r="J61" s="286">
         <v>8</v>
       </c>
-      <c r="K61" s="304">
+      <c r="K61" s="286">
         <v>8</v>
       </c>
-      <c r="L61" s="304">
+      <c r="L61" s="286">
         <v>8</v>
       </c>
-      <c r="M61" s="294"/>
-      <c r="N61" s="294"/>
-      <c r="O61" s="305"/>
+      <c r="M61" s="276"/>
+      <c r="N61" s="276"/>
+      <c r="O61" s="287"/>
       <c r="P61" s="153"/>
       <c r="Q61" s="151"/>
       <c r="R61" s="151"/>
@@ -4625,7 +4617,7 @@
       <c r="W61" s="151"/>
       <c r="X61" s="151"/>
       <c r="Y61" s="155"/>
-      <c r="Z61" s="329">
+      <c r="Z61" s="311">
         <f>SUM(N53:N63)</f>
         <v>34</v>
       </c>
@@ -4636,25 +4628,25 @@
       </c>
       <c r="C62" s="225"/>
       <c r="D62" s="192">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E62" s="193"/>
       <c r="F62" s="194"/>
       <c r="G62" s="194"/>
       <c r="H62" s="194"/>
       <c r="I62" s="194"/>
-      <c r="J62" s="306">
-        <v>10</v>
-      </c>
-      <c r="K62" s="306">
-        <v>11</v>
-      </c>
-      <c r="L62" s="306">
-        <v>11</v>
-      </c>
-      <c r="M62" s="296"/>
-      <c r="N62" s="296"/>
-      <c r="O62" s="307"/>
+      <c r="J62" s="288">
+        <v>8</v>
+      </c>
+      <c r="K62" s="288">
+        <v>8</v>
+      </c>
+      <c r="L62" s="288">
+        <v>8</v>
+      </c>
+      <c r="M62" s="278"/>
+      <c r="N62" s="278"/>
+      <c r="O62" s="289"/>
       <c r="P62" s="196"/>
       <c r="Q62" s="194"/>
       <c r="R62" s="194"/>
@@ -4665,7 +4657,7 @@
       <c r="W62" s="194"/>
       <c r="X62" s="194"/>
       <c r="Y62" s="198"/>
-      <c r="Z62" s="329">
+      <c r="Z62" s="311">
         <f>SUM(O53:O63)</f>
         <v>12</v>
       </c>
@@ -4676,25 +4668,25 @@
       </c>
       <c r="C63" s="185"/>
       <c r="D63" s="30">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E63" s="156"/>
       <c r="F63" s="157"/>
       <c r="G63" s="157"/>
       <c r="H63" s="157"/>
       <c r="I63" s="157"/>
-      <c r="J63" s="300"/>
-      <c r="K63" s="300"/>
-      <c r="L63" s="310">
-        <v>5</v>
-      </c>
-      <c r="M63" s="310">
-        <v>5</v>
-      </c>
-      <c r="N63" s="310">
+      <c r="J63" s="282"/>
+      <c r="K63" s="282"/>
+      <c r="L63" s="292">
         <v>6</v>
       </c>
-      <c r="O63" s="311"/>
+      <c r="M63" s="292">
+        <v>6</v>
+      </c>
+      <c r="N63" s="292">
+        <v>6</v>
+      </c>
+      <c r="O63" s="293"/>
       <c r="P63" s="159"/>
       <c r="Q63" s="157"/>
       <c r="R63" s="157"/>
@@ -4705,14 +4697,14 @@
       <c r="W63" s="157"/>
       <c r="X63" s="157"/>
       <c r="Y63" s="161"/>
-      <c r="Z63" s="329">
+      <c r="Z63" s="311">
         <f>SUM(Z57:Z62)</f>
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="252"/>
-      <c r="C64" s="252"/>
+      <c r="B64" s="319"/>
+      <c r="C64" s="319"/>
       <c r="D64" s="6"/>
       <c r="E64" s="174"/>
       <c r="F64" s="174"/>
@@ -4743,7 +4735,7 @@
       <c r="C65" s="44"/>
       <c r="D65" s="34">
         <f>SUM(D66,D70)</f>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E65" s="168"/>
       <c r="F65" s="169"/>
@@ -4774,7 +4766,7 @@
       <c r="C66" s="183"/>
       <c r="D66" s="28">
         <f>SUM(D67:D69)</f>
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="E66" s="144"/>
       <c r="F66" s="145"/>
@@ -4804,7 +4796,7 @@
       </c>
       <c r="C67" s="184"/>
       <c r="D67" s="29">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E67" s="150"/>
       <c r="F67" s="151"/>
@@ -4817,25 +4809,25 @@
       <c r="M67" s="151"/>
       <c r="N67" s="151"/>
       <c r="O67" s="152"/>
-      <c r="P67" s="312">
-        <v>16</v>
-      </c>
-      <c r="Q67" s="313">
-        <v>16</v>
-      </c>
-      <c r="R67" s="313">
-        <v>16</v>
-      </c>
-      <c r="S67" s="294"/>
-      <c r="T67" s="314"/>
-      <c r="U67" s="315"/>
-      <c r="V67" s="294"/>
+      <c r="P67" s="294">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="295">
+        <v>20</v>
+      </c>
+      <c r="R67" s="295">
+        <v>12</v>
+      </c>
+      <c r="S67" s="276"/>
+      <c r="T67" s="296"/>
+      <c r="U67" s="297"/>
+      <c r="V67" s="276"/>
       <c r="W67" s="151"/>
       <c r="X67" s="151"/>
       <c r="Y67" s="155"/>
-      <c r="Z67" s="329">
+      <c r="Z67" s="311">
         <f>SUM(P66:P74)</f>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4844,7 +4836,7 @@
       </c>
       <c r="C68" s="184"/>
       <c r="D68" s="29">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E68" s="150"/>
       <c r="F68" s="151"/>
@@ -4857,25 +4849,25 @@
       <c r="M68" s="151"/>
       <c r="N68" s="151"/>
       <c r="O68" s="152"/>
-      <c r="P68" s="312">
-        <v>8</v>
-      </c>
-      <c r="Q68" s="313">
-        <v>8</v>
-      </c>
-      <c r="R68" s="313">
-        <v>8</v>
-      </c>
-      <c r="S68" s="294"/>
-      <c r="T68" s="314"/>
-      <c r="U68" s="315"/>
-      <c r="V68" s="294"/>
+      <c r="P68" s="294">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="295">
+        <v>20</v>
+      </c>
+      <c r="R68" s="295">
+        <v>10</v>
+      </c>
+      <c r="S68" s="276"/>
+      <c r="T68" s="296"/>
+      <c r="U68" s="297"/>
+      <c r="V68" s="276"/>
       <c r="W68" s="151"/>
       <c r="X68" s="151"/>
       <c r="Y68" s="155"/>
-      <c r="Z68" s="329">
+      <c r="Z68" s="311">
         <f>SUM(Q66:Q74)</f>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4884,7 +4876,7 @@
       </c>
       <c r="C69" s="184"/>
       <c r="D69" s="29">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E69" s="150"/>
       <c r="F69" s="151"/>
@@ -4897,21 +4889,23 @@
       <c r="M69" s="151"/>
       <c r="N69" s="151"/>
       <c r="O69" s="152"/>
-      <c r="P69" s="316"/>
-      <c r="Q69" s="294"/>
-      <c r="R69" s="313">
-        <v>8</v>
-      </c>
-      <c r="S69" s="294"/>
-      <c r="T69" s="314"/>
-      <c r="U69" s="315"/>
-      <c r="V69" s="294"/>
+      <c r="P69" s="298"/>
+      <c r="Q69" s="276"/>
+      <c r="R69" s="295">
+        <v>10</v>
+      </c>
+      <c r="S69" s="295">
+        <v>12</v>
+      </c>
+      <c r="T69" s="296"/>
+      <c r="U69" s="297"/>
+      <c r="V69" s="276"/>
       <c r="W69" s="151"/>
       <c r="X69" s="151"/>
       <c r="Y69" s="155"/>
-      <c r="Z69" s="329">
+      <c r="Z69" s="311">
         <f>SUM(R66:R74)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4921,7 +4915,7 @@
       <c r="C70" s="183"/>
       <c r="D70" s="28">
         <f>SUM(D71:D74)</f>
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E70" s="144"/>
       <c r="F70" s="145"/>
@@ -4934,19 +4928,19 @@
       <c r="M70" s="145"/>
       <c r="N70" s="145"/>
       <c r="O70" s="146"/>
-      <c r="P70" s="317"/>
-      <c r="Q70" s="299"/>
-      <c r="R70" s="299"/>
-      <c r="S70" s="299"/>
-      <c r="T70" s="318"/>
-      <c r="U70" s="319"/>
-      <c r="V70" s="299"/>
+      <c r="P70" s="299"/>
+      <c r="Q70" s="281"/>
+      <c r="R70" s="281"/>
+      <c r="S70" s="281"/>
+      <c r="T70" s="300"/>
+      <c r="U70" s="301"/>
+      <c r="V70" s="281"/>
       <c r="W70" s="145"/>
       <c r="X70" s="145"/>
       <c r="Y70" s="149"/>
-      <c r="Z70" s="329">
+      <c r="Z70" s="311">
         <f>SUM(S66:S74)</f>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4968,23 +4962,25 @@
       <c r="M71" s="151"/>
       <c r="N71" s="151"/>
       <c r="O71" s="152"/>
-      <c r="P71" s="316"/>
-      <c r="Q71" s="294"/>
-      <c r="R71" s="294"/>
-      <c r="S71" s="313">
-        <v>12</v>
-      </c>
-      <c r="T71" s="320">
-        <v>12</v>
-      </c>
-      <c r="U71" s="315"/>
-      <c r="V71" s="294"/>
+      <c r="P71" s="298"/>
+      <c r="Q71" s="276"/>
+      <c r="R71" s="295">
+        <v>8</v>
+      </c>
+      <c r="S71" s="295">
+        <v>8</v>
+      </c>
+      <c r="T71" s="302">
+        <v>8</v>
+      </c>
+      <c r="U71" s="297"/>
+      <c r="V71" s="276"/>
       <c r="W71" s="151"/>
       <c r="X71" s="151"/>
       <c r="Y71" s="155"/>
-      <c r="Z71" s="329">
+      <c r="Z71" s="311">
         <f>SUM(T66:T74)</f>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5006,23 +5002,23 @@
       <c r="M72" s="151"/>
       <c r="N72" s="151"/>
       <c r="O72" s="152"/>
-      <c r="P72" s="316"/>
-      <c r="Q72" s="294"/>
-      <c r="R72" s="294"/>
-      <c r="S72" s="313">
+      <c r="P72" s="298"/>
+      <c r="Q72" s="276"/>
+      <c r="R72" s="276"/>
+      <c r="S72" s="295">
         <v>8</v>
       </c>
-      <c r="T72" s="320">
+      <c r="T72" s="302">
         <v>8</v>
       </c>
-      <c r="U72" s="315"/>
-      <c r="V72" s="294"/>
+      <c r="U72" s="297"/>
+      <c r="V72" s="276"/>
       <c r="W72" s="151"/>
       <c r="X72" s="151"/>
       <c r="Y72" s="155"/>
-      <c r="Z72" s="329">
+      <c r="Z72" s="311">
         <f>SUM(U66:U74)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5031,7 +5027,7 @@
       </c>
       <c r="C73" s="225"/>
       <c r="D73" s="192">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E73" s="193"/>
       <c r="F73" s="194"/>
@@ -5044,23 +5040,23 @@
       <c r="M73" s="194"/>
       <c r="N73" s="194"/>
       <c r="O73" s="195"/>
-      <c r="P73" s="321"/>
-      <c r="Q73" s="296"/>
-      <c r="R73" s="296"/>
-      <c r="S73" s="322">
-        <v>16</v>
-      </c>
-      <c r="T73" s="323">
-        <v>16</v>
-      </c>
-      <c r="U73" s="324"/>
-      <c r="V73" s="296"/>
+      <c r="P73" s="303"/>
+      <c r="Q73" s="278"/>
+      <c r="R73" s="278"/>
+      <c r="S73" s="304">
+        <v>8</v>
+      </c>
+      <c r="T73" s="305">
+        <v>12</v>
+      </c>
+      <c r="U73" s="306"/>
+      <c r="V73" s="278"/>
       <c r="W73" s="194"/>
       <c r="X73" s="194"/>
       <c r="Y73" s="198"/>
-      <c r="Z73" s="329">
+      <c r="Z73" s="311">
         <f>SUM(V66:V74)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5069,7 +5065,7 @@
       </c>
       <c r="C74" s="185"/>
       <c r="D74" s="30">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E74" s="156"/>
       <c r="F74" s="157"/>
@@ -5082,32 +5078,32 @@
       <c r="M74" s="157"/>
       <c r="N74" s="157"/>
       <c r="O74" s="158"/>
-      <c r="P74" s="325"/>
-      <c r="Q74" s="300"/>
-      <c r="R74" s="300"/>
-      <c r="S74" s="326">
+      <c r="P74" s="307"/>
+      <c r="Q74" s="282"/>
+      <c r="R74" s="282"/>
+      <c r="S74" s="308">
+        <v>4</v>
+      </c>
+      <c r="T74" s="309">
         <v>12</v>
       </c>
-      <c r="T74" s="327">
-        <v>12</v>
-      </c>
-      <c r="U74" s="328">
-        <v>12</v>
-      </c>
-      <c r="V74" s="326">
-        <v>12</v>
+      <c r="U74" s="310">
+        <v>20</v>
+      </c>
+      <c r="V74" s="308">
+        <v>20</v>
       </c>
       <c r="W74" s="157"/>
       <c r="X74" s="157"/>
       <c r="Y74" s="161"/>
-      <c r="Z74" s="329">
+      <c r="Z74" s="311">
         <f>SUM(Z67:Z73)</f>
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="252"/>
-      <c r="C75" s="252"/>
+      <c r="B75" s="319"/>
+      <c r="C75" s="319"/>
       <c r="D75" s="6"/>
       <c r="E75" s="174"/>
       <c r="F75" s="174"/>
@@ -5184,16 +5180,16 @@
       <c r="P77" s="180"/>
       <c r="Q77" s="178"/>
       <c r="R77" s="178"/>
-      <c r="S77" s="301"/>
-      <c r="T77" s="330"/>
-      <c r="U77" s="331">
+      <c r="S77" s="283"/>
+      <c r="T77" s="312"/>
+      <c r="U77" s="313">
         <v>4</v>
       </c>
-      <c r="V77" s="332">
+      <c r="V77" s="314">
         <v>4</v>
       </c>
-      <c r="W77" s="301"/>
-      <c r="X77" s="301"/>
+      <c r="W77" s="283"/>
+      <c r="X77" s="283"/>
       <c r="Y77" s="182"/>
     </row>
     <row r="78" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5218,14 +5214,14 @@
       <c r="P78" s="153"/>
       <c r="Q78" s="151"/>
       <c r="R78" s="151"/>
-      <c r="S78" s="294"/>
-      <c r="T78" s="314"/>
-      <c r="U78" s="315"/>
-      <c r="V78" s="294"/>
-      <c r="W78" s="333">
+      <c r="S78" s="276"/>
+      <c r="T78" s="296"/>
+      <c r="U78" s="297"/>
+      <c r="V78" s="276"/>
+      <c r="W78" s="315">
         <v>16</v>
       </c>
-      <c r="X78" s="333">
+      <c r="X78" s="315">
         <v>16</v>
       </c>
       <c r="Y78" s="155"/>
@@ -5252,29 +5248,29 @@
       <c r="P79" s="159"/>
       <c r="Q79" s="157"/>
       <c r="R79" s="157"/>
-      <c r="S79" s="334">
+      <c r="S79" s="316">
+        <v>4</v>
+      </c>
+      <c r="T79" s="317">
+        <v>4</v>
+      </c>
+      <c r="U79" s="318">
         <v>10</v>
       </c>
-      <c r="T79" s="335">
-        <v>10</v>
-      </c>
-      <c r="U79" s="336">
-        <v>10</v>
-      </c>
-      <c r="V79" s="334">
-        <v>10</v>
-      </c>
-      <c r="W79" s="334">
-        <v>10</v>
-      </c>
-      <c r="X79" s="334">
-        <v>10</v>
+      <c r="V79" s="316">
+        <v>12</v>
+      </c>
+      <c r="W79" s="316">
+        <v>15</v>
+      </c>
+      <c r="X79" s="316">
+        <v>15</v>
       </c>
       <c r="Y79" s="161"/>
     </row>
     <row r="80" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="252"/>
-      <c r="C80" s="252"/>
+      <c r="B80" s="319"/>
+      <c r="C80" s="319"/>
       <c r="D80" s="6"/>
       <c r="P80" s="4"/>
       <c r="T80" s="5"/>
@@ -5286,7 +5282,7 @@
       <c r="C81" s="101"/>
       <c r="D81" s="102">
         <f>900-(D18+D26+D52+D65+D76+D83)</f>
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E81" s="103"/>
       <c r="F81" s="104"/>
@@ -5311,8 +5307,8 @@
       <c r="Y81" s="108"/>
     </row>
     <row r="82" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="252"/>
-      <c r="C82" s="252"/>
+      <c r="B82" s="319"/>
+      <c r="C82" s="319"/>
       <c r="D82" s="6"/>
       <c r="P82" s="4"/>
       <c r="T82" s="5"/>
@@ -5466,11 +5462,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B51:C51"/>
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B25:C25"/>
@@ -5487,6 +5478,11 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <conditionalFormatting sqref="B42:B49">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
@@ -5503,7 +5499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE1D9AE-9DE4-429B-B54D-AD135E125BE6}">
   <dimension ref="B1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -5512,27 +5508,27 @@
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="291" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="273" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="261" t="s">
+      <c r="B2" s="331" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="263" t="s">
+      <c r="C2" s="333" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="265" t="s">
+      <c r="D2" s="335" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="266"/>
+      <c r="E2" s="336"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="262"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="271" t="s">
+      <c r="B3" s="332"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="253" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="61" t="s">
@@ -5547,12 +5543,12 @@
         <f>SUM(C5,C8,C9,C10)</f>
         <v>50</v>
       </c>
-      <c r="D4" s="272">
-        <f>C4*$D$86</f>
+      <c r="D4" s="254">
+        <f t="shared" ref="D4:D10" si="0">C4*$D$86</f>
         <v>5950</v>
       </c>
       <c r="E4" s="64">
-        <f>D4/$D$67</f>
+        <f t="shared" ref="E4:E17" si="1">D4/$D$67</f>
         <v>9.2008412197686643E-2</v>
       </c>
     </row>
@@ -5564,12 +5560,12 @@
         <f>SUM(C6:C7)</f>
         <v>16</v>
       </c>
-      <c r="D5" s="273">
-        <f>C5*$D$86</f>
+      <c r="D5" s="255">
+        <f t="shared" si="0"/>
         <v>1904</v>
       </c>
       <c r="E5" s="66">
-        <f>D5/$D$67</f>
+        <f t="shared" si="1"/>
         <v>2.9442691903259727E-2</v>
       </c>
     </row>
@@ -5581,12 +5577,12 @@
         <f>Strukturplan!D20</f>
         <v>12</v>
       </c>
-      <c r="D6" s="274">
-        <f>C6*$D$86</f>
+      <c r="D6" s="256">
+        <f t="shared" si="0"/>
         <v>1428</v>
       </c>
       <c r="E6" s="69">
-        <f>D6/$D$67</f>
+        <f t="shared" si="1"/>
         <v>2.2082018927444796E-2</v>
       </c>
     </row>
@@ -5594,33 +5590,33 @@
       <c r="B7" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="267">
+      <c r="C7" s="249">
         <f>Strukturplan!D21</f>
         <v>4</v>
       </c>
-      <c r="D7" s="275">
-        <f>C7*$D$86</f>
+      <c r="D7" s="257">
+        <f t="shared" si="0"/>
         <v>476</v>
       </c>
       <c r="E7" s="70">
-        <f>D7/$D$67</f>
+        <f t="shared" si="1"/>
         <v>7.3606729758149319E-3</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="269" t="s">
+      <c r="B8" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="268">
+      <c r="C8" s="250">
         <f>Strukturplan!D22</f>
         <v>12</v>
       </c>
-      <c r="D8" s="276">
-        <f>C8*$D$86</f>
+      <c r="D8" s="258">
+        <f t="shared" si="0"/>
         <v>1428</v>
       </c>
       <c r="E8" s="73">
-        <f>D8/$D$67</f>
+        <f t="shared" si="1"/>
         <v>2.2082018927444796E-2</v>
       </c>
     </row>
@@ -5628,16 +5624,16 @@
       <c r="B9" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="270">
+      <c r="C9" s="252">
         <f>Strukturplan!D23</f>
         <v>12</v>
       </c>
-      <c r="D9" s="276">
-        <f>C9*$D$86</f>
+      <c r="D9" s="258">
+        <f t="shared" si="0"/>
         <v>1428</v>
       </c>
       <c r="E9" s="73">
-        <f>D9/$D$67</f>
+        <f t="shared" si="1"/>
         <v>2.2082018927444796E-2</v>
       </c>
     </row>
@@ -5645,16 +5641,16 @@
       <c r="B10" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="268">
+      <c r="C10" s="250">
         <f>Strukturplan!D24</f>
         <v>10</v>
       </c>
-      <c r="D10" s="276">
-        <f>C10*$D$86</f>
+      <c r="D10" s="258">
+        <f t="shared" si="0"/>
         <v>1190</v>
       </c>
       <c r="E10" s="73">
-        <f>D10/$D$67</f>
+        <f t="shared" si="1"/>
         <v>1.8401682439537329E-2</v>
       </c>
     </row>
@@ -5664,15 +5660,15 @@
       </c>
       <c r="C11" s="78">
         <f>SUM(C12,C20,C27)</f>
-        <v>242</v>
-      </c>
-      <c r="D11" s="277">
-        <f>C11*$D$87</f>
-        <v>16456</v>
+        <v>186</v>
+      </c>
+      <c r="D11" s="259">
+        <f t="shared" ref="D11:D25" si="2">C11*$D$87</f>
+        <v>12648</v>
       </c>
       <c r="E11" s="79">
-        <f>D11/$D$67</f>
-        <v>0.25446898002103052</v>
+        <f t="shared" si="1"/>
+        <v>0.19558359621451105</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -5681,15 +5677,15 @@
       </c>
       <c r="C12" s="65">
         <f>SUM(C13:C19)</f>
-        <v>108</v>
-      </c>
-      <c r="D12" s="273">
-        <f>C12*$D$87</f>
-        <v>7344</v>
+        <v>97</v>
+      </c>
+      <c r="D12" s="255">
+        <f t="shared" si="2"/>
+        <v>6596</v>
       </c>
       <c r="E12" s="66">
-        <f>D12/$D$67</f>
-        <v>0.11356466876971609</v>
+        <f t="shared" si="1"/>
+        <v>0.10199789695057834</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -5698,15 +5694,15 @@
       </c>
       <c r="C13" s="68">
         <f>Strukturplan!D28</f>
-        <v>32</v>
-      </c>
-      <c r="D13" s="273">
-        <f>C13*$D$87</f>
-        <v>2176</v>
+        <v>24</v>
+      </c>
+      <c r="D13" s="255">
+        <f t="shared" si="2"/>
+        <v>1632</v>
       </c>
       <c r="E13" s="69">
-        <f>D13/$D$67</f>
-        <v>3.3648790746582544E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.5236593059936908E-2</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -5717,12 +5713,12 @@
         <f>Strukturplan!D29</f>
         <v>8</v>
       </c>
-      <c r="D14" s="273">
-        <f>C14*$D$87</f>
+      <c r="D14" s="255">
+        <f t="shared" si="2"/>
         <v>544</v>
       </c>
       <c r="E14" s="69">
-        <f>D14/$D$67</f>
+        <f t="shared" si="1"/>
         <v>8.4121976866456359E-3</v>
       </c>
     </row>
@@ -5734,12 +5730,12 @@
         <f>Strukturplan!D30</f>
         <v>8</v>
       </c>
-      <c r="D15" s="273">
-        <f>C15*$D$87</f>
+      <c r="D15" s="255">
+        <f t="shared" si="2"/>
         <v>544</v>
       </c>
       <c r="E15" s="69">
-        <f>D15/$D$67</f>
+        <f t="shared" si="1"/>
         <v>8.4121976866456359E-3</v>
       </c>
     </row>
@@ -5751,12 +5747,12 @@
         <f>Strukturplan!D31</f>
         <v>12</v>
       </c>
-      <c r="D16" s="273">
-        <f>C16*$D$87</f>
+      <c r="D16" s="255">
+        <f t="shared" si="2"/>
         <v>816</v>
       </c>
       <c r="E16" s="69">
-        <f>D16/$D$67</f>
+        <f t="shared" si="1"/>
         <v>1.2618296529968454E-2</v>
       </c>
     </row>
@@ -5768,12 +5764,12 @@
         <f>Strukturplan!D32</f>
         <v>12</v>
       </c>
-      <c r="D17" s="273">
-        <f>C17*$D$87</f>
+      <c r="D17" s="255">
+        <f t="shared" si="2"/>
         <v>816</v>
       </c>
       <c r="E17" s="69">
-        <f>D17/$D$67</f>
+        <f t="shared" si="1"/>
         <v>1.2618296529968454E-2</v>
       </c>
     </row>
@@ -5783,15 +5779,15 @@
       </c>
       <c r="C18" s="68">
         <f>Strukturplan!D33</f>
-        <v>16</v>
-      </c>
-      <c r="D18" s="273">
-        <f>C18*$D$87</f>
-        <v>1088</v>
+        <v>15</v>
+      </c>
+      <c r="D18" s="255">
+        <f t="shared" si="2"/>
+        <v>1020</v>
       </c>
       <c r="E18" s="69">
-        <f t="shared" ref="E18:E28" si="0">D18/$D$67</f>
-        <v>1.6824395373291272E-2</v>
+        <f t="shared" ref="E18:E28" si="3">D18/$D$67</f>
+        <v>1.5772870662460567E-2</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5800,15 +5796,15 @@
       </c>
       <c r="C19" s="68">
         <f>Strukturplan!D34</f>
-        <v>20</v>
-      </c>
-      <c r="D19" s="273">
-        <f>C19*$D$87</f>
-        <v>1360</v>
+        <v>18</v>
+      </c>
+      <c r="D19" s="255">
+        <f t="shared" si="2"/>
+        <v>1224</v>
       </c>
       <c r="E19" s="70">
-        <f t="shared" si="0"/>
-        <v>2.1030494216614092E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.8927444794952682E-2</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -5817,15 +5813,15 @@
       </c>
       <c r="C20" s="71">
         <f>SUM(C21:C26)</f>
-        <v>66</v>
-      </c>
-      <c r="D20" s="278">
-        <f>C20*$D$87</f>
-        <v>4488</v>
+        <v>43</v>
+      </c>
+      <c r="D20" s="260">
+        <f t="shared" si="2"/>
+        <v>2924</v>
       </c>
       <c r="E20" s="72">
-        <f t="shared" si="0"/>
-        <v>6.9400630914826497E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.5215562565720298E-2</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -5834,15 +5830,15 @@
       </c>
       <c r="C21" s="68">
         <f>Strukturplan!D36</f>
-        <v>24</v>
-      </c>
-      <c r="D21" s="273">
-        <f>C21*$D$87</f>
-        <v>1632</v>
+        <v>12</v>
+      </c>
+      <c r="D21" s="255">
+        <f t="shared" si="2"/>
+        <v>816</v>
       </c>
       <c r="E21" s="69">
-        <f t="shared" si="0"/>
-        <v>2.5236593059936908E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.2618296529968454E-2</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -5851,15 +5847,15 @@
       </c>
       <c r="C22" s="68">
         <f>Strukturplan!D37</f>
-        <v>12</v>
-      </c>
-      <c r="D22" s="273">
-        <f>C22*$D$87</f>
-        <v>816</v>
+        <v>9</v>
+      </c>
+      <c r="D22" s="255">
+        <f t="shared" si="2"/>
+        <v>612</v>
       </c>
       <c r="E22" s="69">
-        <f t="shared" si="0"/>
-        <v>1.2618296529968454E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.4637223974763408E-3</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -5870,12 +5866,12 @@
         <f>Strukturplan!D38</f>
         <v>12</v>
       </c>
-      <c r="D23" s="273">
-        <f>C23*$D$87</f>
+      <c r="D23" s="255">
+        <f t="shared" si="2"/>
         <v>816</v>
       </c>
       <c r="E23" s="69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2618296529968454E-2</v>
       </c>
     </row>
@@ -5885,15 +5881,15 @@
       </c>
       <c r="C24" s="68">
         <f>Strukturplan!D39</f>
-        <v>10</v>
-      </c>
-      <c r="D24" s="273">
-        <f>C24*$D$87</f>
-        <v>680</v>
+        <v>6</v>
+      </c>
+      <c r="D24" s="255">
+        <f t="shared" si="2"/>
+        <v>408</v>
       </c>
       <c r="E24" s="69">
-        <f t="shared" si="0"/>
-        <v>1.0515247108307046E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.3091482649842269E-3</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -5902,21 +5898,21 @@
       </c>
       <c r="C25" s="68">
         <f>Strukturplan!D40</f>
-        <v>8</v>
-      </c>
-      <c r="D25" s="273">
-        <f>C25*$D$87</f>
-        <v>544</v>
+        <v>4</v>
+      </c>
+      <c r="D25" s="255">
+        <f t="shared" si="2"/>
+        <v>272</v>
       </c>
       <c r="E25" s="69">
-        <f t="shared" si="0"/>
-        <v>8.4121976866456359E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.206098843322818E-3</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="113"/>
       <c r="C26" s="68"/>
-      <c r="D26" s="279"/>
+      <c r="D26" s="261"/>
       <c r="E26" s="82"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -5925,15 +5921,15 @@
       </c>
       <c r="C27" s="71">
         <f>SUM(C28:C34)</f>
-        <v>68</v>
-      </c>
-      <c r="D27" s="278">
-        <f>C27*$D$86</f>
-        <v>8092</v>
+        <v>46</v>
+      </c>
+      <c r="D27" s="260">
+        <f t="shared" ref="D27:D34" si="4">C27*$D$86</f>
+        <v>5474</v>
       </c>
       <c r="E27" s="72">
-        <f t="shared" si="0"/>
-        <v>0.12513144058885384</v>
+        <f t="shared" si="3"/>
+        <v>8.4647739221871715E-2</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -5944,12 +5940,12 @@
         <f>Strukturplan!D43</f>
         <v>8</v>
       </c>
-      <c r="D28" s="274">
-        <f>C28*$D$86</f>
+      <c r="D28" s="256">
+        <f t="shared" si="4"/>
         <v>952</v>
       </c>
       <c r="E28" s="69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4721345951629864E-2</v>
       </c>
     </row>
@@ -5959,15 +5955,15 @@
       </c>
       <c r="C29" s="68">
         <f>Strukturplan!D44</f>
-        <v>16</v>
-      </c>
-      <c r="D29" s="274">
-        <f>C29*$D$86</f>
-        <v>1904</v>
+        <v>8</v>
+      </c>
+      <c r="D29" s="256">
+        <f t="shared" si="4"/>
+        <v>952</v>
       </c>
       <c r="E29" s="69">
         <f>D29/$D$67</f>
-        <v>2.9442691903259727E-2</v>
+        <v>1.4721345951629864E-2</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -5976,15 +5972,15 @@
       </c>
       <c r="C30" s="68">
         <f>Strukturplan!D45</f>
-        <v>10</v>
-      </c>
-      <c r="D30" s="274">
-        <f>C30*$D$86</f>
-        <v>1190</v>
+        <v>8</v>
+      </c>
+      <c r="D30" s="256">
+        <f t="shared" si="4"/>
+        <v>952</v>
       </c>
       <c r="E30" s="69">
         <f>D30/$D$67</f>
-        <v>1.8401682439537329E-2</v>
+        <v>1.4721345951629864E-2</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -5993,15 +5989,15 @@
       </c>
       <c r="C31" s="68">
         <f>Strukturplan!D46</f>
-        <v>10</v>
-      </c>
-      <c r="D31" s="274">
-        <f>C31*$D$86</f>
-        <v>1190</v>
+        <v>6</v>
+      </c>
+      <c r="D31" s="256">
+        <f t="shared" si="4"/>
+        <v>714</v>
       </c>
       <c r="E31" s="69">
-        <f t="shared" ref="E31:E36" si="1">D31/$D$67</f>
-        <v>1.8401682439537329E-2</v>
+        <f t="shared" ref="E31:E36" si="5">D31/$D$67</f>
+        <v>1.1041009463722398E-2</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -6010,15 +6006,15 @@
       </c>
       <c r="C32" s="68">
         <f>Strukturplan!D47</f>
-        <v>8</v>
-      </c>
-      <c r="D32" s="274">
-        <f>C32*$D$86</f>
-        <v>952</v>
+        <v>6</v>
+      </c>
+      <c r="D32" s="256">
+        <f t="shared" si="4"/>
+        <v>714</v>
       </c>
       <c r="E32" s="69">
-        <f t="shared" si="1"/>
-        <v>1.4721345951629864E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.1041009463722398E-2</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -6027,15 +6023,15 @@
       </c>
       <c r="C33" s="68">
         <f>Strukturplan!D48</f>
-        <v>8</v>
-      </c>
-      <c r="D33" s="274">
-        <f>C33*$D$86</f>
-        <v>952</v>
+        <v>6</v>
+      </c>
+      <c r="D33" s="256">
+        <f t="shared" si="4"/>
+        <v>714</v>
       </c>
       <c r="E33" s="69">
-        <f t="shared" si="1"/>
-        <v>1.4721345951629864E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.1041009463722398E-2</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6044,15 +6040,15 @@
       </c>
       <c r="C34" s="68">
         <f>Strukturplan!D49</f>
-        <v>8</v>
-      </c>
-      <c r="D34" s="275">
-        <f>C34*$D$86</f>
-        <v>952</v>
+        <v>4</v>
+      </c>
+      <c r="D34" s="257">
+        <f t="shared" si="4"/>
+        <v>476</v>
       </c>
       <c r="E34" s="70">
-        <f t="shared" si="1"/>
-        <v>1.4721345951629864E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.3606729758149319E-3</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6061,15 +6057,15 @@
       </c>
       <c r="C35" s="84">
         <f>SUM(C36,C43)</f>
-        <v>272</v>
-      </c>
-      <c r="D35" s="280">
-        <f>C35*$D$87</f>
-        <v>18496</v>
+        <v>256</v>
+      </c>
+      <c r="D35" s="262">
+        <f t="shared" ref="D35:D46" si="6">C35*$D$87</f>
+        <v>17408</v>
       </c>
       <c r="E35" s="85">
-        <f t="shared" si="1"/>
-        <v>0.28601472134595163</v>
+        <f t="shared" si="5"/>
+        <v>0.26919032597266035</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -6078,15 +6074,15 @@
       </c>
       <c r="C36" s="65">
         <f>SUM(C37:C42)</f>
-        <v>200</v>
-      </c>
-      <c r="D36" s="273">
-        <f>C36*$D$87</f>
-        <v>13600</v>
+        <v>190</v>
+      </c>
+      <c r="D36" s="255">
+        <f t="shared" si="6"/>
+        <v>12920</v>
       </c>
       <c r="E36" s="66">
-        <f t="shared" si="1"/>
-        <v>0.2103049421661409</v>
+        <f t="shared" si="5"/>
+        <v>0.19978969505783387</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -6097,8 +6093,8 @@
         <f>Strukturplan!D54</f>
         <v>24</v>
       </c>
-      <c r="D37" s="273">
-        <f>C37*$D$87</f>
+      <c r="D37" s="255">
+        <f t="shared" si="6"/>
         <v>1632</v>
       </c>
       <c r="E37" s="66">
@@ -6112,15 +6108,15 @@
       </c>
       <c r="C38" s="246">
         <f>Strukturplan!D55</f>
-        <v>32</v>
-      </c>
-      <c r="D38" s="273">
-        <f>C38*$D$87</f>
-        <v>2176</v>
+        <v>36</v>
+      </c>
+      <c r="D38" s="255">
+        <f t="shared" si="6"/>
+        <v>2448</v>
       </c>
       <c r="E38" s="66">
         <f>D38/$D$67</f>
-        <v>3.3648790746582544E-2</v>
+        <v>3.7854889589905363E-2</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -6129,15 +6125,15 @@
       </c>
       <c r="C39" s="246">
         <f>Strukturplan!D56</f>
-        <v>32</v>
-      </c>
-      <c r="D39" s="273">
-        <f>C39*$D$87</f>
-        <v>2176</v>
+        <v>18</v>
+      </c>
+      <c r="D39" s="255">
+        <f t="shared" si="6"/>
+        <v>1224</v>
       </c>
       <c r="E39" s="66">
         <f>D39/$D$67</f>
-        <v>3.3648790746582544E-2</v>
+        <v>1.8927444794952682E-2</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -6148,12 +6144,12 @@
         <f>Strukturplan!D57</f>
         <v>16</v>
       </c>
-      <c r="D40" s="273">
-        <f>C40*$D$87</f>
+      <c r="D40" s="255">
+        <f t="shared" si="6"/>
         <v>1088</v>
       </c>
       <c r="E40" s="69">
-        <f t="shared" ref="E40:E46" si="2">D40/$D$67</f>
+        <f t="shared" ref="E40:E46" si="7">D40/$D$67</f>
         <v>1.6824395373291272E-2</v>
       </c>
     </row>
@@ -6165,12 +6161,12 @@
         <f>Strukturplan!D58</f>
         <v>48</v>
       </c>
-      <c r="D41" s="273">
-        <f>C41*$D$87</f>
+      <c r="D41" s="255">
+        <f t="shared" si="6"/>
         <v>3264</v>
       </c>
       <c r="E41" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.0473186119873815E-2</v>
       </c>
     </row>
@@ -6182,12 +6178,12 @@
         <f>Strukturplan!D59</f>
         <v>48</v>
       </c>
-      <c r="D42" s="281">
-        <f>C42*$D$87</f>
+      <c r="D42" s="263">
+        <f t="shared" si="6"/>
         <v>3264</v>
       </c>
       <c r="E42" s="70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5.0473186119873815E-2</v>
       </c>
     </row>
@@ -6197,15 +6193,15 @@
       </c>
       <c r="C43" s="71">
         <f>SUM(C44:C46)</f>
-        <v>72</v>
-      </c>
-      <c r="D43" s="278">
-        <f>C43*$D$87</f>
-        <v>4896</v>
+        <v>66</v>
+      </c>
+      <c r="D43" s="260">
+        <f t="shared" si="6"/>
+        <v>4488</v>
       </c>
       <c r="E43" s="72">
-        <f t="shared" si="2"/>
-        <v>7.5709779179810727E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.9400630914826497E-2</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -6216,12 +6212,12 @@
         <f>Strukturplan!D61</f>
         <v>24</v>
       </c>
-      <c r="D44" s="282">
-        <f>C44*$D$87</f>
+      <c r="D44" s="264">
+        <f t="shared" si="6"/>
         <v>1632</v>
       </c>
       <c r="E44" s="69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.5236593059936908E-2</v>
       </c>
     </row>
@@ -6231,38 +6227,38 @@
       </c>
       <c r="C45" s="248">
         <f>Strukturplan!D62</f>
-        <v>32</v>
-      </c>
-      <c r="D45" s="282">
-        <f>C45*$D$87</f>
-        <v>2176</v>
+        <v>24</v>
+      </c>
+      <c r="D45" s="264">
+        <f t="shared" si="6"/>
+        <v>1632</v>
       </c>
       <c r="E45" s="69">
-        <f t="shared" si="2"/>
-        <v>3.3648790746582544E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.5236593059936908E-2</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="292" t="s">
+      <c r="B46" s="274" t="s">
         <v>97</v>
       </c>
       <c r="C46" s="247">
         <f>Strukturplan!D63</f>
-        <v>16</v>
-      </c>
-      <c r="D46" s="283">
-        <f>C46*$D$87</f>
-        <v>1088</v>
+        <v>18</v>
+      </c>
+      <c r="D46" s="265">
+        <f t="shared" si="6"/>
+        <v>1224</v>
       </c>
       <c r="E46" s="82">
-        <f t="shared" si="2"/>
-        <v>1.6824395373291272E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.8927444794952682E-2</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="74"/>
       <c r="C47" s="75"/>
-      <c r="D47" s="284"/>
+      <c r="D47" s="266"/>
       <c r="E47" s="76"/>
     </row>
     <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6271,15 +6267,15 @@
       </c>
       <c r="C48" s="87">
         <f>SUM(C49,C53)</f>
-        <v>200</v>
-      </c>
-      <c r="D48" s="285">
-        <f>C48*$D$87</f>
-        <v>13600</v>
+        <v>240</v>
+      </c>
+      <c r="D48" s="267">
+        <f t="shared" ref="D48:D54" si="8">C48*$D$87</f>
+        <v>16320</v>
       </c>
       <c r="E48" s="88">
-        <f>D48/$D$67</f>
-        <v>0.2103049421661409</v>
+        <f t="shared" ref="E48:E66" si="9">D48/$D$67</f>
+        <v>0.25236593059936907</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -6288,15 +6284,15 @@
       </c>
       <c r="C49" s="71">
         <f>SUM(C50:C52)</f>
-        <v>80</v>
-      </c>
-      <c r="D49" s="278">
-        <f>C49*$D$87</f>
-        <v>5440</v>
+        <v>124</v>
+      </c>
+      <c r="D49" s="260">
+        <f t="shared" si="8"/>
+        <v>8432</v>
       </c>
       <c r="E49" s="72">
-        <f>D49/$D$67</f>
-        <v>8.4121976866456366E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.13038906414300735</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
@@ -6305,15 +6301,15 @@
       </c>
       <c r="C50" s="68">
         <f>Strukturplan!D67</f>
-        <v>48</v>
-      </c>
-      <c r="D50" s="273">
-        <f>C50*$D$87</f>
-        <v>3264</v>
+        <v>52</v>
+      </c>
+      <c r="D50" s="255">
+        <f t="shared" si="8"/>
+        <v>3536</v>
       </c>
       <c r="E50" s="69">
-        <f>D50/$D$67</f>
-        <v>5.0473186119873815E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.4679284963196635E-2</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -6322,32 +6318,32 @@
       </c>
       <c r="C51" s="68">
         <f>Strukturplan!D68</f>
-        <v>24</v>
-      </c>
-      <c r="D51" s="273">
-        <f>C51*$D$87</f>
-        <v>1632</v>
+        <v>50</v>
+      </c>
+      <c r="D51" s="255">
+        <f t="shared" si="8"/>
+        <v>3400</v>
       </c>
       <c r="E51" s="69">
-        <f>D51/$D$67</f>
-        <v>2.5236593059936908E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.2576235541535225E-2</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="267">
+      <c r="C52" s="249">
         <f>Strukturplan!D69</f>
-        <v>8</v>
-      </c>
-      <c r="D52" s="281">
-        <f>C52*$D$87</f>
-        <v>544</v>
+        <v>22</v>
+      </c>
+      <c r="D52" s="263">
+        <f t="shared" si="8"/>
+        <v>1496</v>
       </c>
       <c r="E52" s="70">
-        <f>D52/$D$67</f>
-        <v>8.4121976866456359E-3</v>
+        <f t="shared" si="9"/>
+        <v>2.3133543638275498E-2</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
@@ -6356,15 +6352,15 @@
       </c>
       <c r="C53" s="71">
         <f>SUM(C54:C57)</f>
-        <v>120</v>
-      </c>
-      <c r="D53" s="278">
-        <f>C53*$D$87</f>
-        <v>8160</v>
+        <v>116</v>
+      </c>
+      <c r="D53" s="260">
+        <f t="shared" si="8"/>
+        <v>7888</v>
       </c>
       <c r="E53" s="72">
-        <f>D53/$D$67</f>
-        <v>0.12618296529968454</v>
+        <f t="shared" si="9"/>
+        <v>0.12197686645636173</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
@@ -6375,12 +6371,12 @@
         <f>Strukturplan!D71</f>
         <v>24</v>
       </c>
-      <c r="D54" s="273">
-        <f>C54*$D$87</f>
+      <c r="D54" s="255">
+        <f t="shared" si="8"/>
         <v>1632</v>
       </c>
       <c r="E54" s="69">
-        <f>D54/$D$67</f>
+        <f t="shared" si="9"/>
         <v>2.5236593059936908E-2</v>
       </c>
     </row>
@@ -6392,12 +6388,12 @@
         <f>Strukturplan!D72</f>
         <v>16</v>
       </c>
-      <c r="D55" s="273">
-        <f t="shared" ref="D55:D56" si="3">C55*$D$87</f>
+      <c r="D55" s="255">
+        <f t="shared" ref="D55:D56" si="10">C55*$D$87</f>
         <v>1088</v>
       </c>
       <c r="E55" s="69">
-        <f>D55/$D$67</f>
+        <f t="shared" si="9"/>
         <v>1.6824395373291272E-2</v>
       </c>
     </row>
@@ -6407,15 +6403,15 @@
       </c>
       <c r="C56" s="68">
         <f>Strukturplan!D73</f>
-        <v>32</v>
-      </c>
-      <c r="D56" s="273">
-        <f t="shared" si="3"/>
-        <v>2176</v>
+        <v>20</v>
+      </c>
+      <c r="D56" s="255">
+        <f t="shared" si="10"/>
+        <v>1360</v>
       </c>
       <c r="E56" s="69">
-        <f>D56/$D$67</f>
-        <v>3.3648790746582544E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.1030494216614092E-2</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6424,15 +6420,15 @@
       </c>
       <c r="C57" s="81">
         <f>Strukturplan!D74</f>
-        <v>48</v>
-      </c>
-      <c r="D57" s="273">
+        <v>56</v>
+      </c>
+      <c r="D57" s="255">
         <f>C57*$D$87</f>
-        <v>3264</v>
+        <v>3808</v>
       </c>
       <c r="E57" s="82">
-        <f>D57/$D$67</f>
-        <v>5.0473186119873815E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.8885383806519455E-2</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6443,12 +6439,12 @@
         <f>SUM(C59:C61)</f>
         <v>100</v>
       </c>
-      <c r="D58" s="286">
+      <c r="D58" s="268">
         <f>C58*$D$87</f>
         <v>6800</v>
       </c>
       <c r="E58" s="99">
-        <f>D58/$D$67</f>
+        <f t="shared" si="9"/>
         <v>0.10515247108307045</v>
       </c>
     </row>
@@ -6460,12 +6456,12 @@
         <f>Strukturplan!D77</f>
         <v>8</v>
       </c>
-      <c r="D59" s="273">
-        <f t="shared" ref="D59:D61" si="4">C59*$D$87</f>
+      <c r="D59" s="255">
+        <f t="shared" ref="D59:D61" si="11">C59*$D$87</f>
         <v>544</v>
       </c>
       <c r="E59" s="66">
-        <f>D59/$D$67</f>
+        <f t="shared" si="9"/>
         <v>8.4121976866456359E-3</v>
       </c>
     </row>
@@ -6477,12 +6473,12 @@
         <f>Strukturplan!D78</f>
         <v>32</v>
       </c>
-      <c r="D60" s="273">
-        <f t="shared" si="4"/>
+      <c r="D60" s="255">
+        <f t="shared" si="11"/>
         <v>2176</v>
       </c>
       <c r="E60" s="69">
-        <f>D60/$D$67</f>
+        <f t="shared" si="9"/>
         <v>3.3648790746582544E-2</v>
       </c>
     </row>
@@ -6494,12 +6490,12 @@
         <f>Strukturplan!D79</f>
         <v>60</v>
       </c>
-      <c r="D61" s="273">
-        <f t="shared" si="4"/>
+      <c r="D61" s="255">
+        <f t="shared" si="11"/>
         <v>4080</v>
       </c>
       <c r="E61" s="82">
-        <f>D61/$D$67</f>
+        <f t="shared" si="9"/>
         <v>6.3091482649842268E-2</v>
       </c>
     </row>
@@ -6509,15 +6505,15 @@
       </c>
       <c r="C62" s="93">
         <f>Strukturplan!D81</f>
-        <v>18</v>
-      </c>
-      <c r="D62" s="287">
+        <v>50</v>
+      </c>
+      <c r="D62" s="269">
         <f>C62*$D$87</f>
-        <v>1224</v>
+        <v>3400</v>
       </c>
       <c r="E62" s="94">
-        <f>D62/$D$67</f>
-        <v>1.8927444794952682E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.2576235541535225E-2</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6528,12 +6524,12 @@
         <f>SUM(C64:C66)</f>
         <v>18</v>
       </c>
-      <c r="D63" s="288">
+      <c r="D63" s="270">
         <f>C63*$D$86</f>
         <v>2142</v>
       </c>
       <c r="E63" s="97">
-        <f>D63/$D$67</f>
+        <f t="shared" si="9"/>
         <v>3.3123028391167195E-2</v>
       </c>
     </row>
@@ -6545,12 +6541,12 @@
         <f>Strukturplan!D84</f>
         <v>6</v>
       </c>
-      <c r="D64" s="273">
+      <c r="D64" s="255">
         <f>C64*$D$86</f>
         <v>714</v>
       </c>
       <c r="E64" s="66">
-        <f>D64/$D$67</f>
+        <f t="shared" si="9"/>
         <v>1.1041009463722398E-2</v>
       </c>
     </row>
@@ -6562,12 +6558,12 @@
         <f>Strukturplan!D85</f>
         <v>8</v>
       </c>
-      <c r="D65" s="274">
+      <c r="D65" s="256">
         <f>C65*$D$86</f>
         <v>952</v>
       </c>
       <c r="E65" s="69">
-        <f>D65/$D$67</f>
+        <f t="shared" si="9"/>
         <v>1.4721345951629864E-2</v>
       </c>
     </row>
@@ -6579,12 +6575,12 @@
         <f>Strukturplan!D86</f>
         <v>4</v>
       </c>
-      <c r="D66" s="289">
+      <c r="D66" s="271">
         <f>C66*$D$86</f>
         <v>476</v>
       </c>
       <c r="E66" s="82">
-        <f>D66/$D$67</f>
+        <f t="shared" si="9"/>
         <v>7.3606729758149319E-3</v>
       </c>
     </row>
@@ -6596,121 +6592,121 @@
         <f>SUM(C63,C62,C58,C48,C35,C11,C4)</f>
         <v>900</v>
       </c>
-      <c r="D67" s="290">
+      <c r="D67" s="272">
         <f>SUM(D63,D62,D58,D48,D35,D11,D4)</f>
         <v>64668</v>
       </c>
       <c r="E67" s="111">
         <f>SUM(E63,E62,E58,E48,E35,E11,E4)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="98"/>
       <c r="C68" s="98"/>
-      <c r="D68" s="284"/>
+      <c r="D68" s="266"/>
       <c r="E68" s="98"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="98"/>
       <c r="C69" s="98"/>
-      <c r="D69" s="284"/>
+      <c r="D69" s="266"/>
       <c r="E69" s="98"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="98"/>
       <c r="C70" s="98"/>
-      <c r="D70" s="284"/>
+      <c r="D70" s="266"/>
       <c r="E70" s="98"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="98"/>
       <c r="C71" s="98"/>
-      <c r="D71" s="284"/>
+      <c r="D71" s="266"/>
       <c r="E71" s="98"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="98"/>
       <c r="C72" s="98"/>
-      <c r="D72" s="284"/>
+      <c r="D72" s="266"/>
       <c r="E72" s="98"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="98"/>
       <c r="C73" s="98"/>
-      <c r="D73" s="284"/>
+      <c r="D73" s="266"/>
       <c r="E73" s="98"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="98"/>
       <c r="C74" s="98"/>
-      <c r="D74" s="284"/>
+      <c r="D74" s="266"/>
       <c r="E74" s="98"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="98"/>
       <c r="C75" s="98"/>
-      <c r="D75" s="284"/>
+      <c r="D75" s="266"/>
       <c r="E75" s="98"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="98"/>
       <c r="C76" s="98"/>
-      <c r="D76" s="284"/>
+      <c r="D76" s="266"/>
       <c r="E76" s="98"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="98"/>
       <c r="C77" s="98"/>
-      <c r="D77" s="284"/>
+      <c r="D77" s="266"/>
       <c r="E77" s="98"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="98"/>
       <c r="C78" s="98"/>
-      <c r="D78" s="284"/>
+      <c r="D78" s="266"/>
       <c r="E78" s="98"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="98"/>
       <c r="C79" s="98"/>
-      <c r="D79" s="284"/>
+      <c r="D79" s="266"/>
       <c r="E79" s="98"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="98"/>
       <c r="C80" s="98"/>
-      <c r="D80" s="284"/>
+      <c r="D80" s="266"/>
       <c r="E80" s="98"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="98"/>
       <c r="C81" s="98"/>
-      <c r="D81" s="284"/>
+      <c r="D81" s="266"/>
       <c r="E81" s="98"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="98"/>
       <c r="C82" s="98"/>
-      <c r="D82" s="284"/>
+      <c r="D82" s="266"/>
       <c r="E82" s="98"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="98"/>
       <c r="C83" s="98"/>
-      <c r="D83" s="284"/>
+      <c r="D83" s="266"/>
       <c r="E83" s="98"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="98"/>
       <c r="C84" s="98"/>
-      <c r="D84" s="284"/>
+      <c r="D84" s="266"/>
       <c r="E84" s="98"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="98"/>
       <c r="C85" s="98"/>
-      <c r="D85" s="284"/>
+      <c r="D85" s="266"/>
       <c r="E85" s="98"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
@@ -6718,7 +6714,7 @@
       <c r="C86" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="D86" s="284">
+      <c r="D86" s="266">
         <v>119</v>
       </c>
       <c r="E86" s="98"/>
@@ -6728,7 +6724,7 @@
       <c r="C87" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="D87" s="284">
+      <c r="D87" s="266">
         <v>68</v>
       </c>
       <c r="E87" s="98"/>

--- a/Pflichtenheft/Organisatorisch/Projektstrukturplan.xlsx
+++ b/Pflichtenheft/Organisatorisch/Projektstrukturplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\GitHub\pro4e\Pflichtenheft\Organisatorisch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B78DCE-7523-4AFC-9481-FEA3FDFEE7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B12F3B9-7F93-474F-8D54-E25BEE33ECCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11400" activeTab="1" xr2:uid="{8373446C-4546-4EB0-9D8E-7B57F7AE5753}"/>
+    <workbookView xWindow="-9195" yWindow="2910" windowWidth="15375" windowHeight="7890" xr2:uid="{8373446C-4546-4EB0-9D8E-7B57F7AE5753}"/>
   </bookViews>
   <sheets>
     <sheet name="Strukturplan" sheetId="3" r:id="rId1"/>
@@ -2594,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EF78CF-0BF4-4991-AC83-ABD1D98215EE}">
   <dimension ref="B1:Z89"/>
   <sheetViews>
-    <sheetView topLeftCell="B47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,7 +3337,7 @@
       <c r="C26" s="42"/>
       <c r="D26" s="32">
         <f>SUM(D27,D35,D42)</f>
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="E26" s="217"/>
       <c r="F26" s="218"/>
@@ -3368,7 +3368,7 @@
       <c r="C27" s="205"/>
       <c r="D27" s="28">
         <f>SUM(D28:D34)</f>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E27" s="144"/>
       <c r="F27" s="145"/>
@@ -3512,14 +3512,14 @@
         <v>48</v>
       </c>
       <c r="D31" s="192">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E31" s="193"/>
       <c r="F31" s="277">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G31" s="277">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H31" s="278"/>
       <c r="I31" s="278"/>
@@ -3548,14 +3548,14 @@
         <v>65</v>
       </c>
       <c r="D32" s="192">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E32" s="193"/>
       <c r="F32" s="277">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G32" s="277">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H32" s="278"/>
       <c r="I32" s="278"/>
@@ -3584,18 +3584,18 @@
         <v>63</v>
       </c>
       <c r="D33" s="192">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E33" s="193"/>
       <c r="F33" s="278"/>
       <c r="G33" s="277">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33" s="277">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33" s="277">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J33" s="194"/>
       <c r="K33" s="194"/>
@@ -3620,18 +3620,18 @@
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="30">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E34" s="156"/>
       <c r="F34" s="279"/>
       <c r="G34" s="280">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H34" s="280">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I34" s="280">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J34" s="157"/>
       <c r="K34" s="157"/>
@@ -3657,7 +3657,7 @@
       <c r="C35" s="205"/>
       <c r="D35" s="28">
         <f>SUM(D36:D41)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E35" s="144"/>
       <c r="F35" s="281"/>
@@ -3723,18 +3723,18 @@
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E37" s="150"/>
       <c r="F37" s="276"/>
       <c r="G37" s="275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" s="275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" s="275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" s="151"/>
       <c r="K37" s="151"/>
@@ -3759,18 +3759,18 @@
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="29">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E38" s="150"/>
       <c r="F38" s="276"/>
       <c r="G38" s="275">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="275">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" s="275">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" s="151"/>
       <c r="K38" s="151"/>
@@ -3890,7 +3890,7 @@
       <c r="C42" s="205"/>
       <c r="D42" s="28">
         <f>SUM(D43:D49)</f>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E42" s="178"/>
       <c r="F42" s="283"/>
@@ -3922,15 +3922,15 @@
         <v>49</v>
       </c>
       <c r="D43" s="36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E43" s="178"/>
       <c r="F43" s="283"/>
       <c r="G43" s="284">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H43" s="284">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43" s="283"/>
       <c r="J43" s="178"/>
@@ -3956,15 +3956,15 @@
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E44" s="151"/>
       <c r="F44" s="276"/>
       <c r="G44" s="275">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H44" s="275">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44" s="276"/>
       <c r="J44" s="151"/>
@@ -3985,7 +3985,7 @@
       <c r="Y44" s="155"/>
       <c r="Z44" s="311">
         <f>SUM(F27:F49)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3994,15 +3994,15 @@
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E45" s="151"/>
       <c r="F45" s="276"/>
       <c r="G45" s="275">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H45" s="275">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45" s="276"/>
       <c r="J45" s="151"/>
@@ -4023,7 +4023,7 @@
       <c r="Y45" s="155"/>
       <c r="Z45" s="311">
         <f>SUM(G27:G49)</f>
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4063,7 +4063,7 @@
       <c r="Y46" s="155"/>
       <c r="Z46" s="311">
         <f>SUM(H27:H49)</f>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4103,7 +4103,7 @@
       <c r="Y47" s="155"/>
       <c r="Z47" s="311">
         <f>SUM(I27:I49)</f>
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4143,7 +4143,7 @@
       <c r="Y48" s="155"/>
       <c r="Z48" s="311">
         <f>SUM(Z44:Z47)</f>
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5282,7 +5282,7 @@
       <c r="C81" s="101"/>
       <c r="D81" s="102">
         <f>900-(D18+D26+D52+D65+D76+D83)</f>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E81" s="103"/>
       <c r="F81" s="104"/>
@@ -5499,8 +5499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE1D9AE-9DE4-429B-B54D-AD135E125BE6}">
   <dimension ref="B1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5660,15 +5660,15 @@
       </c>
       <c r="C11" s="78">
         <f>SUM(C12,C20,C27)</f>
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D11" s="259">
         <f t="shared" ref="D11:D25" si="2">C11*$D$87</f>
-        <v>12648</v>
+        <v>9928</v>
       </c>
       <c r="E11" s="79">
         <f t="shared" si="1"/>
-        <v>0.19558359621451105</v>
+        <v>0.15352260778128285</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -5677,15 +5677,15 @@
       </c>
       <c r="C12" s="65">
         <f>SUM(C13:C19)</f>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D12" s="255">
         <f t="shared" si="2"/>
-        <v>6596</v>
+        <v>5100</v>
       </c>
       <c r="E12" s="66">
         <f t="shared" si="1"/>
-        <v>0.10199789695057834</v>
+        <v>7.8864353312302835E-2</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -5745,15 +5745,15 @@
       </c>
       <c r="C16" s="68">
         <f>Strukturplan!D31</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" s="255">
         <f t="shared" si="2"/>
-        <v>816</v>
+        <v>544</v>
       </c>
       <c r="E16" s="69">
         <f t="shared" si="1"/>
-        <v>1.2618296529968454E-2</v>
+        <v>8.4121976866456359E-3</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -5762,15 +5762,15 @@
       </c>
       <c r="C17" s="68">
         <f>Strukturplan!D32</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D17" s="255">
         <f t="shared" si="2"/>
-        <v>816</v>
+        <v>408</v>
       </c>
       <c r="E17" s="69">
         <f t="shared" si="1"/>
-        <v>1.2618296529968454E-2</v>
+        <v>6.3091482649842269E-3</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -5779,15 +5779,15 @@
       </c>
       <c r="C18" s="68">
         <f>Strukturplan!D33</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="255">
         <f t="shared" si="2"/>
-        <v>1020</v>
+        <v>612</v>
       </c>
       <c r="E18" s="69">
         <f t="shared" ref="E18:E28" si="3">D18/$D$67</f>
-        <v>1.5772870662460567E-2</v>
+        <v>9.4637223974763408E-3</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5796,15 +5796,15 @@
       </c>
       <c r="C19" s="68">
         <f>Strukturplan!D34</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D19" s="255">
         <f t="shared" si="2"/>
-        <v>1224</v>
+        <v>816</v>
       </c>
       <c r="E19" s="70">
         <f t="shared" si="3"/>
-        <v>1.8927444794952682E-2</v>
+        <v>1.2618296529968454E-2</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -5813,15 +5813,15 @@
       </c>
       <c r="C20" s="71">
         <f>SUM(C21:C26)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D20" s="260">
         <f t="shared" si="2"/>
-        <v>2924</v>
+        <v>2516</v>
       </c>
       <c r="E20" s="72">
         <f t="shared" si="3"/>
-        <v>4.5215562565720298E-2</v>
+        <v>3.8906414300736068E-2</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -5847,15 +5847,15 @@
       </c>
       <c r="C22" s="68">
         <f>Strukturplan!D37</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22" s="255">
         <f t="shared" si="2"/>
-        <v>612</v>
+        <v>408</v>
       </c>
       <c r="E22" s="69">
         <f t="shared" si="3"/>
-        <v>9.4637223974763408E-3</v>
+        <v>6.3091482649842269E-3</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -5864,15 +5864,15 @@
       </c>
       <c r="C23" s="68">
         <f>Strukturplan!D38</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="255">
         <f t="shared" si="2"/>
-        <v>816</v>
+        <v>612</v>
       </c>
       <c r="E23" s="69">
         <f t="shared" si="3"/>
-        <v>1.2618296529968454E-2</v>
+        <v>9.4637223974763408E-3</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -5921,15 +5921,15 @@
       </c>
       <c r="C27" s="71">
         <f>SUM(C28:C34)</f>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D27" s="260">
         <f t="shared" ref="D27:D34" si="4">C27*$D$86</f>
-        <v>5474</v>
+        <v>4046</v>
       </c>
       <c r="E27" s="72">
         <f t="shared" si="3"/>
-        <v>8.4647739221871715E-2</v>
+        <v>6.2565720294426919E-2</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -5938,15 +5938,15 @@
       </c>
       <c r="C28" s="68">
         <f>Strukturplan!D43</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D28" s="256">
         <f t="shared" si="4"/>
-        <v>952</v>
+        <v>476</v>
       </c>
       <c r="E28" s="69">
         <f t="shared" si="3"/>
-        <v>1.4721345951629864E-2</v>
+        <v>7.3606729758149319E-3</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -5955,15 +5955,15 @@
       </c>
       <c r="C29" s="68">
         <f>Strukturplan!D44</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D29" s="256">
         <f t="shared" si="4"/>
-        <v>952</v>
+        <v>476</v>
       </c>
       <c r="E29" s="69">
         <f>D29/$D$67</f>
-        <v>1.4721345951629864E-2</v>
+        <v>7.3606729758149319E-3</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -5972,15 +5972,15 @@
       </c>
       <c r="C30" s="68">
         <f>Strukturplan!D45</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D30" s="256">
         <f t="shared" si="4"/>
-        <v>952</v>
+        <v>476</v>
       </c>
       <c r="E30" s="69">
         <f>D30/$D$67</f>
-        <v>1.4721345951629864E-2</v>
+        <v>7.3606729758149319E-3</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -6505,15 +6505,15 @@
       </c>
       <c r="C62" s="93">
         <f>Strukturplan!D81</f>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D62" s="269">
         <f>C62*$D$87</f>
-        <v>3400</v>
+        <v>6120</v>
       </c>
       <c r="E62" s="94">
         <f t="shared" si="9"/>
-        <v>5.2576235541535225E-2</v>
+        <v>9.4637223974763401E-2</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="E67" s="111">
         <f>SUM(E63,E62,E58,E48,E35,E11,E4)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">

--- a/Pflichtenheft/Organisatorisch/Projektstrukturplan.xlsx
+++ b/Pflichtenheft/Organisatorisch/Projektstrukturplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\GitHub\pro4e\Pflichtenheft\Organisatorisch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Daten\GitHub\pro4e\Pflichtenheft\Organisatorisch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B12F3B9-7F93-474F-8D54-E25BEE33ECCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFB9C3-1D67-47F4-AFD3-AD1D587A7B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9195" yWindow="2910" windowWidth="15375" windowHeight="7890" xr2:uid="{8373446C-4546-4EB0-9D8E-7B57F7AE5753}"/>
+    <workbookView xWindow="30435" yWindow="4755" windowWidth="15660" windowHeight="14580" xr2:uid="{8373446C-4546-4EB0-9D8E-7B57F7AE5753}"/>
   </bookViews>
   <sheets>
     <sheet name="Strukturplan" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="99">
   <si>
     <t>Zwischenpräsentation</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Abgabe PH org. und fachl. Version 1</t>
   </si>
   <si>
-    <t>Abgabe PH fachl. devinitive Version</t>
-  </si>
-  <si>
     <t>Abgabe Fachbericht / Fact-Sheet</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>3.1.6 3D-Layout Gehäuse / Mechanik</t>
   </si>
   <si>
-    <t>Bestellung Print / Bauteile</t>
-  </si>
-  <si>
     <t>4.1.2 3D-Teile drucken</t>
   </si>
   <si>
@@ -328,6 +322,15 @@
   </si>
   <si>
     <t>3.2.3 Mapping Bildpunkt - Oberfläche</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Abgabe PH fachl. definitive Version</t>
+  </si>
+  <si>
+    <t>Fertigstellung Layout / Bestellung Bauteile</t>
   </si>
 </sst>
 </file>
@@ -338,7 +341,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,15 +405,78 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
-      <color theme="1"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFCCFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFCCFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC5FFCF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC5FFCF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,8 +627,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF89FF9D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="79">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -1586,11 +1658,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="378">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2028,7 +2115,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2063,7 +2149,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2146,62 +2231,19 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2244,6 +2286,94 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2273,10 +2403,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC5FFCF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFC5FFCF"/>
+      <color rgb="FF89FF9D"/>
       <color rgb="FF9FFFAF"/>
-      <color rgb="FF89FF9D"/>
       <color rgb="FF66FF99"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FFFF66CC"/>
@@ -2594,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EF78CF-0BF4-4991-AC83-ABD1D98215EE}">
   <dimension ref="B1:Z89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U52" sqref="U52"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB72" sqref="AB72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,13 +2740,16 @@
     <row r="1" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
-      <c r="P2" s="320" t="s">
+      <c r="M2" s="292" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="321"/>
-      <c r="R2" s="321"/>
-      <c r="S2" s="321"/>
-      <c r="T2" s="322"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
     </row>
     <row r="3" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2"/>
@@ -2691,10 +2824,10 @@
       <c r="B4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="327" t="s">
+      <c r="C4" s="282" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="328"/>
+      <c r="D4" s="283"/>
       <c r="E4" s="54"/>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
@@ -2721,10 +2854,10 @@
       <c r="B5" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="329">
+      <c r="C5" s="284">
         <v>19.02</v>
       </c>
-      <c r="D5" s="330"/>
+      <c r="D5" s="285"/>
       <c r="E5" s="10"/>
       <c r="F5" s="127"/>
       <c r="G5" s="127"/>
@@ -2751,10 +2884,10 @@
       <c r="B6" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="325">
+      <c r="C6" s="280">
         <v>10.029999999999999</v>
       </c>
-      <c r="D6" s="326"/>
+      <c r="D6" s="281"/>
       <c r="E6" s="132"/>
       <c r="F6" s="133"/>
       <c r="G6" s="133"/>
@@ -2779,12 +2912,12 @@
     </row>
     <row r="7" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="325">
+        <v>97</v>
+      </c>
+      <c r="C7" s="280">
         <v>24.03</v>
       </c>
-      <c r="D7" s="326"/>
+      <c r="D7" s="281"/>
       <c r="E7" s="132"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
@@ -2811,10 +2944,10 @@
       <c r="B8" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="325">
+      <c r="C8" s="280">
         <v>29.03</v>
       </c>
-      <c r="D8" s="326"/>
+      <c r="D8" s="281"/>
       <c r="E8" s="132"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
@@ -2841,10 +2974,10 @@
       <c r="B9" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="325">
+      <c r="C9" s="280">
         <v>7.04</v>
       </c>
-      <c r="D9" s="326"/>
+      <c r="D9" s="281"/>
       <c r="E9" s="132"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
@@ -2869,10 +3002,10 @@
     </row>
     <row r="10" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="325"/>
-      <c r="D10" s="326"/>
+        <v>98</v>
+      </c>
+      <c r="C10" s="280"/>
+      <c r="D10" s="281"/>
       <c r="E10" s="132"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
@@ -2881,8 +3014,8 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
       <c r="L10" s="143"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="143"/>
       <c r="O10" s="134"/>
       <c r="P10" s="135"/>
       <c r="Q10" s="133"/>
@@ -2899,10 +3032,10 @@
       <c r="B11" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="325">
+      <c r="C11" s="280">
         <v>3.05</v>
       </c>
-      <c r="D11" s="326"/>
+      <c r="D11" s="281"/>
       <c r="E11" s="132"/>
       <c r="F11" s="133"/>
       <c r="G11" s="133"/>
@@ -2927,10 +3060,10 @@
     </row>
     <row r="12" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="113" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="325"/>
-      <c r="D12" s="326"/>
+        <v>94</v>
+      </c>
+      <c r="C12" s="280"/>
+      <c r="D12" s="281"/>
       <c r="E12" s="132"/>
       <c r="F12" s="133"/>
       <c r="G12" s="133"/>
@@ -2938,10 +3071,10 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
-      <c r="L12" s="228"/>
+      <c r="L12" s="226"/>
       <c r="M12" s="133"/>
       <c r="N12" s="133"/>
-      <c r="O12" s="229"/>
+      <c r="O12" s="227"/>
       <c r="P12" s="135"/>
       <c r="Q12" s="133"/>
       <c r="R12" s="133"/>
@@ -2957,10 +3090,10 @@
       <c r="B13" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="325">
+      <c r="C13" s="280">
         <v>17.05</v>
       </c>
-      <c r="D13" s="326"/>
+      <c r="D13" s="281"/>
       <c r="E13" s="132"/>
       <c r="F13" s="133"/>
       <c r="G13" s="133"/>
@@ -2968,7 +3101,7 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
-      <c r="L13" s="227"/>
+      <c r="L13" s="225"/>
       <c r="M13" s="133"/>
       <c r="N13" s="133"/>
       <c r="O13" s="133"/>
@@ -2985,12 +3118,12 @@
     </row>
     <row r="14" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="113" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="325">
+        <v>38</v>
+      </c>
+      <c r="C14" s="280">
         <v>9.06</v>
       </c>
-      <c r="D14" s="326"/>
+      <c r="D14" s="281"/>
       <c r="E14" s="132"/>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
@@ -3017,10 +3150,10 @@
       <c r="B15" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="325">
+      <c r="C15" s="280">
         <v>9.06</v>
       </c>
-      <c r="D15" s="326"/>
+      <c r="D15" s="281"/>
       <c r="E15" s="132"/>
       <c r="F15" s="133"/>
       <c r="G15" s="133"/>
@@ -3047,10 +3180,10 @@
       <c r="B16" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="323">
+      <c r="C16" s="278">
         <v>9.06</v>
       </c>
-      <c r="D16" s="324"/>
+      <c r="D16" s="279"/>
       <c r="E16" s="138"/>
       <c r="F16" s="139"/>
       <c r="G16" s="139"/>
@@ -3074,8 +3207,8 @@
       <c r="Y16" s="9"/>
     </row>
     <row r="17" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="319"/>
-      <c r="C17" s="319"/>
+      <c r="B17" s="277"/>
+      <c r="C17" s="277"/>
       <c r="D17" s="6"/>
       <c r="P17" s="4"/>
       <c r="T17" s="5"/>
@@ -3089,34 +3222,34 @@
         <f>D19+D22+D23+D24</f>
         <v>50</v>
       </c>
-      <c r="E18" s="210"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="211"/>
-      <c r="K18" s="211"/>
-      <c r="L18" s="211"/>
-      <c r="M18" s="211"/>
-      <c r="N18" s="211"/>
-      <c r="O18" s="212"/>
-      <c r="P18" s="213"/>
-      <c r="Q18" s="211"/>
-      <c r="R18" s="211"/>
-      <c r="S18" s="211"/>
-      <c r="T18" s="214"/>
-      <c r="U18" s="210"/>
-      <c r="V18" s="211"/>
-      <c r="W18" s="211"/>
-      <c r="X18" s="211"/>
-      <c r="Y18" s="215"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="210"/>
+      <c r="L18" s="210"/>
+      <c r="M18" s="210"/>
+      <c r="N18" s="210"/>
+      <c r="O18" s="211"/>
+      <c r="P18" s="212"/>
+      <c r="Q18" s="210"/>
+      <c r="R18" s="210"/>
+      <c r="S18" s="210"/>
+      <c r="T18" s="213"/>
+      <c r="U18" s="209"/>
+      <c r="V18" s="210"/>
+      <c r="W18" s="210"/>
+      <c r="X18" s="210"/>
+      <c r="Y18" s="214"/>
     </row>
     <row r="19" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="205" t="s">
-        <v>48</v>
+      <c r="C19" s="204" t="s">
+        <v>47</v>
       </c>
       <c r="D19" s="28">
         <f>SUM(D20:D21)</f>
@@ -3146,10 +3279,10 @@
     </row>
     <row r="20" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="29">
         <v>12</v>
@@ -3178,16 +3311,16 @@
     </row>
     <row r="21" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="191" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="206" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="C21" s="205" t="s">
+        <v>47</v>
       </c>
       <c r="D21" s="192">
         <v>4</v>
       </c>
       <c r="E21" s="193"/>
-      <c r="F21" s="207"/>
+      <c r="F21" s="206"/>
       <c r="G21" s="194"/>
       <c r="H21" s="194"/>
       <c r="I21" s="194"/>
@@ -3210,10 +3343,10 @@
     </row>
     <row r="22" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="31">
         <v>12</v>
@@ -3229,11 +3362,11 @@
       <c r="M22" s="187"/>
       <c r="N22" s="187"/>
       <c r="O22" s="188"/>
-      <c r="P22" s="208"/>
+      <c r="P22" s="207"/>
       <c r="Q22" s="187"/>
       <c r="R22" s="187"/>
       <c r="S22" s="187"/>
-      <c r="T22" s="209"/>
+      <c r="T22" s="208"/>
       <c r="U22" s="189"/>
       <c r="V22" s="187"/>
       <c r="W22" s="187"/>
@@ -3245,7 +3378,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="31">
         <v>12</v>
@@ -3274,10 +3407,10 @@
     </row>
     <row r="24" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="31">
         <v>10</v>
@@ -3305,8 +3438,8 @@
       <c r="Y24" s="167"/>
     </row>
     <row r="25" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="319"/>
-      <c r="C25" s="319"/>
+      <c r="B25" s="277"/>
+      <c r="C25" s="277"/>
       <c r="D25" s="6"/>
       <c r="E25" s="174"/>
       <c r="F25" s="174"/>
@@ -3339,11 +3472,11 @@
         <f>SUM(D27,D35,D42)</f>
         <v>146</v>
       </c>
-      <c r="E26" s="217"/>
-      <c r="F26" s="218"/>
-      <c r="G26" s="218"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="218"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="217"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="217"/>
       <c r="J26" s="169"/>
       <c r="K26" s="169"/>
       <c r="L26" s="169"/>
@@ -3363,18 +3496,18 @@
     </row>
     <row r="27" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="205"/>
+        <v>39</v>
+      </c>
+      <c r="C27" s="204"/>
       <c r="D27" s="28">
         <f>SUM(D28:D34)</f>
         <v>75</v>
       </c>
-      <c r="E27" s="144"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
+      <c r="E27" s="296"/>
+      <c r="F27" s="297"/>
+      <c r="G27" s="297"/>
+      <c r="H27" s="297"/>
+      <c r="I27" s="297"/>
       <c r="J27" s="145"/>
       <c r="K27" s="145"/>
       <c r="L27" s="145"/>
@@ -3394,25 +3527,25 @@
     </row>
     <row r="28" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="38" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>62</v>
       </c>
       <c r="D28" s="29">
         <v>24</v>
       </c>
-      <c r="E28" s="150"/>
-      <c r="F28" s="275">
+      <c r="E28" s="298"/>
+      <c r="F28" s="299">
         <v>6</v>
       </c>
-      <c r="G28" s="275">
+      <c r="G28" s="299">
         <v>6</v>
       </c>
-      <c r="H28" s="275">
+      <c r="H28" s="299">
         <v>6</v>
       </c>
-      <c r="I28" s="275">
+      <c r="I28" s="299">
         <v>6</v>
       </c>
       <c r="J28" s="151"/>
@@ -3433,24 +3566,24 @@
       <c r="Y28" s="155"/>
     </row>
     <row r="29" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="216" t="s">
-        <v>60</v>
+      <c r="B29" s="215" t="s">
+        <v>59</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="29">
         <v>8</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="275">
+      <c r="E29" s="298"/>
+      <c r="F29" s="299">
         <v>4</v>
       </c>
-      <c r="G29" s="275">
+      <c r="G29" s="299">
         <v>4</v>
       </c>
-      <c r="H29" s="276"/>
-      <c r="I29" s="276"/>
+      <c r="H29" s="300"/>
+      <c r="I29" s="300"/>
       <c r="J29" s="151"/>
       <c r="K29" s="151"/>
       <c r="L29" s="151"/>
@@ -3470,23 +3603,23 @@
     </row>
     <row r="30" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="29">
         <v>8</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="275">
+      <c r="E30" s="298"/>
+      <c r="F30" s="299">
         <v>4</v>
       </c>
-      <c r="G30" s="275">
+      <c r="G30" s="299">
         <v>4</v>
       </c>
-      <c r="H30" s="276"/>
-      <c r="I30" s="276"/>
+      <c r="H30" s="300"/>
+      <c r="I30" s="300"/>
       <c r="J30" s="151"/>
       <c r="K30" s="151"/>
       <c r="L30" s="151"/>
@@ -3506,23 +3639,23 @@
     </row>
     <row r="31" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="113" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="206" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="C31" s="205" t="s">
+        <v>47</v>
       </c>
       <c r="D31" s="192">
         <v>8</v>
       </c>
-      <c r="E31" s="193"/>
-      <c r="F31" s="277">
+      <c r="E31" s="301"/>
+      <c r="F31" s="302">
         <v>4</v>
       </c>
-      <c r="G31" s="277">
+      <c r="G31" s="302">
         <v>4</v>
       </c>
-      <c r="H31" s="278"/>
-      <c r="I31" s="278"/>
+      <c r="H31" s="303"/>
+      <c r="I31" s="303"/>
       <c r="J31" s="194"/>
       <c r="K31" s="194"/>
       <c r="L31" s="194"/>
@@ -3542,23 +3675,23 @@
     </row>
     <row r="32" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="199" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="206" t="s">
         <v>65</v>
+      </c>
+      <c r="C32" s="205" t="s">
+        <v>64</v>
       </c>
       <c r="D32" s="192">
         <v>6</v>
       </c>
-      <c r="E32" s="193"/>
-      <c r="F32" s="277">
+      <c r="E32" s="301"/>
+      <c r="F32" s="302">
         <v>3</v>
       </c>
-      <c r="G32" s="277">
+      <c r="G32" s="302">
         <v>3</v>
       </c>
-      <c r="H32" s="278"/>
-      <c r="I32" s="278"/>
+      <c r="H32" s="303"/>
+      <c r="I32" s="303"/>
       <c r="J32" s="194"/>
       <c r="K32" s="194"/>
       <c r="L32" s="194"/>
@@ -3578,23 +3711,23 @@
     </row>
     <row r="33" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="200" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="206" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="C33" s="205" t="s">
+        <v>62</v>
       </c>
       <c r="D33" s="192">
         <v>9</v>
       </c>
-      <c r="E33" s="193"/>
-      <c r="F33" s="278"/>
-      <c r="G33" s="277">
+      <c r="E33" s="301"/>
+      <c r="F33" s="303"/>
+      <c r="G33" s="302">
         <v>3</v>
       </c>
-      <c r="H33" s="277">
+      <c r="H33" s="302">
         <v>3</v>
       </c>
-      <c r="I33" s="277">
+      <c r="I33" s="302">
         <v>3</v>
       </c>
       <c r="J33" s="194"/>
@@ -3616,21 +3749,21 @@
     </row>
     <row r="34" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="200" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="30">
         <v>12</v>
       </c>
-      <c r="E34" s="156"/>
-      <c r="F34" s="279"/>
-      <c r="G34" s="280">
+      <c r="E34" s="304"/>
+      <c r="F34" s="305"/>
+      <c r="G34" s="306">
         <v>4</v>
       </c>
-      <c r="H34" s="280">
+      <c r="H34" s="306">
         <v>4</v>
       </c>
-      <c r="I34" s="280">
+      <c r="I34" s="306">
         <v>4</v>
       </c>
       <c r="J34" s="157"/>
@@ -3652,18 +3785,18 @@
     </row>
     <row r="35" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="115" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="205"/>
+        <v>40</v>
+      </c>
+      <c r="C35" s="204"/>
       <c r="D35" s="28">
         <f>SUM(D36:D41)</f>
         <v>37</v>
       </c>
-      <c r="E35" s="144"/>
-      <c r="F35" s="281"/>
-      <c r="G35" s="281"/>
-      <c r="H35" s="281"/>
-      <c r="I35" s="281"/>
+      <c r="E35" s="296"/>
+      <c r="F35" s="307"/>
+      <c r="G35" s="307"/>
+      <c r="H35" s="307"/>
+      <c r="I35" s="307"/>
       <c r="J35" s="145"/>
       <c r="K35" s="145"/>
       <c r="L35" s="145"/>
@@ -3683,23 +3816,23 @@
     </row>
     <row r="36" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="113" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="29">
         <v>12</v>
       </c>
-      <c r="E36" s="150"/>
-      <c r="F36" s="275">
+      <c r="E36" s="298"/>
+      <c r="F36" s="299">
         <v>4</v>
       </c>
-      <c r="G36" s="275">
+      <c r="G36" s="299">
         <v>4</v>
       </c>
-      <c r="H36" s="275">
+      <c r="H36" s="299">
         <v>4</v>
       </c>
-      <c r="I36" s="276"/>
+      <c r="I36" s="300"/>
       <c r="J36" s="151"/>
       <c r="K36" s="151"/>
       <c r="L36" s="151"/>
@@ -3719,21 +3852,21 @@
     </row>
     <row r="37" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="29">
         <v>6</v>
       </c>
-      <c r="E37" s="150"/>
-      <c r="F37" s="276"/>
-      <c r="G37" s="275">
+      <c r="E37" s="298"/>
+      <c r="F37" s="300"/>
+      <c r="G37" s="299">
         <v>2</v>
       </c>
-      <c r="H37" s="275">
+      <c r="H37" s="299">
         <v>2</v>
       </c>
-      <c r="I37" s="275">
+      <c r="I37" s="299">
         <v>2</v>
       </c>
       <c r="J37" s="151"/>
@@ -3755,23 +3888,25 @@
     </row>
     <row r="38" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="113" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="38"/>
+        <v>54</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D38" s="29">
         <v>9</v>
       </c>
-      <c r="E38" s="150"/>
-      <c r="F38" s="276"/>
-      <c r="G38" s="275">
+      <c r="E38" s="298"/>
+      <c r="F38" s="299">
         <v>3</v>
       </c>
-      <c r="H38" s="275">
+      <c r="G38" s="299">
         <v>3</v>
       </c>
-      <c r="I38" s="275">
+      <c r="H38" s="299">
         <v>3</v>
       </c>
+      <c r="I38" s="300"/>
       <c r="J38" s="151"/>
       <c r="K38" s="151"/>
       <c r="L38" s="151"/>
@@ -3791,21 +3926,23 @@
     </row>
     <row r="39" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="113" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="38"/>
+        <v>53</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D39" s="29">
         <v>6</v>
       </c>
-      <c r="E39" s="193"/>
-      <c r="F39" s="278"/>
-      <c r="G39" s="277">
+      <c r="E39" s="301"/>
+      <c r="F39" s="303"/>
+      <c r="G39" s="302">
         <v>2</v>
       </c>
-      <c r="H39" s="277">
+      <c r="H39" s="302">
         <v>2</v>
       </c>
-      <c r="I39" s="277">
+      <c r="I39" s="302">
         <v>2</v>
       </c>
       <c r="J39" s="151"/>
@@ -3827,17 +3964,17 @@
     </row>
     <row r="40" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="29">
         <v>4</v>
       </c>
-      <c r="E40" s="193"/>
-      <c r="F40" s="278"/>
-      <c r="G40" s="278"/>
-      <c r="H40" s="278"/>
-      <c r="I40" s="277">
+      <c r="E40" s="301"/>
+      <c r="F40" s="303"/>
+      <c r="G40" s="303"/>
+      <c r="H40" s="303"/>
+      <c r="I40" s="302">
         <v>4</v>
       </c>
       <c r="J40" s="151"/>
@@ -3861,11 +3998,11 @@
       <c r="B41" s="113"/>
       <c r="C41" s="38"/>
       <c r="D41" s="29"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="282"/>
-      <c r="G41" s="282"/>
-      <c r="H41" s="282"/>
-      <c r="I41" s="282"/>
+      <c r="E41" s="308"/>
+      <c r="F41" s="309"/>
+      <c r="G41" s="309"/>
+      <c r="H41" s="309"/>
+      <c r="I41" s="309"/>
       <c r="J41" s="151"/>
       <c r="K41" s="151"/>
       <c r="L41" s="151"/>
@@ -3887,16 +4024,16 @@
       <c r="B42" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="205"/>
+      <c r="C42" s="204"/>
       <c r="D42" s="28">
         <f>SUM(D43:D49)</f>
         <v>34</v>
       </c>
-      <c r="E42" s="178"/>
-      <c r="F42" s="283"/>
-      <c r="G42" s="283"/>
-      <c r="H42" s="283"/>
-      <c r="I42" s="283"/>
+      <c r="E42" s="310"/>
+      <c r="F42" s="311"/>
+      <c r="G42" s="311"/>
+      <c r="H42" s="311"/>
+      <c r="I42" s="311"/>
       <c r="J42" s="145"/>
       <c r="K42" s="145"/>
       <c r="L42" s="145"/>
@@ -3916,23 +4053,23 @@
     </row>
     <row r="43" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="36">
         <v>4</v>
       </c>
-      <c r="E43" s="178"/>
-      <c r="F43" s="283"/>
-      <c r="G43" s="284">
+      <c r="E43" s="310"/>
+      <c r="F43" s="311"/>
+      <c r="G43" s="312">
         <v>2</v>
       </c>
-      <c r="H43" s="284">
+      <c r="H43" s="312">
         <v>2</v>
       </c>
-      <c r="I43" s="283"/>
+      <c r="I43" s="311"/>
       <c r="J43" s="178"/>
       <c r="K43" s="178"/>
       <c r="L43" s="178"/>
@@ -3952,21 +4089,21 @@
     </row>
     <row r="44" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="113" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="29">
         <v>4</v>
       </c>
-      <c r="E44" s="151"/>
-      <c r="F44" s="276"/>
-      <c r="G44" s="275">
+      <c r="E44" s="313"/>
+      <c r="F44" s="300"/>
+      <c r="G44" s="299">
         <v>2</v>
       </c>
-      <c r="H44" s="275">
+      <c r="H44" s="299">
         <v>2</v>
       </c>
-      <c r="I44" s="276"/>
+      <c r="I44" s="300"/>
       <c r="J44" s="151"/>
       <c r="K44" s="151"/>
       <c r="L44" s="151"/>
@@ -3983,28 +4120,24 @@
       <c r="W44" s="151"/>
       <c r="X44" s="151"/>
       <c r="Y44" s="155"/>
-      <c r="Z44" s="311">
-        <f>SUM(F27:F49)</f>
-        <v>25</v>
-      </c>
     </row>
     <row r="45" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="29">
         <v>4</v>
       </c>
-      <c r="E45" s="151"/>
-      <c r="F45" s="276"/>
-      <c r="G45" s="275">
+      <c r="E45" s="313"/>
+      <c r="F45" s="300"/>
+      <c r="G45" s="299">
         <v>2</v>
       </c>
-      <c r="H45" s="275">
+      <c r="H45" s="299">
         <v>2</v>
       </c>
-      <c r="I45" s="276"/>
+      <c r="I45" s="300"/>
       <c r="J45" s="151"/>
       <c r="K45" s="151"/>
       <c r="L45" s="151"/>
@@ -4021,28 +4154,24 @@
       <c r="W45" s="151"/>
       <c r="X45" s="151"/>
       <c r="Y45" s="155"/>
-      <c r="Z45" s="311">
-        <f>SUM(G27:G49)</f>
-        <v>51</v>
-      </c>
     </row>
     <row r="46" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="29">
         <v>6</v>
       </c>
-      <c r="E46" s="151"/>
-      <c r="F46" s="276"/>
-      <c r="G46" s="275">
+      <c r="E46" s="313"/>
+      <c r="F46" s="300"/>
+      <c r="G46" s="299">
         <v>2</v>
       </c>
-      <c r="H46" s="275">
+      <c r="H46" s="299">
         <v>2</v>
       </c>
-      <c r="I46" s="275">
+      <c r="I46" s="299">
         <v>2</v>
       </c>
       <c r="J46" s="151"/>
@@ -4061,28 +4190,25 @@
       <c r="W46" s="151"/>
       <c r="X46" s="151"/>
       <c r="Y46" s="155"/>
-      <c r="Z46" s="311">
-        <f>SUM(H27:H49)</f>
-        <v>38</v>
-      </c>
+      <c r="Z46" s="273"/>
     </row>
     <row r="47" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="113" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="29">
         <v>6</v>
       </c>
-      <c r="E47" s="150"/>
-      <c r="F47" s="276"/>
-      <c r="G47" s="275">
+      <c r="E47" s="298"/>
+      <c r="F47" s="300"/>
+      <c r="G47" s="299">
         <v>2</v>
       </c>
-      <c r="H47" s="275">
+      <c r="H47" s="299">
         <v>2</v>
       </c>
-      <c r="I47" s="275">
+      <c r="I47" s="299">
         <v>2</v>
       </c>
       <c r="J47" s="151"/>
@@ -4101,28 +4227,25 @@
       <c r="W47" s="151"/>
       <c r="X47" s="151"/>
       <c r="Y47" s="155"/>
-      <c r="Z47" s="311">
-        <f>SUM(I27:I49)</f>
-        <v>32</v>
-      </c>
+      <c r="Z47" s="273"/>
     </row>
     <row r="48" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="29">
         <v>6</v>
       </c>
-      <c r="E48" s="150"/>
-      <c r="F48" s="276"/>
-      <c r="G48" s="275">
+      <c r="E48" s="298"/>
+      <c r="F48" s="300"/>
+      <c r="G48" s="299">
         <v>2</v>
       </c>
-      <c r="H48" s="275">
+      <c r="H48" s="299">
         <v>2</v>
       </c>
-      <c r="I48" s="275">
+      <c r="I48" s="299">
         <v>2</v>
       </c>
       <c r="J48" s="151"/>
@@ -4141,26 +4264,23 @@
       <c r="W48" s="151"/>
       <c r="X48" s="151"/>
       <c r="Y48" s="155"/>
-      <c r="Z48" s="311">
-        <f>SUM(Z44:Z47)</f>
-        <v>146</v>
-      </c>
+      <c r="Z48" s="273"/>
     </row>
     <row r="49" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="114" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="39"/>
       <c r="D49" s="30">
         <v>4</v>
       </c>
-      <c r="E49" s="156"/>
-      <c r="F49" s="282"/>
-      <c r="G49" s="285"/>
-      <c r="H49" s="280">
+      <c r="E49" s="304"/>
+      <c r="F49" s="309"/>
+      <c r="G49" s="314"/>
+      <c r="H49" s="306">
         <v>2</v>
       </c>
-      <c r="I49" s="280">
+      <c r="I49" s="306">
         <v>2</v>
       </c>
       <c r="J49" s="157"/>
@@ -4183,15 +4303,15 @@
     <row r="50" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="100"/>
       <c r="C50" s="100"/>
-      <c r="P50" s="219"/>
-      <c r="Q50" s="220"/>
-      <c r="R50" s="220"/>
-      <c r="S50" s="220"/>
-      <c r="T50" s="221"/>
+      <c r="P50" s="218"/>
+      <c r="Q50" s="219"/>
+      <c r="R50" s="219"/>
+      <c r="S50" s="219"/>
+      <c r="T50" s="220"/>
     </row>
     <row r="51" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="319"/>
-      <c r="C51" s="319"/>
+      <c r="B51" s="277"/>
+      <c r="C51" s="277"/>
       <c r="D51" s="48" t="s">
         <v>20</v>
       </c>
@@ -4271,14 +4391,14 @@
       <c r="E52" s="168"/>
       <c r="F52" s="169"/>
       <c r="G52" s="169"/>
-      <c r="H52" s="169"/>
-      <c r="I52" s="169"/>
-      <c r="J52" s="223"/>
-      <c r="K52" s="223"/>
-      <c r="L52" s="223"/>
-      <c r="M52" s="223"/>
-      <c r="N52" s="223"/>
-      <c r="O52" s="236"/>
+      <c r="H52" s="222"/>
+      <c r="I52" s="222"/>
+      <c r="J52" s="222"/>
+      <c r="K52" s="222"/>
+      <c r="L52" s="222"/>
+      <c r="M52" s="222"/>
+      <c r="N52" s="222"/>
+      <c r="O52" s="234"/>
       <c r="P52" s="171"/>
       <c r="Q52" s="169"/>
       <c r="R52" s="169"/>
@@ -4292,7 +4412,7 @@
     </row>
     <row r="53" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" s="183"/>
       <c r="D53" s="28">
@@ -4302,14 +4422,14 @@
       <c r="E53" s="144"/>
       <c r="F53" s="145"/>
       <c r="G53" s="145"/>
-      <c r="H53" s="145"/>
-      <c r="I53" s="224"/>
-      <c r="J53" s="145"/>
-      <c r="K53" s="145"/>
-      <c r="L53" s="145"/>
-      <c r="M53" s="145"/>
-      <c r="N53" s="145"/>
-      <c r="O53" s="146"/>
+      <c r="H53" s="315"/>
+      <c r="I53" s="316"/>
+      <c r="J53" s="315"/>
+      <c r="K53" s="315"/>
+      <c r="L53" s="315"/>
+      <c r="M53" s="315"/>
+      <c r="N53" s="315"/>
+      <c r="O53" s="317"/>
       <c r="P53" s="147"/>
       <c r="Q53" s="145"/>
       <c r="R53" s="145"/>
@@ -4323,7 +4443,7 @@
     </row>
     <row r="54" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="184"/>
       <c r="D54" s="29">
@@ -4332,20 +4452,20 @@
       <c r="E54" s="150"/>
       <c r="F54" s="151"/>
       <c r="G54" s="151"/>
-      <c r="H54" s="151"/>
-      <c r="I54" s="227"/>
-      <c r="J54" s="286">
+      <c r="H54" s="318">
         <v>8</v>
       </c>
-      <c r="K54" s="286">
+      <c r="I54" s="318">
         <v>8</v>
       </c>
-      <c r="L54" s="286">
+      <c r="J54" s="318">
         <v>8</v>
       </c>
-      <c r="M54" s="276"/>
-      <c r="N54" s="276"/>
-      <c r="O54" s="287"/>
+      <c r="K54" s="319"/>
+      <c r="L54" s="319"/>
+      <c r="M54" s="320"/>
+      <c r="N54" s="320"/>
+      <c r="O54" s="321"/>
       <c r="P54" s="153"/>
       <c r="Q54" s="151"/>
       <c r="R54" s="151"/>
@@ -4359,7 +4479,7 @@
     </row>
     <row r="55" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="113" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="184"/>
       <c r="D55" s="29">
@@ -4368,20 +4488,20 @@
       <c r="E55" s="150"/>
       <c r="F55" s="151"/>
       <c r="G55" s="151"/>
-      <c r="H55" s="151"/>
-      <c r="I55" s="151"/>
-      <c r="J55" s="286">
+      <c r="H55" s="318">
         <v>12</v>
       </c>
-      <c r="K55" s="286">
+      <c r="I55" s="318">
         <v>12</v>
       </c>
-      <c r="L55" s="286">
+      <c r="J55" s="318">
         <v>12</v>
       </c>
-      <c r="M55" s="276"/>
-      <c r="N55" s="276"/>
-      <c r="O55" s="287"/>
+      <c r="K55" s="319"/>
+      <c r="L55" s="319"/>
+      <c r="M55" s="320"/>
+      <c r="N55" s="320"/>
+      <c r="O55" s="321"/>
       <c r="P55" s="153"/>
       <c r="Q55" s="151"/>
       <c r="R55" s="151"/>
@@ -4395,27 +4515,27 @@
     </row>
     <row r="56" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="191" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="225"/>
+        <v>77</v>
+      </c>
+      <c r="C56" s="223"/>
       <c r="D56" s="192">
         <v>18</v>
       </c>
       <c r="E56" s="193"/>
       <c r="F56" s="194"/>
       <c r="G56" s="194"/>
-      <c r="H56" s="194"/>
-      <c r="I56" s="194"/>
-      <c r="J56" s="288">
+      <c r="H56" s="322">
         <v>9</v>
       </c>
-      <c r="K56" s="288">
+      <c r="I56" s="322">
         <v>9</v>
       </c>
-      <c r="L56" s="278"/>
-      <c r="M56" s="278"/>
-      <c r="N56" s="278"/>
-      <c r="O56" s="289"/>
+      <c r="J56" s="319"/>
+      <c r="K56" s="319"/>
+      <c r="L56" s="320"/>
+      <c r="M56" s="320"/>
+      <c r="N56" s="320"/>
+      <c r="O56" s="321"/>
       <c r="P56" s="196"/>
       <c r="Q56" s="194"/>
       <c r="R56" s="194"/>
@@ -4428,28 +4548,28 @@
       <c r="Y56" s="198"/>
     </row>
     <row r="57" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="230" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="225"/>
+      <c r="B57" s="228" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="223"/>
       <c r="D57" s="192">
         <v>16</v>
       </c>
       <c r="E57" s="193"/>
       <c r="F57" s="194"/>
       <c r="G57" s="194"/>
-      <c r="H57" s="194"/>
-      <c r="I57" s="194"/>
-      <c r="J57" s="288">
+      <c r="H57" s="322">
         <v>8</v>
       </c>
-      <c r="K57" s="288">
+      <c r="I57" s="322">
         <v>8</v>
       </c>
-      <c r="L57" s="278"/>
-      <c r="M57" s="278"/>
-      <c r="N57" s="278"/>
-      <c r="O57" s="289"/>
+      <c r="J57" s="319"/>
+      <c r="K57" s="319"/>
+      <c r="L57" s="320"/>
+      <c r="M57" s="320"/>
+      <c r="N57" s="320"/>
+      <c r="O57" s="321"/>
       <c r="P57" s="196"/>
       <c r="Q57" s="194"/>
       <c r="R57" s="194"/>
@@ -4460,36 +4580,32 @@
       <c r="W57" s="194"/>
       <c r="X57" s="194"/>
       <c r="Y57" s="198"/>
-      <c r="Z57" s="311">
-        <f>SUM(J53:J63)</f>
-        <v>53</v>
-      </c>
     </row>
     <row r="58" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="230" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="225"/>
+      <c r="B58" s="228" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="223"/>
       <c r="D58" s="192">
         <v>48</v>
       </c>
       <c r="E58" s="193"/>
       <c r="F58" s="194"/>
       <c r="G58" s="194"/>
-      <c r="H58" s="194"/>
-      <c r="I58" s="194"/>
-      <c r="J58" s="278"/>
-      <c r="K58" s="278"/>
-      <c r="L58" s="288">
+      <c r="H58" s="323"/>
+      <c r="I58" s="323"/>
+      <c r="J58" s="318">
         <v>16</v>
       </c>
-      <c r="M58" s="288">
+      <c r="K58" s="318">
         <v>16</v>
       </c>
-      <c r="N58" s="288">
+      <c r="L58" s="318">
         <v>16</v>
       </c>
-      <c r="O58" s="289"/>
+      <c r="M58" s="319"/>
+      <c r="N58" s="319"/>
+      <c r="O58" s="321"/>
       <c r="P58" s="196"/>
       <c r="Q58" s="194"/>
       <c r="R58" s="194"/>
@@ -4500,14 +4616,10 @@
       <c r="W58" s="194"/>
       <c r="X58" s="194"/>
       <c r="Y58" s="198"/>
-      <c r="Z58" s="311">
-        <f>SUM(K53:K63)</f>
-        <v>53</v>
-      </c>
     </row>
     <row r="59" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="184"/>
       <c r="D59" s="29">
@@ -4516,20 +4628,20 @@
       <c r="E59" s="150"/>
       <c r="F59" s="151"/>
       <c r="G59" s="151"/>
-      <c r="H59" s="151"/>
-      <c r="I59" s="151"/>
-      <c r="J59" s="276"/>
-      <c r="K59" s="276"/>
-      <c r="L59" s="286">
+      <c r="H59" s="324"/>
+      <c r="I59" s="324"/>
+      <c r="J59" s="325"/>
+      <c r="K59" s="325"/>
+      <c r="L59" s="326">
         <v>12</v>
       </c>
-      <c r="M59" s="286">
+      <c r="M59" s="326">
         <v>12</v>
       </c>
-      <c r="N59" s="286">
+      <c r="N59" s="326">
         <v>12</v>
       </c>
-      <c r="O59" s="290">
+      <c r="O59" s="326">
         <v>12</v>
       </c>
       <c r="P59" s="153"/>
@@ -4542,14 +4654,10 @@
       <c r="W59" s="151"/>
       <c r="X59" s="151"/>
       <c r="Y59" s="155"/>
-      <c r="Z59" s="311">
-        <f>SUM(L53:L63)</f>
-        <v>70</v>
-      </c>
     </row>
     <row r="60" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="183"/>
       <c r="D60" s="28">
@@ -4559,14 +4667,14 @@
       <c r="E60" s="144"/>
       <c r="F60" s="145"/>
       <c r="G60" s="145"/>
-      <c r="H60" s="145"/>
-      <c r="I60" s="145"/>
-      <c r="J60" s="281"/>
-      <c r="K60" s="281"/>
-      <c r="L60" s="281"/>
-      <c r="M60" s="281"/>
-      <c r="N60" s="281"/>
-      <c r="O60" s="291"/>
+      <c r="H60" s="315"/>
+      <c r="I60" s="315"/>
+      <c r="J60" s="327"/>
+      <c r="K60" s="327"/>
+      <c r="L60" s="327"/>
+      <c r="M60" s="327"/>
+      <c r="N60" s="327"/>
+      <c r="O60" s="328"/>
       <c r="P60" s="147"/>
       <c r="Q60" s="145"/>
       <c r="R60" s="145"/>
@@ -4577,14 +4685,10 @@
       <c r="W60" s="145"/>
       <c r="X60" s="145"/>
       <c r="Y60" s="149"/>
-      <c r="Z60" s="311">
-        <f>SUM(M53:M63)</f>
-        <v>34</v>
-      </c>
     </row>
     <row r="61" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="184"/>
       <c r="D61" s="29">
@@ -4593,20 +4697,20 @@
       <c r="E61" s="150"/>
       <c r="F61" s="151"/>
       <c r="G61" s="151"/>
-      <c r="H61" s="151"/>
-      <c r="I61" s="151"/>
-      <c r="J61" s="286">
+      <c r="H61" s="318">
         <v>8</v>
       </c>
-      <c r="K61" s="286">
+      <c r="I61" s="318">
         <v>8</v>
       </c>
-      <c r="L61" s="286">
+      <c r="J61" s="318">
         <v>8</v>
       </c>
-      <c r="M61" s="276"/>
-      <c r="N61" s="276"/>
-      <c r="O61" s="287"/>
+      <c r="K61" s="319"/>
+      <c r="L61" s="319"/>
+      <c r="M61" s="320"/>
+      <c r="N61" s="320"/>
+      <c r="O61" s="329"/>
       <c r="P61" s="153"/>
       <c r="Q61" s="151"/>
       <c r="R61" s="151"/>
@@ -4617,36 +4721,32 @@
       <c r="W61" s="151"/>
       <c r="X61" s="151"/>
       <c r="Y61" s="155"/>
-      <c r="Z61" s="311">
-        <f>SUM(N53:N63)</f>
-        <v>34</v>
-      </c>
     </row>
     <row r="62" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="191" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="225"/>
+        <v>87</v>
+      </c>
+      <c r="C62" s="223"/>
       <c r="D62" s="192">
         <v>24</v>
       </c>
       <c r="E62" s="193"/>
       <c r="F62" s="194"/>
       <c r="G62" s="194"/>
-      <c r="H62" s="194"/>
-      <c r="I62" s="194"/>
-      <c r="J62" s="288">
+      <c r="H62" s="319"/>
+      <c r="I62" s="319"/>
+      <c r="J62" s="319"/>
+      <c r="K62" s="319"/>
+      <c r="L62" s="319"/>
+      <c r="M62" s="322">
         <v>8</v>
       </c>
-      <c r="K62" s="288">
+      <c r="N62" s="322">
         <v>8</v>
       </c>
-      <c r="L62" s="288">
+      <c r="O62" s="322">
         <v>8</v>
       </c>
-      <c r="M62" s="278"/>
-      <c r="N62" s="278"/>
-      <c r="O62" s="289"/>
       <c r="P62" s="196"/>
       <c r="Q62" s="194"/>
       <c r="R62" s="194"/>
@@ -4657,14 +4757,10 @@
       <c r="W62" s="194"/>
       <c r="X62" s="194"/>
       <c r="Y62" s="198"/>
-      <c r="Z62" s="311">
-        <f>SUM(O53:O63)</f>
-        <v>12</v>
-      </c>
     </row>
     <row r="63" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="231" t="s">
-        <v>97</v>
+      <c r="B63" s="229" t="s">
+        <v>95</v>
       </c>
       <c r="C63" s="185"/>
       <c r="D63" s="30">
@@ -4673,20 +4769,20 @@
       <c r="E63" s="156"/>
       <c r="F63" s="157"/>
       <c r="G63" s="157"/>
-      <c r="H63" s="157"/>
-      <c r="I63" s="157"/>
-      <c r="J63" s="282"/>
-      <c r="K63" s="282"/>
-      <c r="L63" s="292">
+      <c r="H63" s="330"/>
+      <c r="I63" s="330"/>
+      <c r="J63" s="331"/>
+      <c r="K63" s="331"/>
+      <c r="L63" s="331"/>
+      <c r="M63" s="326">
         <v>6</v>
       </c>
-      <c r="M63" s="292">
+      <c r="N63" s="326">
         <v>6</v>
       </c>
-      <c r="N63" s="292">
+      <c r="O63" s="326">
         <v>6</v>
       </c>
-      <c r="O63" s="293"/>
       <c r="P63" s="159"/>
       <c r="Q63" s="157"/>
       <c r="R63" s="157"/>
@@ -4697,26 +4793,53 @@
       <c r="W63" s="157"/>
       <c r="X63" s="157"/>
       <c r="Y63" s="161"/>
-      <c r="Z63" s="311">
-        <f>SUM(Z57:Z62)</f>
-        <v>256</v>
-      </c>
+      <c r="Z63" s="273"/>
     </row>
     <row r="64" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="319"/>
-      <c r="C64" s="319"/>
+      <c r="B64" s="277"/>
+      <c r="C64" s="277"/>
       <c r="D64" s="6"/>
       <c r="E64" s="174"/>
-      <c r="F64" s="174"/>
-      <c r="G64" s="174"/>
-      <c r="H64" s="174"/>
-      <c r="I64" s="174"/>
-      <c r="J64" s="174"/>
-      <c r="K64" s="174"/>
-      <c r="L64" s="174"/>
-      <c r="M64" s="174"/>
-      <c r="N64" s="174"/>
-      <c r="O64" s="174"/>
+      <c r="F64" s="332">
+        <f>SUM(F53:F63)+SUM(F27:F49)</f>
+        <v>28</v>
+      </c>
+      <c r="G64" s="332">
+        <f t="shared" ref="G64:O64" si="0">SUM(G53:G63)+SUM(G27:G49)</f>
+        <v>51</v>
+      </c>
+      <c r="H64" s="332">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="I64" s="332">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="J64" s="332">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="K64" s="332">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="L64" s="332">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="M64" s="332">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="N64" s="332">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="O64" s="332">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="P64" s="175"/>
       <c r="Q64" s="174"/>
       <c r="R64" s="174"/>
@@ -4748,20 +4871,20 @@
       <c r="M65" s="169"/>
       <c r="N65" s="169"/>
       <c r="O65" s="170"/>
-      <c r="P65" s="232"/>
-      <c r="Q65" s="233"/>
-      <c r="R65" s="233"/>
-      <c r="S65" s="233"/>
-      <c r="T65" s="234"/>
-      <c r="U65" s="235"/>
-      <c r="V65" s="233"/>
+      <c r="P65" s="230"/>
+      <c r="Q65" s="231"/>
+      <c r="R65" s="231"/>
+      <c r="S65" s="231"/>
+      <c r="T65" s="232"/>
+      <c r="U65" s="233"/>
+      <c r="V65" s="231"/>
       <c r="W65" s="169"/>
       <c r="X65" s="169"/>
       <c r="Y65" s="173"/>
     </row>
     <row r="66" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66" s="183"/>
       <c r="D66" s="28">
@@ -4779,20 +4902,20 @@
       <c r="M66" s="145"/>
       <c r="N66" s="145"/>
       <c r="O66" s="146"/>
-      <c r="P66" s="147"/>
-      <c r="Q66" s="145"/>
-      <c r="R66" s="145"/>
-      <c r="S66" s="145"/>
-      <c r="T66" s="148"/>
-      <c r="U66" s="144"/>
-      <c r="V66" s="145"/>
+      <c r="P66" s="334"/>
+      <c r="Q66" s="335"/>
+      <c r="R66" s="335"/>
+      <c r="S66" s="335"/>
+      <c r="T66" s="336"/>
+      <c r="U66" s="337"/>
+      <c r="V66" s="335"/>
       <c r="W66" s="145"/>
       <c r="X66" s="145"/>
       <c r="Y66" s="149"/>
     </row>
     <row r="67" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="113" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" s="184"/>
       <c r="D67" s="29">
@@ -4809,30 +4932,26 @@
       <c r="M67" s="151"/>
       <c r="N67" s="151"/>
       <c r="O67" s="152"/>
-      <c r="P67" s="294">
+      <c r="P67" s="338">
         <v>20</v>
       </c>
-      <c r="Q67" s="295">
+      <c r="Q67" s="339">
         <v>20</v>
       </c>
-      <c r="R67" s="295">
+      <c r="R67" s="339">
         <v>12</v>
       </c>
-      <c r="S67" s="276"/>
-      <c r="T67" s="296"/>
-      <c r="U67" s="297"/>
-      <c r="V67" s="276"/>
+      <c r="S67" s="340"/>
+      <c r="T67" s="341"/>
+      <c r="U67" s="342"/>
+      <c r="V67" s="340"/>
       <c r="W67" s="151"/>
       <c r="X67" s="151"/>
       <c r="Y67" s="155"/>
-      <c r="Z67" s="311">
-        <f>SUM(P66:P74)</f>
-        <v>40</v>
-      </c>
     </row>
     <row r="68" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="113" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="184"/>
       <c r="D68" s="29">
@@ -4849,30 +4968,27 @@
       <c r="M68" s="151"/>
       <c r="N68" s="151"/>
       <c r="O68" s="152"/>
-      <c r="P68" s="294">
+      <c r="P68" s="338">
         <v>20</v>
       </c>
-      <c r="Q68" s="295">
+      <c r="Q68" s="339">
         <v>20</v>
       </c>
-      <c r="R68" s="295">
+      <c r="R68" s="339">
         <v>10</v>
       </c>
-      <c r="S68" s="276"/>
-      <c r="T68" s="296"/>
-      <c r="U68" s="297"/>
-      <c r="V68" s="276"/>
+      <c r="S68" s="340"/>
+      <c r="T68" s="341"/>
+      <c r="U68" s="342"/>
+      <c r="V68" s="340"/>
       <c r="W68" s="151"/>
       <c r="X68" s="151"/>
       <c r="Y68" s="155"/>
-      <c r="Z68" s="311">
-        <f>SUM(Q66:Q74)</f>
-        <v>40</v>
-      </c>
+      <c r="Z68" s="273"/>
     </row>
     <row r="69" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="113" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="184"/>
       <c r="D69" s="29">
@@ -4889,28 +5005,25 @@
       <c r="M69" s="151"/>
       <c r="N69" s="151"/>
       <c r="O69" s="152"/>
-      <c r="P69" s="298"/>
-      <c r="Q69" s="276"/>
-      <c r="R69" s="295">
+      <c r="P69" s="343"/>
+      <c r="Q69" s="340"/>
+      <c r="R69" s="339">
         <v>10</v>
       </c>
-      <c r="S69" s="295">
+      <c r="S69" s="339">
         <v>12</v>
       </c>
-      <c r="T69" s="296"/>
-      <c r="U69" s="297"/>
-      <c r="V69" s="276"/>
+      <c r="T69" s="341"/>
+      <c r="U69" s="342"/>
+      <c r="V69" s="340"/>
       <c r="W69" s="151"/>
       <c r="X69" s="151"/>
       <c r="Y69" s="155"/>
-      <c r="Z69" s="311">
-        <f>SUM(R66:R74)</f>
-        <v>40</v>
-      </c>
+      <c r="Z69" s="273"/>
     </row>
     <row r="70" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C70" s="183"/>
       <c r="D70" s="28">
@@ -4928,24 +5041,21 @@
       <c r="M70" s="145"/>
       <c r="N70" s="145"/>
       <c r="O70" s="146"/>
-      <c r="P70" s="299"/>
-      <c r="Q70" s="281"/>
-      <c r="R70" s="281"/>
-      <c r="S70" s="281"/>
-      <c r="T70" s="300"/>
-      <c r="U70" s="301"/>
-      <c r="V70" s="281"/>
+      <c r="P70" s="344"/>
+      <c r="Q70" s="345"/>
+      <c r="R70" s="345"/>
+      <c r="S70" s="345"/>
+      <c r="T70" s="346"/>
+      <c r="U70" s="347"/>
+      <c r="V70" s="345"/>
       <c r="W70" s="145"/>
       <c r="X70" s="145"/>
       <c r="Y70" s="149"/>
-      <c r="Z70" s="311">
-        <f>SUM(S66:S74)</f>
-        <v>40</v>
-      </c>
+      <c r="Z70" s="273"/>
     </row>
     <row r="71" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="113" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C71" s="184"/>
       <c r="D71" s="29">
@@ -4962,30 +5072,27 @@
       <c r="M71" s="151"/>
       <c r="N71" s="151"/>
       <c r="O71" s="152"/>
-      <c r="P71" s="298"/>
-      <c r="Q71" s="276"/>
-      <c r="R71" s="295">
+      <c r="P71" s="343"/>
+      <c r="Q71" s="340"/>
+      <c r="R71" s="339">
         <v>8</v>
       </c>
-      <c r="S71" s="295">
+      <c r="S71" s="339">
         <v>8</v>
       </c>
-      <c r="T71" s="302">
+      <c r="T71" s="348">
         <v>8</v>
       </c>
-      <c r="U71" s="297"/>
-      <c r="V71" s="276"/>
+      <c r="U71" s="342"/>
+      <c r="V71" s="340"/>
       <c r="W71" s="151"/>
       <c r="X71" s="151"/>
       <c r="Y71" s="155"/>
-      <c r="Z71" s="311">
-        <f>SUM(T66:T74)</f>
-        <v>40</v>
-      </c>
+      <c r="Z71" s="273"/>
     </row>
     <row r="72" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="113" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C72" s="184"/>
       <c r="D72" s="29">
@@ -5002,30 +5109,27 @@
       <c r="M72" s="151"/>
       <c r="N72" s="151"/>
       <c r="O72" s="152"/>
-      <c r="P72" s="298"/>
-      <c r="Q72" s="276"/>
-      <c r="R72" s="276"/>
-      <c r="S72" s="295">
+      <c r="P72" s="343"/>
+      <c r="Q72" s="340"/>
+      <c r="R72" s="340"/>
+      <c r="S72" s="339">
         <v>8</v>
       </c>
-      <c r="T72" s="302">
+      <c r="T72" s="348">
         <v>8</v>
       </c>
-      <c r="U72" s="297"/>
-      <c r="V72" s="276"/>
+      <c r="U72" s="342"/>
+      <c r="V72" s="340"/>
       <c r="W72" s="151"/>
       <c r="X72" s="151"/>
       <c r="Y72" s="155"/>
-      <c r="Z72" s="311">
-        <f>SUM(U66:U74)</f>
-        <v>20</v>
-      </c>
+      <c r="Z72" s="273"/>
     </row>
     <row r="73" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="191" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="225"/>
+        <v>86</v>
+      </c>
+      <c r="C73" s="223"/>
       <c r="D73" s="192">
         <v>20</v>
       </c>
@@ -5040,28 +5144,25 @@
       <c r="M73" s="194"/>
       <c r="N73" s="194"/>
       <c r="O73" s="195"/>
-      <c r="P73" s="303"/>
-      <c r="Q73" s="278"/>
-      <c r="R73" s="278"/>
-      <c r="S73" s="304">
+      <c r="P73" s="349"/>
+      <c r="Q73" s="350"/>
+      <c r="R73" s="350"/>
+      <c r="S73" s="351">
         <v>8</v>
       </c>
-      <c r="T73" s="305">
+      <c r="T73" s="352">
         <v>12</v>
       </c>
-      <c r="U73" s="306"/>
-      <c r="V73" s="278"/>
+      <c r="U73" s="353"/>
+      <c r="V73" s="350"/>
       <c r="W73" s="194"/>
       <c r="X73" s="194"/>
       <c r="Y73" s="198"/>
-      <c r="Z73" s="311">
-        <f>SUM(V66:V74)</f>
-        <v>20</v>
-      </c>
+      <c r="Z73" s="273"/>
     </row>
     <row r="74" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="226" t="s">
-        <v>90</v>
+      <c r="B74" s="224" t="s">
+        <v>88</v>
       </c>
       <c r="C74" s="185"/>
       <c r="D74" s="30">
@@ -5078,32 +5179,29 @@
       <c r="M74" s="157"/>
       <c r="N74" s="157"/>
       <c r="O74" s="158"/>
-      <c r="P74" s="307"/>
-      <c r="Q74" s="282"/>
-      <c r="R74" s="282"/>
-      <c r="S74" s="308">
+      <c r="P74" s="354"/>
+      <c r="Q74" s="355"/>
+      <c r="R74" s="355"/>
+      <c r="S74" s="356">
         <v>4</v>
       </c>
-      <c r="T74" s="309">
+      <c r="T74" s="357">
         <v>12</v>
       </c>
-      <c r="U74" s="310">
+      <c r="U74" s="358">
         <v>20</v>
       </c>
-      <c r="V74" s="308">
+      <c r="V74" s="356">
         <v>20</v>
       </c>
       <c r="W74" s="157"/>
       <c r="X74" s="157"/>
       <c r="Y74" s="161"/>
-      <c r="Z74" s="311">
-        <f>SUM(Z67:Z73)</f>
-        <v>240</v>
-      </c>
+      <c r="Z74" s="273"/>
     </row>
     <row r="75" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="319"/>
-      <c r="C75" s="319"/>
+      <c r="B75" s="277"/>
+      <c r="C75" s="277"/>
       <c r="D75" s="6"/>
       <c r="E75" s="174"/>
       <c r="F75" s="174"/>
@@ -5116,25 +5214,46 @@
       <c r="M75" s="174"/>
       <c r="N75" s="174"/>
       <c r="O75" s="174"/>
-      <c r="P75" s="175"/>
-      <c r="Q75" s="174"/>
-      <c r="R75" s="174"/>
-      <c r="S75" s="174"/>
-      <c r="T75" s="176"/>
-      <c r="U75" s="174"/>
-      <c r="V75" s="174"/>
+      <c r="P75" s="333">
+        <f>SUM(P66:P74)</f>
+        <v>40</v>
+      </c>
+      <c r="Q75" s="333">
+        <f t="shared" ref="Q75:V75" si="1">SUM(Q66:Q74)</f>
+        <v>40</v>
+      </c>
+      <c r="R75" s="333">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="S75" s="333">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="T75" s="333">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="U75" s="333">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="V75" s="333">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="W75" s="174"/>
       <c r="X75" s="174"/>
       <c r="Y75" s="174"/>
     </row>
     <row r="76" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="118" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C76" s="45"/>
       <c r="D76" s="35">
         <f>SUM(D77:D79)</f>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E76" s="162"/>
       <c r="F76" s="163"/>
@@ -5145,22 +5264,22 @@
       <c r="K76" s="163"/>
       <c r="L76" s="163"/>
       <c r="M76" s="163"/>
-      <c r="N76" s="163"/>
-      <c r="O76" s="164"/>
-      <c r="P76" s="165"/>
-      <c r="Q76" s="163"/>
-      <c r="R76" s="163"/>
-      <c r="S76" s="237"/>
-      <c r="T76" s="238"/>
-      <c r="U76" s="239"/>
-      <c r="V76" s="237"/>
-      <c r="W76" s="237"/>
-      <c r="X76" s="237"/>
+      <c r="N76" s="293"/>
+      <c r="O76" s="294"/>
+      <c r="P76" s="295"/>
+      <c r="Q76" s="293"/>
+      <c r="R76" s="293"/>
+      <c r="S76" s="235"/>
+      <c r="T76" s="236"/>
+      <c r="U76" s="237"/>
+      <c r="V76" s="235"/>
+      <c r="W76" s="235"/>
+      <c r="X76" s="235"/>
       <c r="Y76" s="167"/>
     </row>
     <row r="77" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="117" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C77" s="46"/>
       <c r="D77" s="36">
@@ -5175,26 +5294,26 @@
       <c r="K77" s="178"/>
       <c r="L77" s="178"/>
       <c r="M77" s="178"/>
-      <c r="N77" s="178"/>
-      <c r="O77" s="179"/>
-      <c r="P77" s="180"/>
-      <c r="Q77" s="178"/>
-      <c r="R77" s="178"/>
-      <c r="S77" s="283"/>
-      <c r="T77" s="312"/>
-      <c r="U77" s="313">
+      <c r="N77" s="359"/>
+      <c r="O77" s="360"/>
+      <c r="P77" s="361"/>
+      <c r="Q77" s="359"/>
+      <c r="R77" s="359"/>
+      <c r="S77" s="362"/>
+      <c r="T77" s="363"/>
+      <c r="U77" s="364">
         <v>4</v>
       </c>
-      <c r="V77" s="314">
+      <c r="V77" s="365">
         <v>4</v>
       </c>
-      <c r="W77" s="283"/>
-      <c r="X77" s="283"/>
+      <c r="W77" s="362"/>
+      <c r="X77" s="362"/>
       <c r="Y77" s="182"/>
     </row>
     <row r="78" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="113" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C78" s="38"/>
       <c r="D78" s="29">
@@ -5209,30 +5328,30 @@
       <c r="K78" s="151"/>
       <c r="L78" s="151"/>
       <c r="M78" s="151"/>
-      <c r="N78" s="151"/>
-      <c r="O78" s="152"/>
-      <c r="P78" s="153"/>
-      <c r="Q78" s="151"/>
-      <c r="R78" s="151"/>
-      <c r="S78" s="276"/>
-      <c r="T78" s="296"/>
-      <c r="U78" s="297"/>
-      <c r="V78" s="276"/>
-      <c r="W78" s="315">
+      <c r="N78" s="366"/>
+      <c r="O78" s="367"/>
+      <c r="P78" s="368"/>
+      <c r="Q78" s="366"/>
+      <c r="R78" s="366"/>
+      <c r="S78" s="369"/>
+      <c r="T78" s="370"/>
+      <c r="U78" s="371"/>
+      <c r="V78" s="369"/>
+      <c r="W78" s="372">
         <v>16</v>
       </c>
-      <c r="X78" s="315">
+      <c r="X78" s="372">
         <v>16</v>
       </c>
       <c r="Y78" s="155"/>
     </row>
     <row r="79" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="114" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C79" s="39"/>
       <c r="D79" s="30">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E79" s="156"/>
       <c r="F79" s="157"/>
@@ -5243,34 +5362,44 @@
       <c r="K79" s="157"/>
       <c r="L79" s="157"/>
       <c r="M79" s="157"/>
-      <c r="N79" s="157"/>
-      <c r="O79" s="158"/>
-      <c r="P79" s="159"/>
-      <c r="Q79" s="157"/>
-      <c r="R79" s="157"/>
-      <c r="S79" s="316">
-        <v>4</v>
-      </c>
-      <c r="T79" s="317">
-        <v>4</v>
-      </c>
-      <c r="U79" s="318">
-        <v>10</v>
-      </c>
-      <c r="V79" s="316">
-        <v>12</v>
-      </c>
-      <c r="W79" s="316">
-        <v>15</v>
-      </c>
-      <c r="X79" s="316">
-        <v>15</v>
+      <c r="N79" s="373">
+        <v>6</v>
+      </c>
+      <c r="O79" s="374">
+        <v>6</v>
+      </c>
+      <c r="P79" s="375">
+        <v>6</v>
+      </c>
+      <c r="Q79" s="373">
+        <v>6</v>
+      </c>
+      <c r="R79" s="373">
+        <v>6</v>
+      </c>
+      <c r="S79" s="373">
+        <v>6</v>
+      </c>
+      <c r="T79" s="376">
+        <v>6</v>
+      </c>
+      <c r="U79" s="377">
+        <v>6</v>
+      </c>
+      <c r="V79" s="373">
+        <v>6</v>
+      </c>
+      <c r="W79" s="373">
+        <v>6</v>
+      </c>
+      <c r="X79" s="373">
+        <v>6</v>
       </c>
       <c r="Y79" s="161"/>
     </row>
     <row r="80" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="319"/>
-      <c r="C80" s="319"/>
+      <c r="B80" s="277"/>
+      <c r="C80" s="277"/>
       <c r="D80" s="6"/>
       <c r="P80" s="4"/>
       <c r="T80" s="5"/>
@@ -5282,7 +5411,7 @@
       <c r="C81" s="101"/>
       <c r="D81" s="102">
         <f>900-(D18+D26+D52+D65+D76+D83)</f>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E81" s="103"/>
       <c r="F81" s="104"/>
@@ -5307,8 +5436,8 @@
       <c r="Y81" s="108"/>
     </row>
     <row r="82" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="319"/>
-      <c r="C82" s="319"/>
+      <c r="B82" s="277"/>
+      <c r="C82" s="277"/>
       <c r="D82" s="6"/>
       <c r="P82" s="4"/>
       <c r="T82" s="5"/>
@@ -5341,8 +5470,8 @@
       <c r="U83" s="162"/>
       <c r="V83" s="163"/>
       <c r="W83" s="163"/>
-      <c r="X83" s="243"/>
-      <c r="Y83" s="244"/>
+      <c r="X83" s="241"/>
+      <c r="Y83" s="242"/>
       <c r="Z83" s="174"/>
     </row>
     <row r="84" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5372,7 +5501,7 @@
       <c r="U84" s="177"/>
       <c r="V84" s="178"/>
       <c r="W84" s="178"/>
-      <c r="X84" s="242"/>
+      <c r="X84" s="240"/>
       <c r="Y84" s="182"/>
       <c r="Z84" s="174"/>
     </row>
@@ -5404,7 +5533,7 @@
       <c r="V85" s="151"/>
       <c r="W85" s="151"/>
       <c r="X85" s="151"/>
-      <c r="Y85" s="240"/>
+      <c r="Y85" s="238"/>
       <c r="Z85" s="174"/>
     </row>
     <row r="86" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5435,15 +5564,15 @@
       <c r="V86" s="157"/>
       <c r="W86" s="157"/>
       <c r="X86" s="157"/>
-      <c r="Y86" s="241"/>
+      <c r="Y86" s="239"/>
       <c r="Z86" s="174"/>
     </row>
     <row r="87" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="204" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="202"/>
-      <c r="D87" s="203">
+      <c r="B87" s="203" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="201"/>
+      <c r="D87" s="202">
         <f>D18+D26+D52+D65+D76+D81+D83</f>
         <v>900</v>
       </c>
@@ -5457,11 +5586,16 @@
       <c r="Z87" s="174"/>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C89" s="222"/>
-      <c r="D89" s="222"/>
+      <c r="C89" s="221"/>
+      <c r="D89" s="221"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B25:C25"/>
@@ -5478,11 +5612,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <conditionalFormatting sqref="B42:B49">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
@@ -5500,7 +5629,7 @@
   <dimension ref="B1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5508,27 +5637,27 @@
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="273" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="271" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="331" t="s">
+      <c r="B2" s="286" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="333" t="s">
+      <c r="C2" s="288" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="335" t="s">
+      <c r="D2" s="290" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="336"/>
+      <c r="E2" s="291"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="332"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="253" t="s">
+      <c r="B3" s="287"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="251" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="61" t="s">
@@ -5543,12 +5672,12 @@
         <f>SUM(C5,C8,C9,C10)</f>
         <v>50</v>
       </c>
-      <c r="D4" s="254">
-        <f t="shared" ref="D4:D10" si="0">C4*$D$86</f>
+      <c r="D4" s="252">
+        <f>C4*$D$73</f>
         <v>5950</v>
       </c>
       <c r="E4" s="64">
-        <f t="shared" ref="E4:E17" si="1">D4/$D$67</f>
+        <f t="shared" ref="E4:E17" si="0">D4/$D$67</f>
         <v>9.2008412197686643E-2</v>
       </c>
     </row>
@@ -5560,63 +5689,63 @@
         <f>SUM(C6:C7)</f>
         <v>16</v>
       </c>
-      <c r="D5" s="255">
+      <c r="D5" s="253">
+        <f>C5*$D$73</f>
+        <v>1904</v>
+      </c>
+      <c r="E5" s="66">
         <f t="shared" si="0"/>
-        <v>1904</v>
-      </c>
-      <c r="E5" s="66">
-        <f t="shared" si="1"/>
         <v>2.9442691903259727E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="68">
         <f>Strukturplan!D20</f>
         <v>12</v>
       </c>
-      <c r="D6" s="256">
+      <c r="D6" s="254">
+        <f>C6*$D$73</f>
+        <v>1428</v>
+      </c>
+      <c r="E6" s="69">
         <f t="shared" si="0"/>
-        <v>1428</v>
-      </c>
-      <c r="E6" s="69">
-        <f t="shared" si="1"/>
         <v>2.2082018927444796E-2</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="191" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="249">
+        <v>52</v>
+      </c>
+      <c r="C7" s="247">
         <f>Strukturplan!D21</f>
         <v>4</v>
       </c>
-      <c r="D7" s="257">
+      <c r="D7" s="255">
+        <f>C7*$D$73</f>
+        <v>476</v>
+      </c>
+      <c r="E7" s="70">
         <f t="shared" si="0"/>
-        <v>476</v>
-      </c>
-      <c r="E7" s="70">
-        <f t="shared" si="1"/>
         <v>7.3606729758149319E-3</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="251" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="250">
+      <c r="B8" s="249" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="248">
         <f>Strukturplan!D22</f>
         <v>12</v>
       </c>
-      <c r="D8" s="258">
+      <c r="D8" s="256">
+        <f>C8*$D$73</f>
+        <v>1428</v>
+      </c>
+      <c r="E8" s="73">
         <f t="shared" si="0"/>
-        <v>1428</v>
-      </c>
-      <c r="E8" s="73">
-        <f t="shared" si="1"/>
         <v>2.2082018927444796E-2</v>
       </c>
     </row>
@@ -5624,33 +5753,33 @@
       <c r="B9" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="252">
+      <c r="C9" s="250">
         <f>Strukturplan!D23</f>
         <v>12</v>
       </c>
-      <c r="D9" s="258">
+      <c r="D9" s="256">
+        <f>C9*$D$73</f>
+        <v>1428</v>
+      </c>
+      <c r="E9" s="73">
         <f t="shared" si="0"/>
-        <v>1428</v>
-      </c>
-      <c r="E9" s="73">
-        <f t="shared" si="1"/>
         <v>2.2082018927444796E-2</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="250">
+        <v>49</v>
+      </c>
+      <c r="C10" s="248">
         <f>Strukturplan!D24</f>
         <v>10</v>
       </c>
-      <c r="D10" s="258">
+      <c r="D10" s="256">
+        <f>C10*$D$73</f>
+        <v>1190</v>
+      </c>
+      <c r="E10" s="73">
         <f t="shared" si="0"/>
-        <v>1190</v>
-      </c>
-      <c r="E10" s="73">
-        <f t="shared" si="1"/>
         <v>1.8401682439537329E-2</v>
       </c>
     </row>
@@ -5662,257 +5791,257 @@
         <f>SUM(C12,C20,C27)</f>
         <v>146</v>
       </c>
-      <c r="D11" s="259">
-        <f t="shared" ref="D11:D25" si="2">C11*$D$87</f>
+      <c r="D11" s="257">
+        <f>C11*$D$74</f>
         <v>9928</v>
       </c>
       <c r="E11" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.15352260778128285</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="65">
         <f>SUM(C13:C19)</f>
         <v>75</v>
       </c>
-      <c r="D12" s="255">
-        <f t="shared" si="2"/>
+      <c r="D12" s="253">
+        <f>C12*$D$74</f>
         <v>5100</v>
       </c>
       <c r="E12" s="66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.8864353312302835E-2</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="68">
         <f>Strukturplan!D28</f>
         <v>24</v>
       </c>
-      <c r="D13" s="255">
-        <f t="shared" si="2"/>
+      <c r="D13" s="253">
+        <f>C13*$D$74</f>
         <v>1632</v>
       </c>
       <c r="E13" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5236593059936908E-2</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="216" t="s">
-        <v>60</v>
+      <c r="B14" s="215" t="s">
+        <v>59</v>
       </c>
       <c r="C14" s="68">
         <f>Strukturplan!D29</f>
         <v>8</v>
       </c>
-      <c r="D14" s="255">
-        <f t="shared" si="2"/>
+      <c r="D14" s="253">
+        <f>C14*$D$74</f>
         <v>544</v>
       </c>
       <c r="E14" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.4121976866456359E-3</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="68">
         <f>Strukturplan!D30</f>
         <v>8</v>
       </c>
-      <c r="D15" s="255">
-        <f t="shared" si="2"/>
+      <c r="D15" s="253">
+        <f>C15*$D$74</f>
         <v>544</v>
       </c>
       <c r="E15" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.4121976866456359E-3</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="113" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="68">
         <f>Strukturplan!D31</f>
         <v>8</v>
       </c>
-      <c r="D16" s="255">
-        <f t="shared" si="2"/>
+      <c r="D16" s="253">
+        <f>C16*$D$74</f>
         <v>544</v>
       </c>
       <c r="E16" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.4121976866456359E-3</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="199" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="68">
         <f>Strukturplan!D32</f>
         <v>6</v>
       </c>
-      <c r="D17" s="255">
-        <f t="shared" si="2"/>
+      <c r="D17" s="253">
+        <f>C17*$D$74</f>
         <v>408</v>
       </c>
       <c r="E17" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.3091482649842269E-3</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="245" t="s">
-        <v>58</v>
+      <c r="B18" s="243" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="68">
         <f>Strukturplan!D33</f>
         <v>9</v>
       </c>
-      <c r="D18" s="255">
-        <f t="shared" si="2"/>
+      <c r="D18" s="253">
+        <f>C18*$D$74</f>
         <v>612</v>
       </c>
       <c r="E18" s="69">
-        <f t="shared" ref="E18:E28" si="3">D18/$D$67</f>
+        <f t="shared" ref="E18:E28" si="1">D18/$D$67</f>
         <v>9.4637223974763408E-3</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="245" t="s">
-        <v>59</v>
+      <c r="B19" s="243" t="s">
+        <v>58</v>
       </c>
       <c r="C19" s="68">
         <f>Strukturplan!D34</f>
         <v>12</v>
       </c>
-      <c r="D19" s="255">
-        <f t="shared" si="2"/>
+      <c r="D19" s="253">
+        <f>C19*$D$74</f>
         <v>816</v>
       </c>
       <c r="E19" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.2618296529968454E-2</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="71">
         <f>SUM(C21:C26)</f>
         <v>37</v>
       </c>
-      <c r="D20" s="260">
-        <f t="shared" si="2"/>
+      <c r="D20" s="258">
+        <f>C20*$D$74</f>
         <v>2516</v>
       </c>
       <c r="E20" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.8906414300736068E-2</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="113" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" s="68">
         <f>Strukturplan!D36</f>
         <v>12</v>
       </c>
-      <c r="D21" s="255">
-        <f t="shared" si="2"/>
+      <c r="D21" s="253">
+        <f>C21*$D$74</f>
         <v>816</v>
       </c>
       <c r="E21" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.2618296529968454E-2</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="68">
         <f>Strukturplan!D37</f>
         <v>6</v>
       </c>
-      <c r="D22" s="255">
-        <f t="shared" si="2"/>
+      <c r="D22" s="253">
+        <f>C22*$D$74</f>
         <v>408</v>
       </c>
       <c r="E22" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.3091482649842269E-3</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="68">
         <f>Strukturplan!D38</f>
         <v>9</v>
       </c>
-      <c r="D23" s="255">
-        <f t="shared" si="2"/>
+      <c r="D23" s="253">
+        <f>C23*$D$74</f>
         <v>612</v>
       </c>
       <c r="E23" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9.4637223974763408E-3</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="68">
         <f>Strukturplan!D39</f>
         <v>6</v>
       </c>
-      <c r="D24" s="255">
-        <f t="shared" si="2"/>
+      <c r="D24" s="253">
+        <f>C24*$D$74</f>
         <v>408</v>
       </c>
       <c r="E24" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.3091482649842269E-3</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="68">
         <f>Strukturplan!D40</f>
         <v>4</v>
       </c>
-      <c r="D25" s="255">
-        <f t="shared" si="2"/>
+      <c r="D25" s="253">
+        <f>C25*$D$74</f>
         <v>272</v>
       </c>
       <c r="E25" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.206098843322818E-3</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="113"/>
       <c r="C26" s="68"/>
-      <c r="D26" s="261"/>
+      <c r="D26" s="259"/>
       <c r="E26" s="82"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -5923,42 +6052,42 @@
         <f>SUM(C28:C34)</f>
         <v>34</v>
       </c>
-      <c r="D27" s="260">
-        <f t="shared" ref="D27:D34" si="4">C27*$D$86</f>
+      <c r="D27" s="258">
+        <f>C27*$D$73</f>
         <v>4046</v>
       </c>
       <c r="E27" s="72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.2565720294426919E-2</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="68">
         <f>Strukturplan!D43</f>
         <v>4</v>
       </c>
-      <c r="D28" s="256">
-        <f t="shared" si="4"/>
+      <c r="D28" s="254">
+        <f>C28*$D$73</f>
         <v>476</v>
       </c>
       <c r="E28" s="69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.3606729758149319E-3</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="113" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="68">
         <f>Strukturplan!D44</f>
         <v>4</v>
       </c>
-      <c r="D29" s="256">
-        <f t="shared" si="4"/>
+      <c r="D29" s="254">
+        <f>C29*$D$73</f>
         <v>476</v>
       </c>
       <c r="E29" s="69">
@@ -5968,14 +6097,14 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="68">
         <f>Strukturplan!D45</f>
         <v>4</v>
       </c>
-      <c r="D30" s="256">
-        <f t="shared" si="4"/>
+      <c r="D30" s="254">
+        <f>C30*$D$73</f>
         <v>476</v>
       </c>
       <c r="E30" s="69">
@@ -5985,69 +6114,69 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="68">
         <f>Strukturplan!D46</f>
         <v>6</v>
       </c>
-      <c r="D31" s="256">
-        <f t="shared" si="4"/>
+      <c r="D31" s="254">
+        <f>C31*$D$73</f>
         <v>714</v>
       </c>
       <c r="E31" s="69">
-        <f t="shared" ref="E31:E36" si="5">D31/$D$67</f>
+        <f t="shared" ref="E31:E36" si="2">D31/$D$67</f>
         <v>1.1041009463722398E-2</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="113" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="68">
         <f>Strukturplan!D47</f>
         <v>6</v>
       </c>
-      <c r="D32" s="256">
-        <f t="shared" si="4"/>
+      <c r="D32" s="254">
+        <f>C32*$D$73</f>
         <v>714</v>
       </c>
       <c r="E32" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1.1041009463722398E-2</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="68">
         <f>Strukturplan!D48</f>
         <v>6</v>
       </c>
-      <c r="D33" s="256">
-        <f t="shared" si="4"/>
+      <c r="D33" s="254">
+        <f>C33*$D$73</f>
         <v>714</v>
       </c>
       <c r="E33" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1.1041009463722398E-2</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="114" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="68">
         <f>Strukturplan!D49</f>
         <v>4</v>
       </c>
-      <c r="D34" s="257">
-        <f t="shared" si="4"/>
+      <c r="D34" s="255">
+        <f>C34*$D$73</f>
         <v>476</v>
       </c>
       <c r="E34" s="70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.3606729758149319E-3</v>
       </c>
     </row>
@@ -6059,42 +6188,42 @@
         <f>SUM(C36,C43)</f>
         <v>256</v>
       </c>
-      <c r="D35" s="262">
-        <f t="shared" ref="D35:D46" si="6">C35*$D$87</f>
+      <c r="D35" s="260">
+        <f>C35*$D$74</f>
         <v>17408</v>
       </c>
       <c r="E35" s="85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.26919032597266035</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="65">
         <f>SUM(C37:C42)</f>
         <v>190</v>
       </c>
-      <c r="D36" s="255">
-        <f t="shared" si="6"/>
+      <c r="D36" s="253">
+        <f>C36*$D$74</f>
         <v>12920</v>
       </c>
       <c r="E36" s="66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.19978969505783387</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="113" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="246">
+        <v>74</v>
+      </c>
+      <c r="C37" s="244">
         <f>Strukturplan!D54</f>
         <v>24</v>
       </c>
-      <c r="D37" s="255">
-        <f t="shared" si="6"/>
+      <c r="D37" s="253">
+        <f>C37*$D$74</f>
         <v>1632</v>
       </c>
       <c r="E37" s="66">
@@ -6104,14 +6233,14 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="246">
+        <v>76</v>
+      </c>
+      <c r="C38" s="244">
         <f>Strukturplan!D55</f>
         <v>36</v>
       </c>
-      <c r="D38" s="255">
-        <f t="shared" si="6"/>
+      <c r="D38" s="253">
+        <f>C38*$D$74</f>
         <v>2448</v>
       </c>
       <c r="E38" s="66">
@@ -6121,14 +6250,14 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="191" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="246">
+        <v>77</v>
+      </c>
+      <c r="C39" s="244">
         <f>Strukturplan!D56</f>
         <v>18</v>
       </c>
-      <c r="D39" s="255">
-        <f t="shared" si="6"/>
+      <c r="D39" s="253">
+        <f>C39*$D$74</f>
         <v>1224</v>
       </c>
       <c r="E39" s="66">
@@ -6138,127 +6267,127 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="191" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="68">
         <f>Strukturplan!D57</f>
         <v>16</v>
       </c>
-      <c r="D40" s="255">
-        <f t="shared" si="6"/>
+      <c r="D40" s="253">
+        <f>C40*$D$74</f>
         <v>1088</v>
       </c>
       <c r="E40" s="69">
-        <f t="shared" ref="E40:E46" si="7">D40/$D$67</f>
+        <f t="shared" ref="E40:E46" si="3">D40/$D$67</f>
         <v>1.6824395373291272E-2</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="191" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="68">
         <f>Strukturplan!D58</f>
         <v>48</v>
       </c>
-      <c r="D41" s="255">
-        <f t="shared" si="6"/>
+      <c r="D41" s="253">
+        <f>C41*$D$74</f>
         <v>3264</v>
       </c>
       <c r="E41" s="69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>5.0473186119873815E-2</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="246">
+        <v>81</v>
+      </c>
+      <c r="C42" s="244">
         <f>Strukturplan!D59</f>
         <v>48</v>
       </c>
-      <c r="D42" s="263">
-        <f t="shared" si="6"/>
+      <c r="D42" s="261">
+        <f>C42*$D$74</f>
         <v>3264</v>
       </c>
       <c r="E42" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>5.0473186119873815E-2</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="71">
         <f>SUM(C44:C46)</f>
         <v>66</v>
       </c>
-      <c r="D43" s="260">
-        <f t="shared" si="6"/>
+      <c r="D43" s="258">
+        <f>C43*$D$74</f>
         <v>4488</v>
       </c>
       <c r="E43" s="72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6.9400630914826497E-2</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="248">
+        <v>75</v>
+      </c>
+      <c r="C44" s="246">
         <f>Strukturplan!D61</f>
         <v>24</v>
       </c>
-      <c r="D44" s="264">
-        <f t="shared" si="6"/>
+      <c r="D44" s="262">
+        <f>C44*$D$74</f>
         <v>1632</v>
       </c>
       <c r="E44" s="69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2.5236593059936908E-2</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="216" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="248">
+      <c r="B45" s="215" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="246">
         <f>Strukturplan!D62</f>
         <v>24</v>
       </c>
-      <c r="D45" s="264">
-        <f t="shared" si="6"/>
+      <c r="D45" s="262">
+        <f>C45*$D$74</f>
         <v>1632</v>
       </c>
       <c r="E45" s="69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2.5236593059936908E-2</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="274" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="247">
+      <c r="B46" s="272" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="245">
         <f>Strukturplan!D63</f>
         <v>18</v>
       </c>
-      <c r="D46" s="265">
-        <f t="shared" si="6"/>
+      <c r="D46" s="263">
+        <f>C46*$D$74</f>
         <v>1224</v>
       </c>
       <c r="E46" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1.8927444794952682E-2</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="74"/>
       <c r="C47" s="75"/>
-      <c r="D47" s="266"/>
+      <c r="D47" s="264"/>
       <c r="E47" s="76"/>
     </row>
     <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6269,165 +6398,165 @@
         <f>SUM(C49,C53)</f>
         <v>240</v>
       </c>
-      <c r="D48" s="267">
-        <f t="shared" ref="D48:D54" si="8">C48*$D$87</f>
+      <c r="D48" s="265">
+        <f>C48*$D$74</f>
         <v>16320</v>
       </c>
       <c r="E48" s="88">
-        <f t="shared" ref="E48:E66" si="9">D48/$D$67</f>
+        <f t="shared" ref="E48:E66" si="4">D48/$D$67</f>
         <v>0.25236593059936907</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="71">
         <f>SUM(C50:C52)</f>
         <v>124</v>
       </c>
-      <c r="D49" s="260">
-        <f t="shared" si="8"/>
+      <c r="D49" s="258">
+        <f>C49*$D$74</f>
         <v>8432</v>
       </c>
       <c r="E49" s="72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.13038906414300735</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="113" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C50" s="68">
         <f>Strukturplan!D67</f>
         <v>52</v>
       </c>
-      <c r="D50" s="255">
-        <f t="shared" si="8"/>
+      <c r="D50" s="253">
+        <f>C50*$D$74</f>
         <v>3536</v>
       </c>
       <c r="E50" s="69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>5.4679284963196635E-2</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="113" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C51" s="68">
         <f>Strukturplan!D68</f>
         <v>50</v>
       </c>
-      <c r="D51" s="255">
-        <f t="shared" si="8"/>
+      <c r="D51" s="253">
+        <f>C51*$D$74</f>
         <v>3400</v>
       </c>
       <c r="E51" s="69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>5.2576235541535225E-2</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="249">
+        <v>83</v>
+      </c>
+      <c r="C52" s="247">
         <f>Strukturplan!D69</f>
         <v>22</v>
       </c>
-      <c r="D52" s="263">
-        <f t="shared" si="8"/>
+      <c r="D52" s="261">
+        <f>C52*$D$74</f>
         <v>1496</v>
       </c>
       <c r="E52" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>2.3133543638275498E-2</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="71">
         <f>SUM(C54:C57)</f>
         <v>116</v>
       </c>
-      <c r="D53" s="260">
-        <f t="shared" si="8"/>
+      <c r="D53" s="258">
+        <f>C53*$D$74</f>
         <v>7888</v>
       </c>
       <c r="E53" s="72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.12197686645636173</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="113" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C54" s="68">
         <f>Strukturplan!D71</f>
         <v>24</v>
       </c>
-      <c r="D54" s="255">
-        <f t="shared" si="8"/>
+      <c r="D54" s="253">
+        <f>C54*$D$74</f>
         <v>1632</v>
       </c>
       <c r="E54" s="69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>2.5236593059936908E-2</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="113" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C55" s="68">
         <f>Strukturplan!D72</f>
         <v>16</v>
       </c>
-      <c r="D55" s="255">
-        <f t="shared" ref="D55:D56" si="10">C55*$D$87</f>
+      <c r="D55" s="253">
+        <f>C55*$D$74</f>
         <v>1088</v>
       </c>
       <c r="E55" s="69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1.6824395373291272E-2</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="191" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C56" s="68">
         <f>Strukturplan!D73</f>
         <v>20</v>
       </c>
-      <c r="D56" s="255">
-        <f t="shared" si="10"/>
+      <c r="D56" s="253">
+        <f>C56*$D$74</f>
         <v>1360</v>
       </c>
       <c r="E56" s="69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>2.1030494216614092E-2</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="114" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C57" s="81">
         <f>Strukturplan!D74</f>
         <v>56</v>
       </c>
-      <c r="D57" s="255">
-        <f>C57*$D$87</f>
+      <c r="D57" s="253">
+        <f>C57*$D$74</f>
         <v>3808</v>
       </c>
       <c r="E57" s="82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>5.8885383806519455E-2</v>
       </c>
     </row>
@@ -6437,66 +6566,66 @@
       </c>
       <c r="C58" s="90">
         <f>SUM(C59:C61)</f>
-        <v>100</v>
-      </c>
-      <c r="D58" s="268">
-        <f>C58*$D$87</f>
-        <v>6800</v>
+        <v>106</v>
+      </c>
+      <c r="D58" s="266">
+        <f>C58*$D$74</f>
+        <v>7208</v>
       </c>
       <c r="E58" s="99">
-        <f t="shared" si="9"/>
-        <v>0.10515247108307045</v>
+        <f t="shared" si="4"/>
+        <v>0.11146161934805468</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="117" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C59" s="65">
         <f>Strukturplan!D77</f>
         <v>8</v>
       </c>
-      <c r="D59" s="255">
-        <f t="shared" ref="D59:D61" si="11">C59*$D$87</f>
+      <c r="D59" s="253">
+        <f>C59*$D$74</f>
         <v>544</v>
       </c>
       <c r="E59" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>8.4121976866456359E-3</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="113" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C60" s="65">
         <f>Strukturplan!D78</f>
         <v>32</v>
       </c>
-      <c r="D60" s="255">
-        <f t="shared" si="11"/>
+      <c r="D60" s="253">
+        <f>C60*$D$74</f>
         <v>2176</v>
       </c>
       <c r="E60" s="69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>3.3648790746582544E-2</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="114" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C61" s="65">
         <f>Strukturplan!D79</f>
-        <v>60</v>
-      </c>
-      <c r="D61" s="255">
-        <f t="shared" si="11"/>
-        <v>4080</v>
+        <v>66</v>
+      </c>
+      <c r="D61" s="253">
+        <f>C61*$D$74</f>
+        <v>4488</v>
       </c>
       <c r="E61" s="82">
-        <f t="shared" si="9"/>
-        <v>6.3091482649842268E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.9400630914826497E-2</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6505,15 +6634,15 @@
       </c>
       <c r="C62" s="93">
         <f>Strukturplan!D81</f>
-        <v>90</v>
-      </c>
-      <c r="D62" s="269">
-        <f>C62*$D$87</f>
-        <v>6120</v>
+        <v>84</v>
+      </c>
+      <c r="D62" s="267">
+        <f>C62*$D$74</f>
+        <v>5712</v>
       </c>
       <c r="E62" s="94">
-        <f t="shared" si="9"/>
-        <v>9.4637223974763401E-2</v>
+        <f t="shared" si="4"/>
+        <v>8.8328075709779186E-2</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6524,12 +6653,12 @@
         <f>SUM(C64:C66)</f>
         <v>18</v>
       </c>
-      <c r="D63" s="270">
-        <f>C63*$D$86</f>
+      <c r="D63" s="268">
+        <f>C63*$D$73</f>
         <v>2142</v>
       </c>
       <c r="E63" s="97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>3.3123028391167195E-2</v>
       </c>
     </row>
@@ -6541,12 +6670,12 @@
         <f>Strukturplan!D84</f>
         <v>6</v>
       </c>
-      <c r="D64" s="255">
-        <f>C64*$D$86</f>
+      <c r="D64" s="253">
+        <f>C64*$D$73</f>
         <v>714</v>
       </c>
       <c r="E64" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1.1041009463722398E-2</v>
       </c>
     </row>
@@ -6558,12 +6687,12 @@
         <f>Strukturplan!D85</f>
         <v>8</v>
       </c>
-      <c r="D65" s="256">
-        <f>C65*$D$86</f>
+      <c r="D65" s="254">
+        <f>C65*$D$73</f>
         <v>952</v>
       </c>
       <c r="E65" s="69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1.4721345951629864E-2</v>
       </c>
     </row>
@@ -6575,12 +6704,12 @@
         <f>Strukturplan!D86</f>
         <v>4</v>
       </c>
-      <c r="D66" s="271">
-        <f>C66*$D$86</f>
+      <c r="D66" s="269">
+        <f>C66*$D$73</f>
         <v>476</v>
       </c>
       <c r="E66" s="82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>7.3606729758149319E-3</v>
       </c>
     </row>
@@ -6592,7 +6721,7 @@
         <f>SUM(C63,C62,C58,C48,C35,C11,C4)</f>
         <v>900</v>
       </c>
-      <c r="D67" s="272">
+      <c r="D67" s="270">
         <f>SUM(D63,D62,D58,D48,D35,D11,D4)</f>
         <v>64668</v>
       </c>
@@ -6604,129 +6733,125 @@
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="98"/>
       <c r="C68" s="98"/>
-      <c r="D68" s="266"/>
+      <c r="D68" s="264"/>
       <c r="E68" s="98"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="98"/>
       <c r="C69" s="98"/>
-      <c r="D69" s="266"/>
+      <c r="D69" s="264"/>
       <c r="E69" s="98"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="98"/>
       <c r="C70" s="98"/>
-      <c r="D70" s="266"/>
+      <c r="D70" s="264"/>
       <c r="E70" s="98"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="98"/>
       <c r="C71" s="98"/>
-      <c r="D71" s="266"/>
+      <c r="D71" s="264"/>
       <c r="E71" s="98"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="98"/>
       <c r="C72" s="98"/>
-      <c r="D72" s="266"/>
+      <c r="D72" s="264"/>
       <c r="E72" s="98"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="98"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="266"/>
+      <c r="C73" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="264">
+        <v>119</v>
+      </c>
       <c r="E73" s="98"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="98"/>
-      <c r="C74" s="98"/>
-      <c r="D74" s="266"/>
+      <c r="C74" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="264">
+        <v>68</v>
+      </c>
       <c r="E74" s="98"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="98"/>
       <c r="C75" s="98"/>
-      <c r="D75" s="266"/>
+      <c r="D75" s="264"/>
       <c r="E75" s="98"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="98"/>
       <c r="C76" s="98"/>
-      <c r="D76" s="266"/>
+      <c r="D76" s="264"/>
       <c r="E76" s="98"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="98"/>
       <c r="C77" s="98"/>
-      <c r="D77" s="266"/>
+      <c r="D77" s="264"/>
       <c r="E77" s="98"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="98"/>
       <c r="C78" s="98"/>
-      <c r="D78" s="266"/>
+      <c r="D78" s="264"/>
       <c r="E78" s="98"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="98"/>
       <c r="C79" s="98"/>
-      <c r="D79" s="266"/>
+      <c r="D79" s="264"/>
       <c r="E79" s="98"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="98"/>
       <c r="C80" s="98"/>
-      <c r="D80" s="266"/>
+      <c r="D80" s="264"/>
       <c r="E80" s="98"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="98"/>
       <c r="C81" s="98"/>
-      <c r="D81" s="266"/>
+      <c r="D81" s="264"/>
       <c r="E81" s="98"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="98"/>
       <c r="C82" s="98"/>
-      <c r="D82" s="266"/>
+      <c r="D82" s="264"/>
       <c r="E82" s="98"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="98"/>
       <c r="C83" s="98"/>
-      <c r="D83" s="266"/>
+      <c r="D83" s="264"/>
       <c r="E83" s="98"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="98"/>
       <c r="C84" s="98"/>
-      <c r="D84" s="266"/>
+      <c r="D84" s="264"/>
       <c r="E84" s="98"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="98"/>
       <c r="C85" s="98"/>
-      <c r="D85" s="266"/>
+      <c r="D85" s="264"/>
       <c r="E85" s="98"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="98"/>
-      <c r="C86" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="D86" s="266">
-        <v>119</v>
-      </c>
       <c r="E86" s="98"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="98"/>
-      <c r="C87" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" s="266">
-        <v>68</v>
-      </c>
       <c r="E87" s="98"/>
     </row>
   </sheetData>

--- a/Pflichtenheft/Organisatorisch/Projektstrukturplan.xlsx
+++ b/Pflichtenheft/Organisatorisch/Projektstrukturplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Daten\GitHub\pro4e\Pflichtenheft\Organisatorisch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\GitHub\pro4e\Pflichtenheft\Organisatorisch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFB9C3-1D67-47F4-AFD3-AD1D587A7B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB97F452-A641-4459-9938-3F00B4806AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30435" yWindow="4755" windowWidth="15660" windowHeight="14580" xr2:uid="{8373446C-4546-4EB0-9D8E-7B57F7AE5753}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8373446C-4546-4EB0-9D8E-7B57F7AE5753}"/>
   </bookViews>
   <sheets>
     <sheet name="Strukturplan" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="103">
   <si>
     <t>Zwischenpräsentation</t>
   </si>
@@ -331,6 +331,18 @@
   </si>
   <si>
     <t>Fertigstellung Layout / Bestellung Bauteile</t>
+  </si>
+  <si>
+    <t>2.3.3 Schnittstellen / Interaktion / Bedienung</t>
+  </si>
+  <si>
+    <t>2.3.4 Auflösung / Ansteuerung der LEDs</t>
+  </si>
+  <si>
+    <t>Meeting 1 (13:05 - 13:50)</t>
+  </si>
+  <si>
+    <t>Meeting 2 (13:05 - 13:50)</t>
   </si>
 </sst>
 </file>
@@ -634,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="80">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -1505,19 +1517,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1677,7 +1676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="378">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2083,15 +2082,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2103,16 +2093,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2144,14 +2134,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2162,7 +2149,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2202,7 +2189,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2215,11 +2202,10 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2232,61 +2218,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2297,7 +2229,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2345,11 +2277,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2374,6 +2306,60 @@
     <xf numFmtId="0" fontId="18" fillId="23" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2722,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EF78CF-0BF4-4991-AC83-ABD1D98215EE}">
-  <dimension ref="B1:Z89"/>
+  <dimension ref="B1:Z90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB72" sqref="AB72"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L91" sqref="L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2740,16 +2726,16 @@
     <row r="1" spans="2:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
-      <c r="M2" s="292" t="s">
+      <c r="M2" s="269" t="s">
         <v>96</v>
       </c>
-      <c r="P2" s="274" t="s">
+      <c r="P2" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="275"/>
-      <c r="R2" s="275"/>
-      <c r="S2" s="275"/>
-      <c r="T2" s="276"/>
+      <c r="Q2" s="356"/>
+      <c r="R2" s="356"/>
+      <c r="S2" s="356"/>
+      <c r="T2" s="357"/>
     </row>
     <row r="3" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2"/>
@@ -2824,10 +2810,10 @@
       <c r="B4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="282" t="s">
+      <c r="C4" s="363" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="283"/>
+      <c r="D4" s="364"/>
       <c r="E4" s="54"/>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
@@ -2854,10 +2840,10 @@
       <c r="B5" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="284">
+      <c r="C5" s="365">
         <v>19.02</v>
       </c>
-      <c r="D5" s="285"/>
+      <c r="D5" s="366"/>
       <c r="E5" s="10"/>
       <c r="F5" s="127"/>
       <c r="G5" s="127"/>
@@ -2884,10 +2870,10 @@
       <c r="B6" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="280">
+      <c r="C6" s="361">
         <v>10.029999999999999</v>
       </c>
-      <c r="D6" s="281"/>
+      <c r="D6" s="362"/>
       <c r="E6" s="132"/>
       <c r="F6" s="133"/>
       <c r="G6" s="133"/>
@@ -2914,10 +2900,10 @@
       <c r="B7" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="280">
+      <c r="C7" s="361">
         <v>24.03</v>
       </c>
-      <c r="D7" s="281"/>
+      <c r="D7" s="362"/>
       <c r="E7" s="132"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
@@ -2942,12 +2928,12 @@
     </row>
     <row r="8" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="280">
-        <v>29.03</v>
-      </c>
-      <c r="D8" s="281"/>
+        <v>101</v>
+      </c>
+      <c r="C8" s="361">
+        <v>24.03</v>
+      </c>
+      <c r="D8" s="362"/>
       <c r="E8" s="132"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
@@ -2972,20 +2958,20 @@
     </row>
     <row r="9" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="280">
-        <v>7.04</v>
-      </c>
-      <c r="D9" s="281"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="361">
+        <v>29.03</v>
+      </c>
+      <c r="D9" s="362"/>
       <c r="E9" s="132"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133"/>
       <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="133"/>
-      <c r="L9" s="7"/>
+      <c r="L9" s="133"/>
       <c r="M9" s="133"/>
       <c r="N9" s="133"/>
       <c r="O9" s="134"/>
@@ -3002,10 +2988,12 @@
     </row>
     <row r="10" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="280"/>
-      <c r="D10" s="281"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="361">
+        <v>7.04</v>
+      </c>
+      <c r="D10" s="362"/>
       <c r="E10" s="132"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
@@ -3013,9 +3001,9 @@
       <c r="I10" s="133"/>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="143"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
       <c r="O10" s="134"/>
       <c r="P10" s="135"/>
       <c r="Q10" s="133"/>
@@ -3030,12 +3018,10 @@
     </row>
     <row r="11" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="280">
-        <v>3.05</v>
-      </c>
-      <c r="D11" s="281"/>
+        <v>98</v>
+      </c>
+      <c r="C11" s="361"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="132"/>
       <c r="F11" s="133"/>
       <c r="G11" s="133"/>
@@ -3043,10 +3029,10 @@
       <c r="I11" s="133"/>
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="17"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="134"/>
       <c r="P11" s="135"/>
       <c r="Q11" s="133"/>
       <c r="R11" s="133"/>
@@ -3060,10 +3046,12 @@
     </row>
     <row r="12" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="280"/>
-      <c r="D12" s="281"/>
+        <v>102</v>
+      </c>
+      <c r="C12" s="361">
+        <v>28.04</v>
+      </c>
+      <c r="D12" s="362"/>
       <c r="E12" s="132"/>
       <c r="F12" s="133"/>
       <c r="G12" s="133"/>
@@ -3071,14 +3059,14 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
-      <c r="L12" s="226"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="227"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="135"/>
       <c r="Q12" s="133"/>
       <c r="R12" s="133"/>
-      <c r="S12" s="7"/>
+      <c r="S12" s="133"/>
       <c r="T12" s="136"/>
       <c r="U12" s="132"/>
       <c r="V12" s="133"/>
@@ -3088,12 +3076,12 @@
     </row>
     <row r="13" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="280">
-        <v>17.05</v>
-      </c>
-      <c r="D13" s="281"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="361">
+        <v>3.05</v>
+      </c>
+      <c r="D13" s="362"/>
       <c r="E13" s="132"/>
       <c r="F13" s="133"/>
       <c r="G13" s="133"/>
@@ -3101,16 +3089,16 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
-      <c r="L13" s="225"/>
+      <c r="L13" s="133"/>
       <c r="M13" s="133"/>
       <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="135"/>
       <c r="Q13" s="133"/>
       <c r="R13" s="133"/>
       <c r="S13" s="133"/>
       <c r="T13" s="136"/>
-      <c r="U13" s="22"/>
+      <c r="U13" s="132"/>
       <c r="V13" s="133"/>
       <c r="W13" s="133"/>
       <c r="X13" s="133"/>
@@ -3118,12 +3106,10 @@
     </row>
     <row r="14" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="280">
-        <v>9.06</v>
-      </c>
-      <c r="D14" s="281"/>
+        <v>94</v>
+      </c>
+      <c r="C14" s="361"/>
+      <c r="D14" s="362"/>
       <c r="E14" s="132"/>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
@@ -3131,29 +3117,29 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
+      <c r="L14" s="222"/>
       <c r="M14" s="133"/>
       <c r="N14" s="133"/>
-      <c r="O14" s="134"/>
+      <c r="O14" s="223"/>
       <c r="P14" s="135"/>
       <c r="Q14" s="133"/>
       <c r="R14" s="133"/>
-      <c r="S14" s="133"/>
+      <c r="S14" s="7"/>
       <c r="T14" s="136"/>
       <c r="U14" s="132"/>
       <c r="V14" s="133"/>
       <c r="W14" s="133"/>
       <c r="X14" s="133"/>
-      <c r="Y14" s="8"/>
+      <c r="Y14" s="137"/>
     </row>
     <row r="15" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="280">
-        <v>9.06</v>
-      </c>
-      <c r="D15" s="281"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="361">
+        <v>17.05</v>
+      </c>
+      <c r="D15" s="362"/>
       <c r="E15" s="132"/>
       <c r="F15" s="133"/>
       <c r="G15" s="133"/>
@@ -3161,465 +3147,453 @@
       <c r="I15" s="133"/>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
+      <c r="L15" s="221"/>
       <c r="M15" s="133"/>
       <c r="N15" s="133"/>
-      <c r="O15" s="134"/>
+      <c r="O15" s="133"/>
       <c r="P15" s="135"/>
       <c r="Q15" s="133"/>
       <c r="R15" s="133"/>
       <c r="S15" s="133"/>
       <c r="T15" s="136"/>
-      <c r="U15" s="132"/>
+      <c r="U15" s="22"/>
       <c r="V15" s="133"/>
       <c r="W15" s="133"/>
       <c r="X15" s="133"/>
-      <c r="Y15" s="8"/>
-    </row>
-    <row r="16" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="114" t="s">
+      <c r="Y15" s="137"/>
+    </row>
+    <row r="16" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="361">
+        <v>9.06</v>
+      </c>
+      <c r="D16" s="362"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="133"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="132"/>
+      <c r="V16" s="133"/>
+      <c r="W16" s="133"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="8"/>
+    </row>
+    <row r="17" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="361">
+        <v>9.06</v>
+      </c>
+      <c r="D17" s="362"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="136"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="133"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="8"/>
+    </row>
+    <row r="18" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="278">
+      <c r="C18" s="359">
         <v>9.06</v>
       </c>
-      <c r="D16" s="279"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="139"/>
-      <c r="T16" s="142"/>
-      <c r="U16" s="138"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="9"/>
-    </row>
-    <row r="17" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="277"/>
-      <c r="C17" s="277"/>
-      <c r="D17" s="6"/>
-      <c r="P17" s="4"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="124" t="s">
+      <c r="D18" s="360"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="142"/>
+      <c r="U18" s="138"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="9"/>
+    </row>
+    <row r="19" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="358"/>
+      <c r="C19" s="358"/>
+      <c r="D19" s="6"/>
+      <c r="P19" s="4"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="27">
-        <f>D19+D22+D23+D24</f>
+      <c r="C20" s="40"/>
+      <c r="D20" s="27">
+        <f>D21+D24+D25+D26</f>
         <v>50</v>
       </c>
-      <c r="E18" s="209"/>
-      <c r="F18" s="210"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="210"/>
-      <c r="K18" s="210"/>
-      <c r="L18" s="210"/>
-      <c r="M18" s="210"/>
-      <c r="N18" s="210"/>
-      <c r="O18" s="211"/>
-      <c r="P18" s="212"/>
-      <c r="Q18" s="210"/>
-      <c r="R18" s="210"/>
-      <c r="S18" s="210"/>
-      <c r="T18" s="213"/>
-      <c r="U18" s="209"/>
-      <c r="V18" s="210"/>
-      <c r="W18" s="210"/>
-      <c r="X18" s="210"/>
-      <c r="Y18" s="214"/>
-    </row>
-    <row r="19" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="115" t="s">
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="207"/>
+      <c r="K20" s="207"/>
+      <c r="L20" s="207"/>
+      <c r="M20" s="207"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="208"/>
+      <c r="P20" s="209"/>
+      <c r="Q20" s="207"/>
+      <c r="R20" s="207"/>
+      <c r="S20" s="207"/>
+      <c r="T20" s="210"/>
+      <c r="U20" s="206"/>
+      <c r="V20" s="207"/>
+      <c r="W20" s="207"/>
+      <c r="X20" s="207"/>
+      <c r="Y20" s="211"/>
+    </row>
+    <row r="21" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="204" t="s">
+      <c r="C21" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="28">
-        <f>SUM(D20:D21)</f>
+      <c r="D21" s="28">
+        <f>SUM(D22:D23)</f>
         <v>16</v>
       </c>
-      <c r="E19" s="144"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="145"/>
-      <c r="R19" s="145"/>
-      <c r="S19" s="145"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="144"/>
-      <c r="V19" s="145"/>
-      <c r="W19" s="145"/>
-      <c r="X19" s="145"/>
-      <c r="Y19" s="149"/>
-    </row>
-    <row r="20" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="113" t="s">
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="147"/>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="145"/>
+      <c r="S21" s="145"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="144"/>
+      <c r="V21" s="145"/>
+      <c r="W21" s="145"/>
+      <c r="X21" s="145"/>
+      <c r="Y21" s="149"/>
+    </row>
+    <row r="22" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D22" s="29">
         <v>12</v>
       </c>
-      <c r="E20" s="150"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="151"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="150"/>
-      <c r="V20" s="151"/>
-      <c r="W20" s="151"/>
-      <c r="X20" s="151"/>
-      <c r="Y20" s="155"/>
-    </row>
-    <row r="21" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="191" t="s">
+      <c r="E22" s="150"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="151"/>
+      <c r="T22" s="154"/>
+      <c r="U22" s="150"/>
+      <c r="V22" s="151"/>
+      <c r="W22" s="151"/>
+      <c r="X22" s="151"/>
+      <c r="Y22" s="155"/>
+    </row>
+    <row r="23" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="205" t="s">
+      <c r="C23" s="202" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="192">
+      <c r="D23" s="189">
         <v>4</v>
       </c>
-      <c r="E21" s="193"/>
-      <c r="F21" s="206"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="194"/>
-      <c r="K21" s="194"/>
-      <c r="L21" s="194"/>
-      <c r="M21" s="194"/>
-      <c r="N21" s="194"/>
-      <c r="O21" s="195"/>
-      <c r="P21" s="196"/>
-      <c r="Q21" s="194"/>
-      <c r="R21" s="194"/>
-      <c r="S21" s="194"/>
-      <c r="T21" s="197"/>
-      <c r="U21" s="193"/>
-      <c r="V21" s="194"/>
-      <c r="W21" s="194"/>
-      <c r="X21" s="194"/>
-      <c r="Y21" s="198"/>
-    </row>
-    <row r="22" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="31">
-        <v>12</v>
-      </c>
-      <c r="E22" s="162"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="187"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="187"/>
-      <c r="M22" s="187"/>
-      <c r="N22" s="187"/>
-      <c r="O22" s="188"/>
-      <c r="P22" s="207"/>
-      <c r="Q22" s="187"/>
-      <c r="R22" s="187"/>
-      <c r="S22" s="187"/>
-      <c r="T22" s="208"/>
-      <c r="U22" s="189"/>
-      <c r="V22" s="187"/>
-      <c r="W22" s="187"/>
-      <c r="X22" s="187"/>
-      <c r="Y22" s="190"/>
-    </row>
-    <row r="23" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="116" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="31">
-        <v>12</v>
-      </c>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="188"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="163"/>
-      <c r="S23" s="163"/>
-      <c r="T23" s="166"/>
-      <c r="U23" s="189"/>
-      <c r="V23" s="163"/>
-      <c r="W23" s="163"/>
-      <c r="X23" s="163"/>
-      <c r="Y23" s="190"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="191"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="192"/>
+      <c r="P23" s="193"/>
+      <c r="Q23" s="191"/>
+      <c r="R23" s="191"/>
+      <c r="S23" s="191"/>
+      <c r="T23" s="194"/>
+      <c r="U23" s="190"/>
+      <c r="V23" s="191"/>
+      <c r="W23" s="191"/>
+      <c r="X23" s="191"/>
+      <c r="Y23" s="195"/>
     </row>
     <row r="24" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="31">
+        <v>12</v>
+      </c>
+      <c r="E24" s="162"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="184"/>
+      <c r="K24" s="184"/>
+      <c r="L24" s="184"/>
+      <c r="M24" s="184"/>
+      <c r="N24" s="184"/>
+      <c r="O24" s="185"/>
+      <c r="P24" s="204"/>
+      <c r="Q24" s="184"/>
+      <c r="R24" s="184"/>
+      <c r="S24" s="184"/>
+      <c r="T24" s="205"/>
+      <c r="U24" s="186"/>
+      <c r="V24" s="184"/>
+      <c r="W24" s="184"/>
+      <c r="X24" s="184"/>
+      <c r="Y24" s="187"/>
+    </row>
+    <row r="25" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="31">
+        <v>12</v>
+      </c>
+      <c r="E25" s="162"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="184"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="185"/>
+      <c r="P25" s="165"/>
+      <c r="Q25" s="163"/>
+      <c r="R25" s="163"/>
+      <c r="S25" s="163"/>
+      <c r="T25" s="166"/>
+      <c r="U25" s="186"/>
+      <c r="V25" s="163"/>
+      <c r="W25" s="163"/>
+      <c r="X25" s="163"/>
+      <c r="Y25" s="187"/>
+    </row>
+    <row r="26" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C26" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D26" s="31">
         <v>10</v>
       </c>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="187"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="164"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="163"/>
-      <c r="S24" s="163"/>
-      <c r="T24" s="166"/>
-      <c r="U24" s="162"/>
-      <c r="V24" s="163"/>
-      <c r="W24" s="163"/>
-      <c r="X24" s="187"/>
-      <c r="Y24" s="167"/>
-    </row>
-    <row r="25" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="277"/>
-      <c r="C25" s="277"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174"/>
-      <c r="L25" s="174"/>
-      <c r="M25" s="174"/>
-      <c r="N25" s="174"/>
-      <c r="O25" s="174"/>
-      <c r="P25" s="175"/>
-      <c r="Q25" s="174"/>
-      <c r="R25" s="174"/>
-      <c r="S25" s="174"/>
-      <c r="T25" s="176"/>
-      <c r="U25" s="174"/>
-      <c r="V25" s="174"/>
-      <c r="W25" s="174"/>
-      <c r="X25" s="174"/>
-      <c r="Y25" s="174"/>
-    </row>
-    <row r="26" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="123" t="s">
+      <c r="E26" s="162"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="184"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="163"/>
+      <c r="R26" s="163"/>
+      <c r="S26" s="163"/>
+      <c r="T26" s="166"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="163"/>
+      <c r="W26" s="163"/>
+      <c r="X26" s="184"/>
+      <c r="Y26" s="167"/>
+    </row>
+    <row r="27" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="358"/>
+      <c r="C27" s="358"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="174"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="174"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="174"/>
+      <c r="R27" s="174"/>
+      <c r="S27" s="174"/>
+      <c r="T27" s="176"/>
+      <c r="U27" s="174"/>
+      <c r="V27" s="174"/>
+      <c r="W27" s="174"/>
+      <c r="X27" s="174"/>
+      <c r="Y27" s="174"/>
+    </row>
+    <row r="28" spans="2:25" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="32">
-        <f>SUM(D27,D35,D42)</f>
+      <c r="C28" s="42"/>
+      <c r="D28" s="32">
+        <f>SUM(D29,D37,D43)</f>
         <v>146</v>
       </c>
-      <c r="E26" s="216"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="169"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="169"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="171"/>
-      <c r="Q26" s="169"/>
-      <c r="R26" s="169"/>
-      <c r="S26" s="169"/>
-      <c r="T26" s="172"/>
-      <c r="U26" s="168"/>
-      <c r="V26" s="169"/>
-      <c r="W26" s="169"/>
-      <c r="X26" s="169"/>
-      <c r="Y26" s="173"/>
-    </row>
-    <row r="27" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="115" t="s">
+      <c r="E28" s="213"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="169"/>
+      <c r="L28" s="169"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="169"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="171"/>
+      <c r="Q28" s="169"/>
+      <c r="R28" s="169"/>
+      <c r="S28" s="169"/>
+      <c r="T28" s="172"/>
+      <c r="U28" s="168"/>
+      <c r="V28" s="169"/>
+      <c r="W28" s="169"/>
+      <c r="X28" s="169"/>
+      <c r="Y28" s="173"/>
+    </row>
+    <row r="29" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="204"/>
-      <c r="D27" s="28">
-        <f>SUM(D28:D34)</f>
+      <c r="C29" s="201"/>
+      <c r="D29" s="28">
+        <f>SUM(D30:D36)</f>
         <v>75</v>
       </c>
-      <c r="E27" s="296"/>
-      <c r="F27" s="297"/>
-      <c r="G27" s="297"/>
-      <c r="H27" s="297"/>
-      <c r="I27" s="297"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="145"/>
-      <c r="O27" s="146"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="145"/>
-      <c r="R27" s="145"/>
-      <c r="S27" s="145"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="145"/>
-      <c r="W27" s="145"/>
-      <c r="X27" s="145"/>
-      <c r="Y27" s="149"/>
-    </row>
-    <row r="28" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="113" t="s">
+      <c r="E29" s="273"/>
+      <c r="F29" s="274"/>
+      <c r="G29" s="274"/>
+      <c r="H29" s="274"/>
+      <c r="I29" s="274"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="147"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="145"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="144"/>
+      <c r="V29" s="145"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="149"/>
+    </row>
+    <row r="30" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C30" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D30" s="29">
         <v>24</v>
       </c>
-      <c r="E28" s="298"/>
-      <c r="F28" s="299">
+      <c r="E30" s="275"/>
+      <c r="F30" s="276">
         <v>6</v>
       </c>
-      <c r="G28" s="299">
+      <c r="G30" s="276">
         <v>6</v>
       </c>
-      <c r="H28" s="299">
+      <c r="H30" s="276">
         <v>6</v>
       </c>
-      <c r="I28" s="299">
+      <c r="I30" s="276">
         <v>6</v>
       </c>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="151"/>
-      <c r="R28" s="151"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="154"/>
-      <c r="U28" s="150"/>
-      <c r="V28" s="151"/>
-      <c r="W28" s="151"/>
-      <c r="X28" s="151"/>
-      <c r="Y28" s="155"/>
-    </row>
-    <row r="29" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="215" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="29">
-        <v>8</v>
-      </c>
-      <c r="E29" s="298"/>
-      <c r="F29" s="299">
-        <v>4</v>
-      </c>
-      <c r="G29" s="299">
-        <v>4</v>
-      </c>
-      <c r="H29" s="300"/>
-      <c r="I29" s="300"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="151"/>
-      <c r="R29" s="151"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="154"/>
-      <c r="U29" s="150"/>
-      <c r="V29" s="151"/>
-      <c r="W29" s="151"/>
-      <c r="X29" s="151"/>
-      <c r="Y29" s="155"/>
-    </row>
-    <row r="30" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="191" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="29">
-        <v>8</v>
-      </c>
-      <c r="E30" s="298"/>
-      <c r="F30" s="299">
-        <v>4</v>
-      </c>
-      <c r="G30" s="299">
-        <v>4</v>
-      </c>
-      <c r="H30" s="300"/>
-      <c r="I30" s="300"/>
       <c r="J30" s="151"/>
       <c r="K30" s="151"/>
       <c r="L30" s="151"/>
@@ -3638,275 +3612,277 @@
       <c r="Y30" s="155"/>
     </row>
     <row r="31" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="212" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="29">
+        <v>8</v>
+      </c>
+      <c r="E31" s="275"/>
+      <c r="F31" s="276">
+        <v>4</v>
+      </c>
+      <c r="G31" s="276">
+        <v>4</v>
+      </c>
+      <c r="H31" s="277"/>
+      <c r="I31" s="277"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="151"/>
+      <c r="R31" s="151"/>
+      <c r="S31" s="151"/>
+      <c r="T31" s="154"/>
+      <c r="U31" s="150"/>
+      <c r="V31" s="151"/>
+      <c r="W31" s="151"/>
+      <c r="X31" s="151"/>
+      <c r="Y31" s="155"/>
+    </row>
+    <row r="32" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="188" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="29">
+        <v>8</v>
+      </c>
+      <c r="E32" s="275"/>
+      <c r="F32" s="276">
+        <v>4</v>
+      </c>
+      <c r="G32" s="276">
+        <v>4</v>
+      </c>
+      <c r="H32" s="277"/>
+      <c r="I32" s="277"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="153"/>
+      <c r="Q32" s="151"/>
+      <c r="R32" s="151"/>
+      <c r="S32" s="151"/>
+      <c r="T32" s="154"/>
+      <c r="U32" s="150"/>
+      <c r="V32" s="151"/>
+      <c r="W32" s="151"/>
+      <c r="X32" s="151"/>
+      <c r="Y32" s="155"/>
+    </row>
+    <row r="33" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="205" t="s">
+      <c r="C33" s="202" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="192">
+      <c r="D33" s="189">
         <v>8</v>
       </c>
-      <c r="E31" s="301"/>
-      <c r="F31" s="302">
+      <c r="E33" s="278"/>
+      <c r="F33" s="279">
         <v>4</v>
       </c>
-      <c r="G31" s="302">
+      <c r="G33" s="279">
         <v>4</v>
       </c>
-      <c r="H31" s="303"/>
-      <c r="I31" s="303"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="194"/>
-      <c r="L31" s="194"/>
-      <c r="M31" s="194"/>
-      <c r="N31" s="194"/>
-      <c r="O31" s="195"/>
-      <c r="P31" s="196"/>
-      <c r="Q31" s="194"/>
-      <c r="R31" s="194"/>
-      <c r="S31" s="194"/>
-      <c r="T31" s="197"/>
-      <c r="U31" s="193"/>
-      <c r="V31" s="194"/>
-      <c r="W31" s="194"/>
-      <c r="X31" s="194"/>
-      <c r="Y31" s="198"/>
-    </row>
-    <row r="32" spans="2:25" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="199" t="s">
+      <c r="H33" s="280"/>
+      <c r="I33" s="280"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="191"/>
+      <c r="N33" s="191"/>
+      <c r="O33" s="192"/>
+      <c r="P33" s="193"/>
+      <c r="Q33" s="191"/>
+      <c r="R33" s="191"/>
+      <c r="S33" s="191"/>
+      <c r="T33" s="194"/>
+      <c r="U33" s="190"/>
+      <c r="V33" s="191"/>
+      <c r="W33" s="191"/>
+      <c r="X33" s="191"/>
+      <c r="Y33" s="195"/>
+    </row>
+    <row r="34" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="196" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="205" t="s">
+      <c r="C34" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="192">
+      <c r="D34" s="189">
         <v>6</v>
       </c>
-      <c r="E32" s="301"/>
-      <c r="F32" s="302">
+      <c r="E34" s="278"/>
+      <c r="F34" s="279">
         <v>3</v>
       </c>
-      <c r="G32" s="302">
+      <c r="G34" s="279">
         <v>3</v>
       </c>
-      <c r="H32" s="303"/>
-      <c r="I32" s="303"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="194"/>
-      <c r="L32" s="194"/>
-      <c r="M32" s="194"/>
-      <c r="N32" s="194"/>
-      <c r="O32" s="195"/>
-      <c r="P32" s="196"/>
-      <c r="Q32" s="194"/>
-      <c r="R32" s="194"/>
-      <c r="S32" s="194"/>
-      <c r="T32" s="197"/>
-      <c r="U32" s="193"/>
-      <c r="V32" s="194"/>
-      <c r="W32" s="194"/>
-      <c r="X32" s="194"/>
-      <c r="Y32" s="198"/>
-    </row>
-    <row r="33" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="200" t="s">
+      <c r="H34" s="280"/>
+      <c r="I34" s="280"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="191"/>
+      <c r="M34" s="191"/>
+      <c r="N34" s="191"/>
+      <c r="O34" s="192"/>
+      <c r="P34" s="193"/>
+      <c r="Q34" s="191"/>
+      <c r="R34" s="191"/>
+      <c r="S34" s="191"/>
+      <c r="T34" s="194"/>
+      <c r="U34" s="190"/>
+      <c r="V34" s="191"/>
+      <c r="W34" s="191"/>
+      <c r="X34" s="191"/>
+      <c r="Y34" s="195"/>
+    </row>
+    <row r="35" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="197" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="205" t="s">
+      <c r="C35" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="192">
+      <c r="D35" s="189">
         <v>9</v>
       </c>
-      <c r="E33" s="301"/>
-      <c r="F33" s="303"/>
-      <c r="G33" s="302">
+      <c r="E35" s="278"/>
+      <c r="F35" s="280"/>
+      <c r="G35" s="279">
         <v>3</v>
       </c>
-      <c r="H33" s="302">
+      <c r="H35" s="279">
         <v>3</v>
       </c>
-      <c r="I33" s="302">
+      <c r="I35" s="279">
         <v>3</v>
       </c>
-      <c r="J33" s="194"/>
-      <c r="K33" s="194"/>
-      <c r="L33" s="194"/>
-      <c r="M33" s="194"/>
-      <c r="N33" s="194"/>
-      <c r="O33" s="195"/>
-      <c r="P33" s="196"/>
-      <c r="Q33" s="194"/>
-      <c r="R33" s="194"/>
-      <c r="S33" s="194"/>
-      <c r="T33" s="197"/>
-      <c r="U33" s="193"/>
-      <c r="V33" s="194"/>
-      <c r="W33" s="194"/>
-      <c r="X33" s="194"/>
-      <c r="Y33" s="198"/>
-    </row>
-    <row r="34" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="200" t="s">
+      <c r="J35" s="191"/>
+      <c r="K35" s="191"/>
+      <c r="L35" s="191"/>
+      <c r="M35" s="191"/>
+      <c r="N35" s="191"/>
+      <c r="O35" s="192"/>
+      <c r="P35" s="193"/>
+      <c r="Q35" s="191"/>
+      <c r="R35" s="191"/>
+      <c r="S35" s="191"/>
+      <c r="T35" s="194"/>
+      <c r="U35" s="190"/>
+      <c r="V35" s="191"/>
+      <c r="W35" s="191"/>
+      <c r="X35" s="191"/>
+      <c r="Y35" s="195"/>
+    </row>
+    <row r="36" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="30">
+      <c r="C36" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="30">
         <v>12</v>
       </c>
-      <c r="E34" s="304"/>
-      <c r="F34" s="305"/>
-      <c r="G34" s="306">
+      <c r="E36" s="281"/>
+      <c r="F36" s="282"/>
+      <c r="G36" s="283">
         <v>4</v>
       </c>
-      <c r="H34" s="306">
+      <c r="H36" s="283">
         <v>4</v>
       </c>
-      <c r="I34" s="306">
+      <c r="I36" s="283">
         <v>4</v>
       </c>
-      <c r="J34" s="157"/>
-      <c r="K34" s="157"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="157"/>
-      <c r="O34" s="158"/>
-      <c r="P34" s="159"/>
-      <c r="Q34" s="157"/>
-      <c r="R34" s="157"/>
-      <c r="S34" s="157"/>
-      <c r="T34" s="160"/>
-      <c r="U34" s="156"/>
-      <c r="V34" s="157"/>
-      <c r="W34" s="157"/>
-      <c r="X34" s="157"/>
-      <c r="Y34" s="161"/>
-    </row>
-    <row r="35" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="115" t="s">
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="158"/>
+      <c r="P36" s="159"/>
+      <c r="Q36" s="157"/>
+      <c r="R36" s="157"/>
+      <c r="S36" s="157"/>
+      <c r="T36" s="160"/>
+      <c r="U36" s="156"/>
+      <c r="V36" s="157"/>
+      <c r="W36" s="157"/>
+      <c r="X36" s="157"/>
+      <c r="Y36" s="161"/>
+    </row>
+    <row r="37" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="204"/>
-      <c r="D35" s="28">
-        <f>SUM(D36:D41)</f>
+      <c r="C37" s="201"/>
+      <c r="D37" s="28">
+        <f>SUM(D38:D42)</f>
         <v>37</v>
       </c>
-      <c r="E35" s="296"/>
-      <c r="F35" s="307"/>
-      <c r="G35" s="307"/>
-      <c r="H35" s="307"/>
-      <c r="I35" s="307"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="O35" s="146"/>
-      <c r="P35" s="147"/>
-      <c r="Q35" s="145"/>
-      <c r="R35" s="145"/>
-      <c r="S35" s="145"/>
-      <c r="T35" s="148"/>
-      <c r="U35" s="144"/>
-      <c r="V35" s="145"/>
-      <c r="W35" s="145"/>
-      <c r="X35" s="145"/>
-      <c r="Y35" s="149"/>
-    </row>
-    <row r="36" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="29">
-        <v>12</v>
-      </c>
-      <c r="E36" s="298"/>
-      <c r="F36" s="299">
-        <v>4</v>
-      </c>
-      <c r="G36" s="299">
-        <v>4</v>
-      </c>
-      <c r="H36" s="299">
-        <v>4</v>
-      </c>
-      <c r="I36" s="300"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="152"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="151"/>
-      <c r="R36" s="151"/>
-      <c r="S36" s="151"/>
-      <c r="T36" s="154"/>
-      <c r="U36" s="150"/>
-      <c r="V36" s="151"/>
-      <c r="W36" s="151"/>
-      <c r="X36" s="151"/>
-      <c r="Y36" s="155"/>
-    </row>
-    <row r="37" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="29">
-        <v>6</v>
-      </c>
-      <c r="E37" s="298"/>
-      <c r="F37" s="300"/>
-      <c r="G37" s="299">
-        <v>2</v>
-      </c>
-      <c r="H37" s="299">
-        <v>2</v>
-      </c>
-      <c r="I37" s="299">
-        <v>2</v>
-      </c>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="152"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="151"/>
-      <c r="R37" s="151"/>
-      <c r="S37" s="151"/>
-      <c r="T37" s="154"/>
-      <c r="U37" s="150"/>
-      <c r="V37" s="151"/>
-      <c r="W37" s="151"/>
-      <c r="X37" s="151"/>
-      <c r="Y37" s="155"/>
+      <c r="E37" s="273"/>
+      <c r="F37" s="284"/>
+      <c r="G37" s="284"/>
+      <c r="H37" s="284"/>
+      <c r="I37" s="284"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="145"/>
+      <c r="L37" s="145"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="145"/>
+      <c r="O37" s="146"/>
+      <c r="P37" s="147"/>
+      <c r="Q37" s="145"/>
+      <c r="R37" s="145"/>
+      <c r="S37" s="145"/>
+      <c r="T37" s="148"/>
+      <c r="U37" s="144"/>
+      <c r="V37" s="145"/>
+      <c r="W37" s="145"/>
+      <c r="X37" s="145"/>
+      <c r="Y37" s="149"/>
     </row>
     <row r="38" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="113" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D38" s="29">
-        <v>9</v>
-      </c>
-      <c r="E38" s="298"/>
-      <c r="F38" s="299">
-        <v>3</v>
-      </c>
-      <c r="G38" s="299">
-        <v>3</v>
-      </c>
-      <c r="H38" s="299">
-        <v>3</v>
-      </c>
-      <c r="I38" s="300"/>
+        <v>12</v>
+      </c>
+      <c r="E38" s="275"/>
+      <c r="F38" s="276">
+        <v>4</v>
+      </c>
+      <c r="G38" s="276">
+        <v>4</v>
+      </c>
+      <c r="H38" s="276">
+        <v>4</v>
+      </c>
+      <c r="I38" s="277"/>
       <c r="J38" s="151"/>
       <c r="K38" s="151"/>
       <c r="L38" s="151"/>
@@ -3926,23 +3902,23 @@
     </row>
     <row r="39" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="113" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D39" s="29">
         <v>6</v>
       </c>
-      <c r="E39" s="301"/>
-      <c r="F39" s="303"/>
-      <c r="G39" s="302">
+      <c r="E39" s="275"/>
+      <c r="F39" s="277"/>
+      <c r="G39" s="276">
         <v>2</v>
       </c>
-      <c r="H39" s="302">
+      <c r="H39" s="276">
         <v>2</v>
       </c>
-      <c r="I39" s="302">
+      <c r="I39" s="276">
         <v>2</v>
       </c>
       <c r="J39" s="151"/>
@@ -3964,19 +3940,25 @@
     </row>
     <row r="40" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="38"/>
+        <v>54</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D40" s="29">
-        <v>4</v>
-      </c>
-      <c r="E40" s="301"/>
-      <c r="F40" s="303"/>
-      <c r="G40" s="303"/>
-      <c r="H40" s="303"/>
-      <c r="I40" s="302">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E40" s="275"/>
+      <c r="F40" s="276">
+        <v>3</v>
+      </c>
+      <c r="G40" s="276">
+        <v>3</v>
+      </c>
+      <c r="H40" s="276">
+        <v>3</v>
+      </c>
+      <c r="I40" s="277"/>
       <c r="J40" s="151"/>
       <c r="K40" s="151"/>
       <c r="L40" s="151"/>
@@ -3994,15 +3976,27 @@
       <c r="X40" s="151"/>
       <c r="Y40" s="155"/>
     </row>
-    <row r="41" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="113"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="308"/>
-      <c r="F41" s="309"/>
-      <c r="G41" s="309"/>
-      <c r="H41" s="309"/>
-      <c r="I41" s="309"/>
+    <row r="41" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="29">
+        <v>6</v>
+      </c>
+      <c r="E41" s="278"/>
+      <c r="F41" s="280"/>
+      <c r="G41" s="279">
+        <v>2</v>
+      </c>
+      <c r="H41" s="279">
+        <v>2</v>
+      </c>
+      <c r="I41" s="279">
+        <v>2</v>
+      </c>
       <c r="J41" s="151"/>
       <c r="K41" s="151"/>
       <c r="L41" s="151"/>
@@ -4020,124 +4014,126 @@
       <c r="X41" s="151"/>
       <c r="Y41" s="155"/>
     </row>
-    <row r="42" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="115" t="s">
+    <row r="42" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="29">
+        <v>4</v>
+      </c>
+      <c r="E42" s="285"/>
+      <c r="F42" s="286"/>
+      <c r="G42" s="286"/>
+      <c r="H42" s="286"/>
+      <c r="I42" s="283">
+        <v>4</v>
+      </c>
+      <c r="J42" s="151"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="151"/>
+      <c r="O42" s="152"/>
+      <c r="P42" s="153"/>
+      <c r="Q42" s="151"/>
+      <c r="R42" s="151"/>
+      <c r="S42" s="151"/>
+      <c r="T42" s="154"/>
+      <c r="U42" s="150"/>
+      <c r="V42" s="151"/>
+      <c r="W42" s="151"/>
+      <c r="X42" s="151"/>
+      <c r="Y42" s="155"/>
+    </row>
+    <row r="43" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="204"/>
-      <c r="D42" s="28">
-        <f>SUM(D43:D49)</f>
+      <c r="C43" s="201"/>
+      <c r="D43" s="28">
+        <f>SUM(D44:D50)</f>
         <v>34</v>
       </c>
-      <c r="E42" s="310"/>
-      <c r="F42" s="311"/>
-      <c r="G42" s="311"/>
-      <c r="H42" s="311"/>
-      <c r="I42" s="311"/>
-      <c r="J42" s="145"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="145"/>
-      <c r="M42" s="145"/>
-      <c r="N42" s="145"/>
-      <c r="O42" s="146"/>
-      <c r="P42" s="147"/>
-      <c r="Q42" s="145"/>
-      <c r="R42" s="145"/>
-      <c r="S42" s="145"/>
-      <c r="T42" s="148"/>
-      <c r="U42" s="144"/>
-      <c r="V42" s="145"/>
-      <c r="W42" s="145"/>
-      <c r="X42" s="145"/>
-      <c r="Y42" s="149"/>
-    </row>
-    <row r="43" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="113" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="36">
-        <v>4</v>
-      </c>
-      <c r="E43" s="310"/>
-      <c r="F43" s="311"/>
-      <c r="G43" s="312">
-        <v>2</v>
-      </c>
-      <c r="H43" s="312">
-        <v>2</v>
-      </c>
-      <c r="I43" s="311"/>
-      <c r="J43" s="178"/>
-      <c r="K43" s="178"/>
-      <c r="L43" s="178"/>
-      <c r="M43" s="178"/>
-      <c r="N43" s="178"/>
-      <c r="O43" s="179"/>
-      <c r="P43" s="180"/>
-      <c r="Q43" s="178"/>
-      <c r="R43" s="178"/>
-      <c r="S43" s="178"/>
-      <c r="T43" s="181"/>
-      <c r="U43" s="177"/>
-      <c r="V43" s="178"/>
-      <c r="W43" s="178"/>
-      <c r="X43" s="178"/>
-      <c r="Y43" s="182"/>
+      <c r="E43" s="287"/>
+      <c r="F43" s="288"/>
+      <c r="G43" s="288"/>
+      <c r="H43" s="288"/>
+      <c r="I43" s="288"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="145"/>
+      <c r="M43" s="145"/>
+      <c r="N43" s="145"/>
+      <c r="O43" s="146"/>
+      <c r="P43" s="147"/>
+      <c r="Q43" s="145"/>
+      <c r="R43" s="145"/>
+      <c r="S43" s="145"/>
+      <c r="T43" s="148"/>
+      <c r="U43" s="144"/>
+      <c r="V43" s="145"/>
+      <c r="W43" s="145"/>
+      <c r="X43" s="145"/>
+      <c r="Y43" s="149"/>
     </row>
     <row r="44" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="29">
+        <v>67</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="36">
         <v>4</v>
       </c>
-      <c r="E44" s="313"/>
-      <c r="F44" s="300"/>
-      <c r="G44" s="299">
+      <c r="E44" s="287"/>
+      <c r="F44" s="288"/>
+      <c r="G44" s="289">
         <v>2</v>
       </c>
-      <c r="H44" s="299">
+      <c r="H44" s="289">
         <v>2</v>
       </c>
-      <c r="I44" s="300"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="151"/>
-      <c r="M44" s="151"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="152"/>
-      <c r="P44" s="153"/>
-      <c r="Q44" s="151"/>
-      <c r="R44" s="151"/>
-      <c r="S44" s="151"/>
-      <c r="T44" s="154"/>
-      <c r="U44" s="150"/>
-      <c r="V44" s="151"/>
-      <c r="W44" s="151"/>
-      <c r="X44" s="151"/>
-      <c r="Y44" s="155"/>
+      <c r="I44" s="288"/>
+      <c r="J44" s="178"/>
+      <c r="K44" s="178"/>
+      <c r="L44" s="178"/>
+      <c r="M44" s="178"/>
+      <c r="N44" s="178"/>
+      <c r="O44" s="179"/>
+      <c r="P44" s="180"/>
+      <c r="Q44" s="178"/>
+      <c r="R44" s="178"/>
+      <c r="S44" s="178"/>
+      <c r="T44" s="181"/>
+      <c r="U44" s="177"/>
+      <c r="V44" s="178"/>
+      <c r="W44" s="178"/>
+      <c r="X44" s="178"/>
+      <c r="Y44" s="182"/>
     </row>
     <row r="45" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="38"/>
+        <v>68</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="D45" s="29">
         <v>4</v>
       </c>
-      <c r="E45" s="313"/>
-      <c r="F45" s="300"/>
-      <c r="G45" s="299">
+      <c r="E45" s="290"/>
+      <c r="F45" s="277"/>
+      <c r="G45" s="276">
         <v>2</v>
       </c>
-      <c r="H45" s="299">
+      <c r="H45" s="276">
         <v>2</v>
       </c>
-      <c r="I45" s="300"/>
+      <c r="I45" s="277"/>
       <c r="J45" s="151"/>
       <c r="K45" s="151"/>
       <c r="L45" s="151"/>
@@ -4157,23 +4153,23 @@
     </row>
     <row r="46" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="38"/>
+        <v>99</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="D46" s="29">
-        <v>6</v>
-      </c>
-      <c r="E46" s="313"/>
-      <c r="F46" s="300"/>
-      <c r="G46" s="299">
+        <v>4</v>
+      </c>
+      <c r="E46" s="290"/>
+      <c r="F46" s="277"/>
+      <c r="G46" s="276">
         <v>2</v>
       </c>
-      <c r="H46" s="299">
+      <c r="H46" s="276">
         <v>2</v>
       </c>
-      <c r="I46" s="299">
-        <v>2</v>
-      </c>
+      <c r="I46" s="277"/>
       <c r="J46" s="151"/>
       <c r="K46" s="151"/>
       <c r="L46" s="151"/>
@@ -4190,25 +4186,26 @@
       <c r="W46" s="151"/>
       <c r="X46" s="151"/>
       <c r="Y46" s="155"/>
-      <c r="Z46" s="273"/>
     </row>
     <row r="47" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="38"/>
+        <v>100</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="D47" s="29">
         <v>6</v>
       </c>
-      <c r="E47" s="298"/>
-      <c r="F47" s="300"/>
-      <c r="G47" s="299">
+      <c r="E47" s="290"/>
+      <c r="F47" s="277"/>
+      <c r="G47" s="276">
         <v>2</v>
       </c>
-      <c r="H47" s="299">
+      <c r="H47" s="276">
         <v>2</v>
       </c>
-      <c r="I47" s="299">
+      <c r="I47" s="276">
         <v>2</v>
       </c>
       <c r="J47" s="151"/>
@@ -4227,25 +4224,27 @@
       <c r="W47" s="151"/>
       <c r="X47" s="151"/>
       <c r="Y47" s="155"/>
-      <c r="Z47" s="273"/>
+      <c r="Z47" s="268"/>
     </row>
     <row r="48" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="38"/>
+        <v>71</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="D48" s="29">
         <v>6</v>
       </c>
-      <c r="E48" s="298"/>
-      <c r="F48" s="300"/>
-      <c r="G48" s="299">
+      <c r="E48" s="275"/>
+      <c r="F48" s="277"/>
+      <c r="G48" s="276">
         <v>2</v>
       </c>
-      <c r="H48" s="299">
+      <c r="H48" s="276">
         <v>2</v>
       </c>
-      <c r="I48" s="299">
+      <c r="I48" s="276">
         <v>2</v>
       </c>
       <c r="J48" s="151"/>
@@ -4264,244 +4263,251 @@
       <c r="W48" s="151"/>
       <c r="X48" s="151"/>
       <c r="Y48" s="155"/>
-      <c r="Z48" s="273"/>
-    </row>
-    <row r="49" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="114" t="s">
+      <c r="Z48" s="268"/>
+    </row>
+    <row r="49" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="29">
+        <v>6</v>
+      </c>
+      <c r="E49" s="275"/>
+      <c r="F49" s="277"/>
+      <c r="G49" s="276">
+        <v>2</v>
+      </c>
+      <c r="H49" s="276">
+        <v>2</v>
+      </c>
+      <c r="I49" s="276">
+        <v>2</v>
+      </c>
+      <c r="J49" s="151"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="151"/>
+      <c r="N49" s="151"/>
+      <c r="O49" s="152"/>
+      <c r="P49" s="153"/>
+      <c r="Q49" s="151"/>
+      <c r="R49" s="151"/>
+      <c r="S49" s="151"/>
+      <c r="T49" s="154"/>
+      <c r="U49" s="150"/>
+      <c r="V49" s="151"/>
+      <c r="W49" s="151"/>
+      <c r="X49" s="151"/>
+      <c r="Y49" s="155"/>
+      <c r="Z49" s="268"/>
+    </row>
+    <row r="50" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="30">
+      <c r="C50" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="30">
         <v>4</v>
       </c>
-      <c r="E49" s="304"/>
-      <c r="F49" s="309"/>
-      <c r="G49" s="314"/>
-      <c r="H49" s="306">
+      <c r="E50" s="281"/>
+      <c r="F50" s="286"/>
+      <c r="G50" s="291"/>
+      <c r="H50" s="283">
         <v>2</v>
       </c>
-      <c r="I49" s="306">
+      <c r="I50" s="283">
         <v>2</v>
       </c>
-      <c r="J49" s="157"/>
-      <c r="K49" s="157"/>
-      <c r="L49" s="157"/>
-      <c r="M49" s="157"/>
-      <c r="N49" s="157"/>
-      <c r="O49" s="158"/>
-      <c r="P49" s="159"/>
-      <c r="Q49" s="157"/>
-      <c r="R49" s="157"/>
-      <c r="S49" s="157"/>
-      <c r="T49" s="160"/>
-      <c r="U49" s="156"/>
-      <c r="V49" s="157"/>
-      <c r="W49" s="157"/>
-      <c r="X49" s="157"/>
-      <c r="Y49" s="161"/>
-    </row>
-    <row r="50" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="P50" s="218"/>
-      <c r="Q50" s="219"/>
-      <c r="R50" s="219"/>
-      <c r="S50" s="219"/>
-      <c r="T50" s="220"/>
+      <c r="J50" s="157"/>
+      <c r="K50" s="157"/>
+      <c r="L50" s="157"/>
+      <c r="M50" s="157"/>
+      <c r="N50" s="157"/>
+      <c r="O50" s="158"/>
+      <c r="P50" s="159"/>
+      <c r="Q50" s="157"/>
+      <c r="R50" s="157"/>
+      <c r="S50" s="157"/>
+      <c r="T50" s="160"/>
+      <c r="U50" s="156"/>
+      <c r="V50" s="157"/>
+      <c r="W50" s="157"/>
+      <c r="X50" s="157"/>
+      <c r="Y50" s="161"/>
     </row>
     <row r="51" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="277"/>
-      <c r="C51" s="277"/>
-      <c r="D51" s="48" t="s">
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="P51" s="215"/>
+      <c r="Q51" s="216"/>
+      <c r="R51" s="216"/>
+      <c r="S51" s="216"/>
+      <c r="T51" s="217"/>
+    </row>
+    <row r="52" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="358"/>
+      <c r="C52" s="358"/>
+      <c r="D52" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="41">
+      <c r="E52" s="41">
         <v>8</v>
       </c>
-      <c r="F51" s="49">
+      <c r="F52" s="49">
         <v>9</v>
       </c>
-      <c r="G51" s="49">
+      <c r="G52" s="49">
         <v>10</v>
       </c>
-      <c r="H51" s="49">
+      <c r="H52" s="49">
         <v>11</v>
       </c>
-      <c r="I51" s="49">
+      <c r="I52" s="49">
         <v>12</v>
       </c>
-      <c r="J51" s="49">
+      <c r="J52" s="49">
         <v>13</v>
       </c>
-      <c r="K51" s="49">
+      <c r="K52" s="49">
         <v>14</v>
       </c>
-      <c r="L51" s="49">
+      <c r="L52" s="49">
         <v>15</v>
       </c>
-      <c r="M51" s="49">
+      <c r="M52" s="49">
         <v>16</v>
       </c>
-      <c r="N51" s="49">
+      <c r="N52" s="49">
         <v>17</v>
       </c>
-      <c r="O51" s="50">
+      <c r="O52" s="50">
         <v>18</v>
       </c>
-      <c r="P51" s="51" t="s">
+      <c r="P52" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="Q51" s="49" t="s">
+      <c r="Q52" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R51" s="49" t="s">
+      <c r="R52" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="S51" s="49" t="s">
+      <c r="S52" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="T51" s="52" t="s">
+      <c r="T52" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="U51" s="53">
+      <c r="U52" s="53">
         <v>20</v>
       </c>
-      <c r="V51" s="49">
+      <c r="V52" s="49">
         <v>21</v>
       </c>
-      <c r="W51" s="49">
+      <c r="W52" s="49">
         <v>22</v>
       </c>
-      <c r="X51" s="49">
+      <c r="X52" s="49">
         <v>23</v>
       </c>
-      <c r="Y51" s="31">
+      <c r="Y52" s="31">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="122" t="s">
+    <row r="53" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="33">
-        <f>SUM(D53,D60)</f>
+      <c r="C53" s="43"/>
+      <c r="D53" s="33">
+        <f>SUM(D54,D61)</f>
         <v>256</v>
       </c>
-      <c r="E52" s="168"/>
-      <c r="F52" s="169"/>
-      <c r="G52" s="169"/>
-      <c r="H52" s="222"/>
-      <c r="I52" s="222"/>
-      <c r="J52" s="222"/>
-      <c r="K52" s="222"/>
-      <c r="L52" s="222"/>
-      <c r="M52" s="222"/>
-      <c r="N52" s="222"/>
-      <c r="O52" s="234"/>
-      <c r="P52" s="171"/>
-      <c r="Q52" s="169"/>
-      <c r="R52" s="169"/>
-      <c r="S52" s="169"/>
-      <c r="T52" s="172"/>
-      <c r="U52" s="168"/>
-      <c r="V52" s="169"/>
-      <c r="W52" s="169"/>
-      <c r="X52" s="169"/>
-      <c r="Y52" s="173"/>
-    </row>
-    <row r="53" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="115" t="s">
+      <c r="E53" s="168"/>
+      <c r="F53" s="169"/>
+      <c r="G53" s="169"/>
+      <c r="H53" s="219"/>
+      <c r="I53" s="219"/>
+      <c r="J53" s="219"/>
+      <c r="K53" s="219"/>
+      <c r="L53" s="219"/>
+      <c r="M53" s="219"/>
+      <c r="N53" s="219"/>
+      <c r="O53" s="230"/>
+      <c r="P53" s="171"/>
+      <c r="Q53" s="169"/>
+      <c r="R53" s="169"/>
+      <c r="S53" s="169"/>
+      <c r="T53" s="172"/>
+      <c r="U53" s="168"/>
+      <c r="V53" s="169"/>
+      <c r="W53" s="169"/>
+      <c r="X53" s="169"/>
+      <c r="Y53" s="173"/>
+    </row>
+    <row r="54" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="183"/>
-      <c r="D53" s="28">
-        <f>SUM(D54:D59)</f>
+      <c r="C54" s="201"/>
+      <c r="D54" s="28">
+        <f>SUM(D55:D60)</f>
         <v>190</v>
       </c>
-      <c r="E53" s="144"/>
-      <c r="F53" s="145"/>
-      <c r="G53" s="145"/>
-      <c r="H53" s="315"/>
-      <c r="I53" s="316"/>
-      <c r="J53" s="315"/>
-      <c r="K53" s="315"/>
-      <c r="L53" s="315"/>
-      <c r="M53" s="315"/>
-      <c r="N53" s="315"/>
-      <c r="O53" s="317"/>
-      <c r="P53" s="147"/>
-      <c r="Q53" s="145"/>
-      <c r="R53" s="145"/>
-      <c r="S53" s="145"/>
-      <c r="T53" s="148"/>
-      <c r="U53" s="144"/>
-      <c r="V53" s="145"/>
-      <c r="W53" s="145"/>
-      <c r="X53" s="145"/>
-      <c r="Y53" s="149"/>
-    </row>
-    <row r="54" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="184"/>
-      <c r="D54" s="29">
-        <v>24</v>
-      </c>
-      <c r="E54" s="150"/>
-      <c r="F54" s="151"/>
-      <c r="G54" s="151"/>
-      <c r="H54" s="318">
-        <v>8</v>
-      </c>
-      <c r="I54" s="318">
-        <v>8</v>
-      </c>
-      <c r="J54" s="318">
-        <v>8</v>
-      </c>
-      <c r="K54" s="319"/>
-      <c r="L54" s="319"/>
-      <c r="M54" s="320"/>
-      <c r="N54" s="320"/>
-      <c r="O54" s="321"/>
-      <c r="P54" s="153"/>
-      <c r="Q54" s="151"/>
-      <c r="R54" s="151"/>
-      <c r="S54" s="151"/>
-      <c r="T54" s="154"/>
-      <c r="U54" s="150"/>
-      <c r="V54" s="151"/>
-      <c r="W54" s="151"/>
-      <c r="X54" s="151"/>
-      <c r="Y54" s="155"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="292"/>
+      <c r="I54" s="293"/>
+      <c r="J54" s="292"/>
+      <c r="K54" s="292"/>
+      <c r="L54" s="292"/>
+      <c r="M54" s="292"/>
+      <c r="N54" s="292"/>
+      <c r="O54" s="294"/>
+      <c r="P54" s="147"/>
+      <c r="Q54" s="145"/>
+      <c r="R54" s="145"/>
+      <c r="S54" s="145"/>
+      <c r="T54" s="148"/>
+      <c r="U54" s="144"/>
+      <c r="V54" s="145"/>
+      <c r="W54" s="145"/>
+      <c r="X54" s="145"/>
+      <c r="Y54" s="149"/>
     </row>
     <row r="55" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="184"/>
+        <v>74</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="D55" s="29">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E55" s="150"/>
       <c r="F55" s="151"/>
       <c r="G55" s="151"/>
-      <c r="H55" s="318">
-        <v>12</v>
-      </c>
-      <c r="I55" s="318">
-        <v>12</v>
-      </c>
-      <c r="J55" s="318">
-        <v>12</v>
-      </c>
-      <c r="K55" s="319"/>
-      <c r="L55" s="319"/>
-      <c r="M55" s="320"/>
-      <c r="N55" s="320"/>
-      <c r="O55" s="321"/>
+      <c r="H55" s="295">
+        <v>8</v>
+      </c>
+      <c r="I55" s="295">
+        <v>8</v>
+      </c>
+      <c r="J55" s="295">
+        <v>8</v>
+      </c>
+      <c r="K55" s="296"/>
+      <c r="L55" s="296"/>
+      <c r="M55" s="297"/>
+      <c r="N55" s="297"/>
+      <c r="O55" s="298"/>
       <c r="P55" s="153"/>
       <c r="Q55" s="151"/>
       <c r="R55" s="151"/>
@@ -4514,448 +4520,466 @@
       <c r="Y55" s="155"/>
     </row>
     <row r="56" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="191" t="s">
+      <c r="B56" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="29">
+        <v>36</v>
+      </c>
+      <c r="E56" s="150"/>
+      <c r="F56" s="151"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="295">
+        <v>12</v>
+      </c>
+      <c r="I56" s="295">
+        <v>12</v>
+      </c>
+      <c r="J56" s="295">
+        <v>12</v>
+      </c>
+      <c r="K56" s="296"/>
+      <c r="L56" s="296"/>
+      <c r="M56" s="297"/>
+      <c r="N56" s="297"/>
+      <c r="O56" s="298"/>
+      <c r="P56" s="153"/>
+      <c r="Q56" s="151"/>
+      <c r="R56" s="151"/>
+      <c r="S56" s="151"/>
+      <c r="T56" s="154"/>
+      <c r="U56" s="150"/>
+      <c r="V56" s="151"/>
+      <c r="W56" s="151"/>
+      <c r="X56" s="151"/>
+      <c r="Y56" s="155"/>
+    </row>
+    <row r="57" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="188" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="223"/>
-      <c r="D56" s="192">
+      <c r="C57" s="202" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="189">
         <v>18</v>
       </c>
-      <c r="E56" s="193"/>
-      <c r="F56" s="194"/>
-      <c r="G56" s="194"/>
-      <c r="H56" s="322">
+      <c r="E57" s="190"/>
+      <c r="F57" s="191"/>
+      <c r="G57" s="191"/>
+      <c r="H57" s="299">
         <v>9</v>
       </c>
-      <c r="I56" s="322">
+      <c r="I57" s="299">
         <v>9</v>
       </c>
-      <c r="J56" s="319"/>
-      <c r="K56" s="319"/>
-      <c r="L56" s="320"/>
-      <c r="M56" s="320"/>
-      <c r="N56" s="320"/>
-      <c r="O56" s="321"/>
-      <c r="P56" s="196"/>
-      <c r="Q56" s="194"/>
-      <c r="R56" s="194"/>
-      <c r="S56" s="194"/>
-      <c r="T56" s="197"/>
-      <c r="U56" s="193"/>
-      <c r="V56" s="194"/>
-      <c r="W56" s="194"/>
-      <c r="X56" s="194"/>
-      <c r="Y56" s="198"/>
-    </row>
-    <row r="57" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="228" t="s">
+      <c r="J57" s="296"/>
+      <c r="K57" s="296"/>
+      <c r="L57" s="297"/>
+      <c r="M57" s="297"/>
+      <c r="N57" s="297"/>
+      <c r="O57" s="298"/>
+      <c r="P57" s="193"/>
+      <c r="Q57" s="191"/>
+      <c r="R57" s="191"/>
+      <c r="S57" s="191"/>
+      <c r="T57" s="194"/>
+      <c r="U57" s="190"/>
+      <c r="V57" s="191"/>
+      <c r="W57" s="191"/>
+      <c r="X57" s="191"/>
+      <c r="Y57" s="195"/>
+    </row>
+    <row r="58" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="224" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="223"/>
-      <c r="D57" s="192">
+      <c r="C58" s="202" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="189">
         <v>16</v>
       </c>
-      <c r="E57" s="193"/>
-      <c r="F57" s="194"/>
-      <c r="G57" s="194"/>
-      <c r="H57" s="322">
+      <c r="E58" s="190"/>
+      <c r="F58" s="191"/>
+      <c r="G58" s="191"/>
+      <c r="H58" s="299">
         <v>8</v>
       </c>
-      <c r="I57" s="322">
+      <c r="I58" s="299">
         <v>8</v>
       </c>
-      <c r="J57" s="319"/>
-      <c r="K57" s="319"/>
-      <c r="L57" s="320"/>
-      <c r="M57" s="320"/>
-      <c r="N57" s="320"/>
-      <c r="O57" s="321"/>
-      <c r="P57" s="196"/>
-      <c r="Q57" s="194"/>
-      <c r="R57" s="194"/>
-      <c r="S57" s="194"/>
-      <c r="T57" s="197"/>
-      <c r="U57" s="193"/>
-      <c r="V57" s="194"/>
-      <c r="W57" s="194"/>
-      <c r="X57" s="194"/>
-      <c r="Y57" s="198"/>
-    </row>
-    <row r="58" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="228" t="s">
+      <c r="J58" s="296"/>
+      <c r="K58" s="296"/>
+      <c r="L58" s="297"/>
+      <c r="M58" s="297"/>
+      <c r="N58" s="297"/>
+      <c r="O58" s="298"/>
+      <c r="P58" s="193"/>
+      <c r="Q58" s="191"/>
+      <c r="R58" s="191"/>
+      <c r="S58" s="191"/>
+      <c r="T58" s="194"/>
+      <c r="U58" s="190"/>
+      <c r="V58" s="191"/>
+      <c r="W58" s="191"/>
+      <c r="X58" s="191"/>
+      <c r="Y58" s="195"/>
+    </row>
+    <row r="59" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="224" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="223"/>
-      <c r="D58" s="192">
+      <c r="C59" s="202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="189">
         <v>48</v>
       </c>
-      <c r="E58" s="193"/>
-      <c r="F58" s="194"/>
-      <c r="G58" s="194"/>
-      <c r="H58" s="323"/>
-      <c r="I58" s="323"/>
-      <c r="J58" s="318">
+      <c r="E59" s="190"/>
+      <c r="F59" s="191"/>
+      <c r="G59" s="191"/>
+      <c r="H59" s="300"/>
+      <c r="I59" s="300"/>
+      <c r="J59" s="295">
         <v>16</v>
       </c>
-      <c r="K58" s="318">
+      <c r="K59" s="295">
         <v>16</v>
       </c>
-      <c r="L58" s="318">
+      <c r="L59" s="295">
         <v>16</v>
       </c>
-      <c r="M58" s="319"/>
-      <c r="N58" s="319"/>
-      <c r="O58" s="321"/>
-      <c r="P58" s="196"/>
-      <c r="Q58" s="194"/>
-      <c r="R58" s="194"/>
-      <c r="S58" s="194"/>
-      <c r="T58" s="197"/>
-      <c r="U58" s="193"/>
-      <c r="V58" s="194"/>
-      <c r="W58" s="194"/>
-      <c r="X58" s="194"/>
-      <c r="Y58" s="198"/>
-    </row>
-    <row r="59" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="113" t="s">
+      <c r="M59" s="296"/>
+      <c r="N59" s="296"/>
+      <c r="O59" s="298"/>
+      <c r="P59" s="193"/>
+      <c r="Q59" s="191"/>
+      <c r="R59" s="191"/>
+      <c r="S59" s="191"/>
+      <c r="T59" s="194"/>
+      <c r="U59" s="190"/>
+      <c r="V59" s="191"/>
+      <c r="W59" s="191"/>
+      <c r="X59" s="191"/>
+      <c r="Y59" s="195"/>
+    </row>
+    <row r="60" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="184"/>
-      <c r="D59" s="29">
+      <c r="C60" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="29">
         <v>48</v>
       </c>
-      <c r="E59" s="150"/>
-      <c r="F59" s="151"/>
-      <c r="G59" s="151"/>
-      <c r="H59" s="324"/>
-      <c r="I59" s="324"/>
-      <c r="J59" s="325"/>
-      <c r="K59" s="325"/>
-      <c r="L59" s="326">
+      <c r="E60" s="150"/>
+      <c r="F60" s="151"/>
+      <c r="G60" s="151"/>
+      <c r="H60" s="301"/>
+      <c r="I60" s="301"/>
+      <c r="J60" s="308"/>
+      <c r="K60" s="302"/>
+      <c r="L60" s="303">
         <v>12</v>
       </c>
-      <c r="M59" s="326">
+      <c r="M60" s="303">
         <v>12</v>
       </c>
-      <c r="N59" s="326">
+      <c r="N60" s="303">
         <v>12</v>
       </c>
-      <c r="O59" s="326">
+      <c r="O60" s="303">
         <v>12</v>
       </c>
-      <c r="P59" s="153"/>
-      <c r="Q59" s="151"/>
-      <c r="R59" s="151"/>
-      <c r="S59" s="151"/>
-      <c r="T59" s="154"/>
-      <c r="U59" s="150"/>
-      <c r="V59" s="151"/>
-      <c r="W59" s="151"/>
-      <c r="X59" s="151"/>
-      <c r="Y59" s="155"/>
-    </row>
-    <row r="60" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="115" t="s">
+      <c r="P60" s="153"/>
+      <c r="Q60" s="151"/>
+      <c r="R60" s="151"/>
+      <c r="S60" s="151"/>
+      <c r="T60" s="154"/>
+      <c r="U60" s="150"/>
+      <c r="V60" s="151"/>
+      <c r="W60" s="151"/>
+      <c r="X60" s="151"/>
+      <c r="Y60" s="155"/>
+    </row>
+    <row r="61" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="183"/>
-      <c r="D60" s="28">
-        <f>SUM(D61:D63)</f>
+      <c r="C61" s="201"/>
+      <c r="D61" s="28">
+        <f>SUM(D62:D64)</f>
         <v>66</v>
       </c>
-      <c r="E60" s="144"/>
-      <c r="F60" s="145"/>
-      <c r="G60" s="145"/>
-      <c r="H60" s="315"/>
-      <c r="I60" s="315"/>
-      <c r="J60" s="327"/>
-      <c r="K60" s="327"/>
-      <c r="L60" s="327"/>
-      <c r="M60" s="327"/>
-      <c r="N60" s="327"/>
-      <c r="O60" s="328"/>
-      <c r="P60" s="147"/>
-      <c r="Q60" s="145"/>
-      <c r="R60" s="145"/>
-      <c r="S60" s="145"/>
-      <c r="T60" s="148"/>
-      <c r="U60" s="144"/>
-      <c r="V60" s="145"/>
-      <c r="W60" s="145"/>
-      <c r="X60" s="145"/>
-      <c r="Y60" s="149"/>
-    </row>
-    <row r="61" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="113" t="s">
+      <c r="E61" s="144"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="292"/>
+      <c r="I61" s="292"/>
+      <c r="J61" s="304"/>
+      <c r="K61" s="304"/>
+      <c r="L61" s="304"/>
+      <c r="M61" s="304"/>
+      <c r="N61" s="304"/>
+      <c r="O61" s="305"/>
+      <c r="P61" s="147"/>
+      <c r="Q61" s="145"/>
+      <c r="R61" s="145"/>
+      <c r="S61" s="145"/>
+      <c r="T61" s="148"/>
+      <c r="U61" s="144"/>
+      <c r="V61" s="145"/>
+      <c r="W61" s="145"/>
+      <c r="X61" s="145"/>
+      <c r="Y61" s="149"/>
+    </row>
+    <row r="62" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="184"/>
-      <c r="D61" s="29">
+      <c r="C62" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="29">
         <v>24</v>
       </c>
-      <c r="E61" s="150"/>
-      <c r="F61" s="151"/>
-      <c r="G61" s="151"/>
-      <c r="H61" s="318">
+      <c r="E62" s="150"/>
+      <c r="F62" s="151"/>
+      <c r="G62" s="151"/>
+      <c r="H62" s="295">
         <v>8</v>
       </c>
-      <c r="I61" s="318">
+      <c r="I62" s="295">
         <v>8</v>
       </c>
-      <c r="J61" s="318">
+      <c r="J62" s="295">
         <v>8</v>
       </c>
-      <c r="K61" s="319"/>
-      <c r="L61" s="319"/>
-      <c r="M61" s="320"/>
-      <c r="N61" s="320"/>
-      <c r="O61" s="329"/>
-      <c r="P61" s="153"/>
-      <c r="Q61" s="151"/>
-      <c r="R61" s="151"/>
-      <c r="S61" s="151"/>
-      <c r="T61" s="154"/>
-      <c r="U61" s="150"/>
-      <c r="V61" s="151"/>
-      <c r="W61" s="151"/>
-      <c r="X61" s="151"/>
-      <c r="Y61" s="155"/>
-    </row>
-    <row r="62" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="191" t="s">
+      <c r="K62" s="296"/>
+      <c r="L62" s="296"/>
+      <c r="M62" s="297"/>
+      <c r="N62" s="297"/>
+      <c r="O62" s="306"/>
+      <c r="P62" s="153"/>
+      <c r="Q62" s="151"/>
+      <c r="R62" s="151"/>
+      <c r="S62" s="151"/>
+      <c r="T62" s="154"/>
+      <c r="U62" s="150"/>
+      <c r="V62" s="151"/>
+      <c r="W62" s="151"/>
+      <c r="X62" s="151"/>
+      <c r="Y62" s="155"/>
+    </row>
+    <row r="63" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="223"/>
-      <c r="D62" s="192">
+      <c r="C63" s="202" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="189">
         <v>24</v>
       </c>
-      <c r="E62" s="193"/>
-      <c r="F62" s="194"/>
-      <c r="G62" s="194"/>
-      <c r="H62" s="319"/>
-      <c r="I62" s="319"/>
-      <c r="J62" s="319"/>
-      <c r="K62" s="319"/>
-      <c r="L62" s="319"/>
-      <c r="M62" s="322">
+      <c r="E63" s="190"/>
+      <c r="F63" s="191"/>
+      <c r="G63" s="191"/>
+      <c r="H63" s="296"/>
+      <c r="I63" s="296"/>
+      <c r="J63" s="296"/>
+      <c r="K63" s="296"/>
+      <c r="L63" s="296"/>
+      <c r="M63" s="299">
         <v>8</v>
       </c>
-      <c r="N62" s="322">
+      <c r="N63" s="299">
         <v>8</v>
       </c>
-      <c r="O62" s="322">
+      <c r="O63" s="299">
         <v>8</v>
       </c>
-      <c r="P62" s="196"/>
-      <c r="Q62" s="194"/>
-      <c r="R62" s="194"/>
-      <c r="S62" s="194"/>
-      <c r="T62" s="197"/>
-      <c r="U62" s="193"/>
-      <c r="V62" s="194"/>
-      <c r="W62" s="194"/>
-      <c r="X62" s="194"/>
-      <c r="Y62" s="198"/>
-    </row>
-    <row r="63" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="229" t="s">
+      <c r="P63" s="193"/>
+      <c r="Q63" s="191"/>
+      <c r="R63" s="191"/>
+      <c r="S63" s="191"/>
+      <c r="T63" s="194"/>
+      <c r="U63" s="190"/>
+      <c r="V63" s="191"/>
+      <c r="W63" s="191"/>
+      <c r="X63" s="191"/>
+      <c r="Y63" s="195"/>
+    </row>
+    <row r="64" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="225" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="185"/>
-      <c r="D63" s="30">
+      <c r="C64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="30">
         <v>18</v>
       </c>
-      <c r="E63" s="156"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="157"/>
-      <c r="H63" s="330"/>
-      <c r="I63" s="330"/>
-      <c r="J63" s="331"/>
-      <c r="K63" s="331"/>
-      <c r="L63" s="331"/>
-      <c r="M63" s="326">
+      <c r="E64" s="156"/>
+      <c r="F64" s="157"/>
+      <c r="G64" s="157"/>
+      <c r="H64" s="307"/>
+      <c r="I64" s="307"/>
+      <c r="J64" s="308"/>
+      <c r="K64" s="308"/>
+      <c r="L64" s="308"/>
+      <c r="M64" s="303">
         <v>6</v>
       </c>
-      <c r="N63" s="326">
+      <c r="N64" s="303">
         <v>6</v>
       </c>
-      <c r="O63" s="326">
+      <c r="O64" s="303">
         <v>6</v>
       </c>
-      <c r="P63" s="159"/>
-      <c r="Q63" s="157"/>
-      <c r="R63" s="157"/>
-      <c r="S63" s="157"/>
-      <c r="T63" s="160"/>
-      <c r="U63" s="156"/>
-      <c r="V63" s="157"/>
-      <c r="W63" s="157"/>
-      <c r="X63" s="157"/>
-      <c r="Y63" s="161"/>
-      <c r="Z63" s="273"/>
-    </row>
-    <row r="64" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="277"/>
-      <c r="C64" s="277"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="174"/>
-      <c r="F64" s="332">
-        <f>SUM(F53:F63)+SUM(F27:F49)</f>
+      <c r="P64" s="159"/>
+      <c r="Q64" s="157"/>
+      <c r="R64" s="157"/>
+      <c r="S64" s="157"/>
+      <c r="T64" s="160"/>
+      <c r="U64" s="156"/>
+      <c r="V64" s="157"/>
+      <c r="W64" s="157"/>
+      <c r="X64" s="157"/>
+      <c r="Y64" s="161"/>
+      <c r="Z64" s="268"/>
+    </row>
+    <row r="65" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="358"/>
+      <c r="C65" s="358"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="174"/>
+      <c r="F65" s="309">
+        <f>SUM(F54:F64)+SUM(F29:F50)</f>
         <v>28</v>
       </c>
-      <c r="G64" s="332">
-        <f t="shared" ref="G64:O64" si="0">SUM(G53:G63)+SUM(G27:G49)</f>
+      <c r="G65" s="309">
+        <f>SUM(G54:G64)+SUM(G29:G50)</f>
         <v>51</v>
       </c>
-      <c r="H64" s="332">
-        <f t="shared" si="0"/>
+      <c r="H65" s="309">
+        <f>SUM(H54:H64)+SUM(H29:H50)</f>
         <v>83</v>
       </c>
-      <c r="I64" s="332">
-        <f t="shared" si="0"/>
+      <c r="I65" s="309">
+        <f>SUM(I54:I64)+SUM(I29:I50)</f>
         <v>74</v>
       </c>
-      <c r="J64" s="332">
-        <f t="shared" si="0"/>
+      <c r="J65" s="309">
+        <f>SUM(J54:J64)+SUM(J29:J50)</f>
         <v>44</v>
       </c>
-      <c r="K64" s="332">
-        <f t="shared" si="0"/>
+      <c r="K65" s="309">
+        <f>SUM(K54:K64)+SUM(K29:K50)</f>
         <v>16</v>
       </c>
-      <c r="L64" s="332">
-        <f t="shared" si="0"/>
+      <c r="L65" s="309">
+        <f>SUM(L54:L64)+SUM(L29:L50)</f>
         <v>28</v>
       </c>
-      <c r="M64" s="332">
-        <f t="shared" si="0"/>
+      <c r="M65" s="309">
+        <f>SUM(M54:M64)+SUM(M29:M50)</f>
         <v>26</v>
       </c>
-      <c r="N64" s="332">
-        <f t="shared" si="0"/>
+      <c r="N65" s="309">
+        <f>SUM(N54:N64)+SUM(N29:N50)</f>
         <v>26</v>
       </c>
-      <c r="O64" s="332">
-        <f t="shared" si="0"/>
+      <c r="O65" s="309">
+        <f>SUM(O54:O64)+SUM(O29:O50)</f>
         <v>26</v>
       </c>
-      <c r="P64" s="175"/>
-      <c r="Q64" s="174"/>
-      <c r="R64" s="174"/>
-      <c r="S64" s="174"/>
-      <c r="T64" s="176"/>
-      <c r="U64" s="174"/>
-      <c r="V64" s="174"/>
-      <c r="W64" s="174"/>
-      <c r="X64" s="174"/>
-      <c r="Y64" s="174"/>
-    </row>
-    <row r="65" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="121" t="s">
+      <c r="P65" s="175"/>
+      <c r="Q65" s="174"/>
+      <c r="R65" s="174"/>
+      <c r="S65" s="174"/>
+      <c r="T65" s="176"/>
+      <c r="U65" s="174"/>
+      <c r="V65" s="174"/>
+      <c r="W65" s="174"/>
+      <c r="X65" s="174"/>
+      <c r="Y65" s="174"/>
+    </row>
+    <row r="66" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="34">
-        <f>SUM(D66,D70)</f>
+      <c r="C66" s="44"/>
+      <c r="D66" s="34">
+        <f>SUM(D67,D71)</f>
         <v>240</v>
       </c>
-      <c r="E65" s="168"/>
-      <c r="F65" s="169"/>
-      <c r="G65" s="169"/>
-      <c r="H65" s="169"/>
-      <c r="I65" s="169"/>
-      <c r="J65" s="169"/>
-      <c r="K65" s="169"/>
-      <c r="L65" s="169"/>
-      <c r="M65" s="169"/>
-      <c r="N65" s="169"/>
-      <c r="O65" s="170"/>
-      <c r="P65" s="230"/>
-      <c r="Q65" s="231"/>
-      <c r="R65" s="231"/>
-      <c r="S65" s="231"/>
-      <c r="T65" s="232"/>
-      <c r="U65" s="233"/>
-      <c r="V65" s="231"/>
-      <c r="W65" s="169"/>
-      <c r="X65" s="169"/>
-      <c r="Y65" s="173"/>
-    </row>
-    <row r="66" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="115" t="s">
+      <c r="E66" s="168"/>
+      <c r="F66" s="169"/>
+      <c r="G66" s="169"/>
+      <c r="H66" s="169"/>
+      <c r="I66" s="169"/>
+      <c r="J66" s="169"/>
+      <c r="K66" s="169"/>
+      <c r="L66" s="169"/>
+      <c r="M66" s="169"/>
+      <c r="N66" s="169"/>
+      <c r="O66" s="170"/>
+      <c r="P66" s="226"/>
+      <c r="Q66" s="227"/>
+      <c r="R66" s="227"/>
+      <c r="S66" s="227"/>
+      <c r="T66" s="228"/>
+      <c r="U66" s="229"/>
+      <c r="V66" s="227"/>
+      <c r="W66" s="169"/>
+      <c r="X66" s="169"/>
+      <c r="Y66" s="173"/>
+    </row>
+    <row r="67" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="183"/>
-      <c r="D66" s="28">
-        <f>SUM(D67:D69)</f>
+      <c r="C67" s="201"/>
+      <c r="D67" s="28">
+        <f>SUM(D68:D70)</f>
         <v>124</v>
       </c>
-      <c r="E66" s="144"/>
-      <c r="F66" s="145"/>
-      <c r="G66" s="145"/>
-      <c r="H66" s="145"/>
-      <c r="I66" s="145"/>
-      <c r="J66" s="145"/>
-      <c r="K66" s="145"/>
-      <c r="L66" s="145"/>
-      <c r="M66" s="145"/>
-      <c r="N66" s="145"/>
-      <c r="O66" s="146"/>
-      <c r="P66" s="334"/>
-      <c r="Q66" s="335"/>
-      <c r="R66" s="335"/>
-      <c r="S66" s="335"/>
-      <c r="T66" s="336"/>
-      <c r="U66" s="337"/>
-      <c r="V66" s="335"/>
-      <c r="W66" s="145"/>
-      <c r="X66" s="145"/>
-      <c r="Y66" s="149"/>
-    </row>
-    <row r="67" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="113" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="184"/>
-      <c r="D67" s="29">
-        <v>52</v>
-      </c>
-      <c r="E67" s="150"/>
-      <c r="F67" s="151"/>
-      <c r="G67" s="151"/>
-      <c r="H67" s="151"/>
-      <c r="I67" s="151"/>
-      <c r="J67" s="151"/>
-      <c r="K67" s="151"/>
-      <c r="L67" s="151"/>
-      <c r="M67" s="151"/>
-      <c r="N67" s="151"/>
-      <c r="O67" s="152"/>
-      <c r="P67" s="338">
-        <v>20</v>
-      </c>
-      <c r="Q67" s="339">
-        <v>20</v>
-      </c>
-      <c r="R67" s="339">
-        <v>12</v>
-      </c>
-      <c r="S67" s="340"/>
-      <c r="T67" s="341"/>
-      <c r="U67" s="342"/>
-      <c r="V67" s="340"/>
-      <c r="W67" s="151"/>
-      <c r="X67" s="151"/>
-      <c r="Y67" s="155"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="145"/>
+      <c r="G67" s="145"/>
+      <c r="H67" s="145"/>
+      <c r="I67" s="145"/>
+      <c r="J67" s="145"/>
+      <c r="K67" s="145"/>
+      <c r="L67" s="145"/>
+      <c r="M67" s="145"/>
+      <c r="N67" s="145"/>
+      <c r="O67" s="146"/>
+      <c r="P67" s="311"/>
+      <c r="Q67" s="312"/>
+      <c r="R67" s="312"/>
+      <c r="S67" s="312"/>
+      <c r="T67" s="313"/>
+      <c r="U67" s="314"/>
+      <c r="V67" s="312"/>
+      <c r="W67" s="145"/>
+      <c r="X67" s="145"/>
+      <c r="Y67" s="149"/>
     </row>
     <row r="68" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="184"/>
+        <v>79</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="D68" s="29">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E68" s="150"/>
       <c r="F68" s="151"/>
@@ -4968,31 +4992,32 @@
       <c r="M68" s="151"/>
       <c r="N68" s="151"/>
       <c r="O68" s="152"/>
-      <c r="P68" s="338">
+      <c r="P68" s="315">
         <v>20</v>
       </c>
-      <c r="Q68" s="339">
+      <c r="Q68" s="316">
         <v>20</v>
       </c>
-      <c r="R68" s="339">
-        <v>10</v>
-      </c>
-      <c r="S68" s="340"/>
-      <c r="T68" s="341"/>
-      <c r="U68" s="342"/>
-      <c r="V68" s="340"/>
+      <c r="R68" s="316">
+        <v>12</v>
+      </c>
+      <c r="S68" s="317"/>
+      <c r="T68" s="318"/>
+      <c r="U68" s="319"/>
+      <c r="V68" s="317"/>
       <c r="W68" s="151"/>
       <c r="X68" s="151"/>
       <c r="Y68" s="155"/>
-      <c r="Z68" s="273"/>
-    </row>
-    <row r="69" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="184"/>
+        <v>82</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="D69" s="29">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E69" s="150"/>
       <c r="F69" s="151"/>
@@ -5005,98 +5030,102 @@
       <c r="M69" s="151"/>
       <c r="N69" s="151"/>
       <c r="O69" s="152"/>
-      <c r="P69" s="343"/>
-      <c r="Q69" s="340"/>
-      <c r="R69" s="339">
+      <c r="P69" s="315">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="316">
+        <v>20</v>
+      </c>
+      <c r="R69" s="316">
         <v>10</v>
       </c>
-      <c r="S69" s="339">
-        <v>12</v>
-      </c>
-      <c r="T69" s="341"/>
-      <c r="U69" s="342"/>
-      <c r="V69" s="340"/>
+      <c r="S69" s="317"/>
+      <c r="T69" s="318"/>
+      <c r="U69" s="319"/>
+      <c r="V69" s="317"/>
       <c r="W69" s="151"/>
       <c r="X69" s="151"/>
       <c r="Y69" s="155"/>
-      <c r="Z69" s="273"/>
-    </row>
-    <row r="70" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="115" t="s">
+      <c r="Z69" s="268"/>
+    </row>
+    <row r="70" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="29">
+        <v>22</v>
+      </c>
+      <c r="E70" s="150"/>
+      <c r="F70" s="151"/>
+      <c r="G70" s="151"/>
+      <c r="H70" s="151"/>
+      <c r="I70" s="151"/>
+      <c r="J70" s="151"/>
+      <c r="K70" s="151"/>
+      <c r="L70" s="151"/>
+      <c r="M70" s="151"/>
+      <c r="N70" s="151"/>
+      <c r="O70" s="152"/>
+      <c r="P70" s="320"/>
+      <c r="Q70" s="317"/>
+      <c r="R70" s="316">
+        <v>10</v>
+      </c>
+      <c r="S70" s="316">
+        <v>12</v>
+      </c>
+      <c r="T70" s="318"/>
+      <c r="U70" s="319"/>
+      <c r="V70" s="317"/>
+      <c r="W70" s="151"/>
+      <c r="X70" s="151"/>
+      <c r="Y70" s="155"/>
+      <c r="Z70" s="268"/>
+    </row>
+    <row r="71" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="C70" s="183"/>
-      <c r="D70" s="28">
-        <f>SUM(D71:D74)</f>
+      <c r="C71" s="201"/>
+      <c r="D71" s="28">
+        <f>SUM(D72:D75)</f>
         <v>116</v>
       </c>
-      <c r="E70" s="144"/>
-      <c r="F70" s="145"/>
-      <c r="G70" s="145"/>
-      <c r="H70" s="145"/>
-      <c r="I70" s="145"/>
-      <c r="J70" s="145"/>
-      <c r="K70" s="145"/>
-      <c r="L70" s="145"/>
-      <c r="M70" s="145"/>
-      <c r="N70" s="145"/>
-      <c r="O70" s="146"/>
-      <c r="P70" s="344"/>
-      <c r="Q70" s="345"/>
-      <c r="R70" s="345"/>
-      <c r="S70" s="345"/>
-      <c r="T70" s="346"/>
-      <c r="U70" s="347"/>
-      <c r="V70" s="345"/>
-      <c r="W70" s="145"/>
-      <c r="X70" s="145"/>
-      <c r="Y70" s="149"/>
-      <c r="Z70" s="273"/>
-    </row>
-    <row r="71" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="184"/>
-      <c r="D71" s="29">
-        <v>24</v>
-      </c>
-      <c r="E71" s="150"/>
-      <c r="F71" s="151"/>
-      <c r="G71" s="151"/>
-      <c r="H71" s="151"/>
-      <c r="I71" s="151"/>
-      <c r="J71" s="151"/>
-      <c r="K71" s="151"/>
-      <c r="L71" s="151"/>
-      <c r="M71" s="151"/>
-      <c r="N71" s="151"/>
-      <c r="O71" s="152"/>
-      <c r="P71" s="343"/>
-      <c r="Q71" s="340"/>
-      <c r="R71" s="339">
-        <v>8</v>
-      </c>
-      <c r="S71" s="339">
-        <v>8</v>
-      </c>
-      <c r="T71" s="348">
-        <v>8</v>
-      </c>
-      <c r="U71" s="342"/>
-      <c r="V71" s="340"/>
-      <c r="W71" s="151"/>
-      <c r="X71" s="151"/>
-      <c r="Y71" s="155"/>
-      <c r="Z71" s="273"/>
+      <c r="E71" s="144"/>
+      <c r="F71" s="145"/>
+      <c r="G71" s="145"/>
+      <c r="H71" s="145"/>
+      <c r="I71" s="145"/>
+      <c r="J71" s="145"/>
+      <c r="K71" s="145"/>
+      <c r="L71" s="145"/>
+      <c r="M71" s="145"/>
+      <c r="N71" s="145"/>
+      <c r="O71" s="146"/>
+      <c r="P71" s="321"/>
+      <c r="Q71" s="322"/>
+      <c r="R71" s="322"/>
+      <c r="S71" s="322"/>
+      <c r="T71" s="323"/>
+      <c r="U71" s="324"/>
+      <c r="V71" s="322"/>
+      <c r="W71" s="145"/>
+      <c r="X71" s="145"/>
+      <c r="Y71" s="149"/>
+      <c r="Z71" s="268"/>
     </row>
     <row r="72" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="184"/>
+        <v>84</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="D72" s="29">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E72" s="150"/>
       <c r="F72" s="151"/>
@@ -5109,527 +5138,584 @@
       <c r="M72" s="151"/>
       <c r="N72" s="151"/>
       <c r="O72" s="152"/>
-      <c r="P72" s="343"/>
-      <c r="Q72" s="340"/>
-      <c r="R72" s="340"/>
-      <c r="S72" s="339">
+      <c r="P72" s="320"/>
+      <c r="Q72" s="317"/>
+      <c r="R72" s="316">
         <v>8</v>
       </c>
-      <c r="T72" s="348">
+      <c r="S72" s="316">
         <v>8</v>
       </c>
-      <c r="U72" s="342"/>
-      <c r="V72" s="340"/>
+      <c r="T72" s="325">
+        <v>8</v>
+      </c>
+      <c r="U72" s="319"/>
+      <c r="V72" s="317"/>
       <c r="W72" s="151"/>
       <c r="X72" s="151"/>
       <c r="Y72" s="155"/>
-      <c r="Z72" s="273"/>
+      <c r="Z72" s="268"/>
     </row>
     <row r="73" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="191" t="s">
+      <c r="B73" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="29">
+        <v>16</v>
+      </c>
+      <c r="E73" s="150"/>
+      <c r="F73" s="151"/>
+      <c r="G73" s="151"/>
+      <c r="H73" s="151"/>
+      <c r="I73" s="151"/>
+      <c r="J73" s="151"/>
+      <c r="K73" s="151"/>
+      <c r="L73" s="151"/>
+      <c r="M73" s="151"/>
+      <c r="N73" s="151"/>
+      <c r="O73" s="152"/>
+      <c r="P73" s="320"/>
+      <c r="Q73" s="317"/>
+      <c r="R73" s="317"/>
+      <c r="S73" s="316">
+        <v>8</v>
+      </c>
+      <c r="T73" s="325">
+        <v>8</v>
+      </c>
+      <c r="U73" s="319"/>
+      <c r="V73" s="317"/>
+      <c r="W73" s="151"/>
+      <c r="X73" s="151"/>
+      <c r="Y73" s="155"/>
+      <c r="Z73" s="268"/>
+    </row>
+    <row r="74" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="C73" s="223"/>
-      <c r="D73" s="192">
+      <c r="C74" s="202" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="189">
         <v>20</v>
       </c>
-      <c r="E73" s="193"/>
-      <c r="F73" s="194"/>
-      <c r="G73" s="194"/>
-      <c r="H73" s="194"/>
-      <c r="I73" s="194"/>
-      <c r="J73" s="194"/>
-      <c r="K73" s="194"/>
-      <c r="L73" s="194"/>
-      <c r="M73" s="194"/>
-      <c r="N73" s="194"/>
-      <c r="O73" s="195"/>
-      <c r="P73" s="349"/>
-      <c r="Q73" s="350"/>
-      <c r="R73" s="350"/>
-      <c r="S73" s="351">
+      <c r="E74" s="190"/>
+      <c r="F74" s="191"/>
+      <c r="G74" s="191"/>
+      <c r="H74" s="191"/>
+      <c r="I74" s="191"/>
+      <c r="J74" s="191"/>
+      <c r="K74" s="191"/>
+      <c r="L74" s="191"/>
+      <c r="M74" s="191"/>
+      <c r="N74" s="191"/>
+      <c r="O74" s="192"/>
+      <c r="P74" s="326"/>
+      <c r="Q74" s="327"/>
+      <c r="R74" s="327"/>
+      <c r="S74" s="328">
         <v>8</v>
       </c>
-      <c r="T73" s="352">
+      <c r="T74" s="329">
         <v>12</v>
       </c>
-      <c r="U73" s="353"/>
-      <c r="V73" s="350"/>
-      <c r="W73" s="194"/>
-      <c r="X73" s="194"/>
-      <c r="Y73" s="198"/>
-      <c r="Z73" s="273"/>
-    </row>
-    <row r="74" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="224" t="s">
+      <c r="U74" s="330"/>
+      <c r="V74" s="327"/>
+      <c r="W74" s="191"/>
+      <c r="X74" s="191"/>
+      <c r="Y74" s="195"/>
+      <c r="Z74" s="268"/>
+    </row>
+    <row r="75" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="220" t="s">
         <v>88</v>
       </c>
-      <c r="C74" s="185"/>
-      <c r="D74" s="30">
+      <c r="C75" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="30">
         <v>56</v>
       </c>
-      <c r="E74" s="156"/>
-      <c r="F74" s="157"/>
-      <c r="G74" s="157"/>
-      <c r="H74" s="157"/>
-      <c r="I74" s="157"/>
-      <c r="J74" s="157"/>
-      <c r="K74" s="157"/>
-      <c r="L74" s="157"/>
-      <c r="M74" s="157"/>
-      <c r="N74" s="157"/>
-      <c r="O74" s="158"/>
-      <c r="P74" s="354"/>
-      <c r="Q74" s="355"/>
-      <c r="R74" s="355"/>
-      <c r="S74" s="356">
+      <c r="E75" s="156"/>
+      <c r="F75" s="157"/>
+      <c r="G75" s="157"/>
+      <c r="H75" s="157"/>
+      <c r="I75" s="157"/>
+      <c r="J75" s="157"/>
+      <c r="K75" s="157"/>
+      <c r="L75" s="157"/>
+      <c r="M75" s="157"/>
+      <c r="N75" s="157"/>
+      <c r="O75" s="158"/>
+      <c r="P75" s="331"/>
+      <c r="Q75" s="332"/>
+      <c r="R75" s="332"/>
+      <c r="S75" s="333">
         <v>4</v>
       </c>
-      <c r="T74" s="357">
+      <c r="T75" s="334">
         <v>12</v>
       </c>
-      <c r="U74" s="358">
+      <c r="U75" s="335">
         <v>20</v>
       </c>
-      <c r="V74" s="356">
+      <c r="V75" s="333">
         <v>20</v>
       </c>
-      <c r="W74" s="157"/>
-      <c r="X74" s="157"/>
-      <c r="Y74" s="161"/>
-      <c r="Z74" s="273"/>
-    </row>
-    <row r="75" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="277"/>
-      <c r="C75" s="277"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="174"/>
-      <c r="F75" s="174"/>
-      <c r="G75" s="174"/>
-      <c r="H75" s="174"/>
-      <c r="I75" s="174"/>
-      <c r="J75" s="174"/>
-      <c r="K75" s="174"/>
-      <c r="L75" s="174"/>
-      <c r="M75" s="174"/>
-      <c r="N75" s="174"/>
-      <c r="O75" s="174"/>
-      <c r="P75" s="333">
-        <f>SUM(P66:P74)</f>
+      <c r="W75" s="157"/>
+      <c r="X75" s="157"/>
+      <c r="Y75" s="161"/>
+      <c r="Z75" s="268"/>
+    </row>
+    <row r="76" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="358"/>
+      <c r="C76" s="358"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="174"/>
+      <c r="F76" s="174"/>
+      <c r="G76" s="174"/>
+      <c r="H76" s="174"/>
+      <c r="I76" s="174"/>
+      <c r="J76" s="174"/>
+      <c r="K76" s="174"/>
+      <c r="L76" s="174"/>
+      <c r="M76" s="174"/>
+      <c r="N76" s="174"/>
+      <c r="O76" s="174"/>
+      <c r="P76" s="310">
+        <f>SUM(P67:P75)</f>
         <v>40</v>
       </c>
-      <c r="Q75" s="333">
-        <f t="shared" ref="Q75:V75" si="1">SUM(Q66:Q74)</f>
+      <c r="Q76" s="310">
+        <f t="shared" ref="Q76:V76" si="0">SUM(Q67:Q75)</f>
         <v>40</v>
       </c>
-      <c r="R75" s="333">
-        <f t="shared" si="1"/>
+      <c r="R76" s="310">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="S75" s="333">
-        <f t="shared" si="1"/>
+      <c r="S76" s="310">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="T75" s="333">
-        <f t="shared" si="1"/>
+      <c r="T76" s="310">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="U75" s="333">
-        <f t="shared" si="1"/>
+      <c r="U76" s="310">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="V75" s="333">
-        <f t="shared" si="1"/>
+      <c r="V76" s="310">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W75" s="174"/>
-      <c r="X75" s="174"/>
-      <c r="Y75" s="174"/>
-    </row>
-    <row r="76" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="118" t="s">
+      <c r="W76" s="174"/>
+      <c r="X76" s="174"/>
+      <c r="Y76" s="174"/>
+    </row>
+    <row r="77" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="35">
-        <f>SUM(D77:D79)</f>
+      <c r="C77" s="45"/>
+      <c r="D77" s="35">
+        <f>SUM(D78:D80)</f>
         <v>106</v>
       </c>
-      <c r="E76" s="162"/>
-      <c r="F76" s="163"/>
-      <c r="G76" s="163"/>
-      <c r="H76" s="163"/>
-      <c r="I76" s="163"/>
-      <c r="J76" s="163"/>
-      <c r="K76" s="163"/>
-      <c r="L76" s="163"/>
-      <c r="M76" s="163"/>
-      <c r="N76" s="293"/>
-      <c r="O76" s="294"/>
-      <c r="P76" s="295"/>
-      <c r="Q76" s="293"/>
-      <c r="R76" s="293"/>
-      <c r="S76" s="235"/>
-      <c r="T76" s="236"/>
-      <c r="U76" s="237"/>
-      <c r="V76" s="235"/>
-      <c r="W76" s="235"/>
-      <c r="X76" s="235"/>
-      <c r="Y76" s="167"/>
-    </row>
-    <row r="77" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="117" t="s">
+      <c r="E77" s="162"/>
+      <c r="F77" s="163"/>
+      <c r="G77" s="163"/>
+      <c r="H77" s="163"/>
+      <c r="I77" s="163"/>
+      <c r="J77" s="163"/>
+      <c r="K77" s="163"/>
+      <c r="L77" s="163"/>
+      <c r="M77" s="163"/>
+      <c r="N77" s="270"/>
+      <c r="O77" s="271"/>
+      <c r="P77" s="272"/>
+      <c r="Q77" s="270"/>
+      <c r="R77" s="270"/>
+      <c r="S77" s="231"/>
+      <c r="T77" s="232"/>
+      <c r="U77" s="233"/>
+      <c r="V77" s="231"/>
+      <c r="W77" s="231"/>
+      <c r="X77" s="231"/>
+      <c r="Y77" s="167"/>
+    </row>
+    <row r="78" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="46"/>
-      <c r="D77" s="36">
+      <c r="C78" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="36">
         <v>8</v>
       </c>
-      <c r="E77" s="177"/>
-      <c r="F77" s="178"/>
-      <c r="G77" s="178"/>
-      <c r="H77" s="178"/>
-      <c r="I77" s="178"/>
-      <c r="J77" s="178"/>
-      <c r="K77" s="178"/>
-      <c r="L77" s="178"/>
-      <c r="M77" s="178"/>
-      <c r="N77" s="359"/>
-      <c r="O77" s="360"/>
-      <c r="P77" s="361"/>
-      <c r="Q77" s="359"/>
-      <c r="R77" s="359"/>
-      <c r="S77" s="362"/>
-      <c r="T77" s="363"/>
-      <c r="U77" s="364">
+      <c r="E78" s="177"/>
+      <c r="F78" s="178"/>
+      <c r="G78" s="178"/>
+      <c r="H78" s="178"/>
+      <c r="I78" s="178"/>
+      <c r="J78" s="178"/>
+      <c r="K78" s="178"/>
+      <c r="L78" s="178"/>
+      <c r="M78" s="178"/>
+      <c r="N78" s="336"/>
+      <c r="O78" s="337"/>
+      <c r="P78" s="338"/>
+      <c r="Q78" s="336"/>
+      <c r="R78" s="336"/>
+      <c r="S78" s="339"/>
+      <c r="T78" s="340"/>
+      <c r="U78" s="341">
         <v>4</v>
       </c>
-      <c r="V77" s="365">
+      <c r="V78" s="342">
         <v>4</v>
       </c>
-      <c r="W77" s="362"/>
-      <c r="X77" s="362"/>
-      <c r="Y77" s="182"/>
-    </row>
-    <row r="78" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="113" t="s">
+      <c r="W78" s="339"/>
+      <c r="X78" s="339"/>
+      <c r="Y78" s="182"/>
+    </row>
+    <row r="79" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="38"/>
-      <c r="D78" s="29">
+      <c r="C79" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="29">
         <v>32</v>
       </c>
-      <c r="E78" s="150"/>
-      <c r="F78" s="151"/>
-      <c r="G78" s="151"/>
-      <c r="H78" s="151"/>
-      <c r="I78" s="151"/>
-      <c r="J78" s="151"/>
-      <c r="K78" s="151"/>
-      <c r="L78" s="151"/>
-      <c r="M78" s="151"/>
-      <c r="N78" s="366"/>
-      <c r="O78" s="367"/>
-      <c r="P78" s="368"/>
-      <c r="Q78" s="366"/>
-      <c r="R78" s="366"/>
-      <c r="S78" s="369"/>
-      <c r="T78" s="370"/>
-      <c r="U78" s="371"/>
-      <c r="V78" s="369"/>
-      <c r="W78" s="372">
+      <c r="E79" s="150"/>
+      <c r="F79" s="151"/>
+      <c r="G79" s="151"/>
+      <c r="H79" s="151"/>
+      <c r="I79" s="151"/>
+      <c r="J79" s="151"/>
+      <c r="K79" s="151"/>
+      <c r="L79" s="151"/>
+      <c r="M79" s="151"/>
+      <c r="N79" s="343"/>
+      <c r="O79" s="344"/>
+      <c r="P79" s="345"/>
+      <c r="Q79" s="343"/>
+      <c r="R79" s="343"/>
+      <c r="S79" s="346"/>
+      <c r="T79" s="347"/>
+      <c r="U79" s="348"/>
+      <c r="V79" s="346"/>
+      <c r="W79" s="349">
         <v>16</v>
       </c>
-      <c r="X78" s="372">
+      <c r="X79" s="349">
         <v>16</v>
       </c>
-      <c r="Y78" s="155"/>
-    </row>
-    <row r="79" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="114" t="s">
+      <c r="Y79" s="155"/>
+    </row>
+    <row r="80" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="39"/>
-      <c r="D79" s="30">
+      <c r="C80" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="30">
         <v>66</v>
       </c>
-      <c r="E79" s="156"/>
-      <c r="F79" s="157"/>
-      <c r="G79" s="157"/>
-      <c r="H79" s="157"/>
-      <c r="I79" s="157"/>
-      <c r="J79" s="157"/>
-      <c r="K79" s="157"/>
-      <c r="L79" s="157"/>
-      <c r="M79" s="157"/>
-      <c r="N79" s="373">
+      <c r="E80" s="156"/>
+      <c r="F80" s="157"/>
+      <c r="G80" s="157"/>
+      <c r="H80" s="157"/>
+      <c r="I80" s="157"/>
+      <c r="J80" s="157"/>
+      <c r="K80" s="157"/>
+      <c r="L80" s="157"/>
+      <c r="M80" s="157"/>
+      <c r="N80" s="350">
         <v>6</v>
       </c>
-      <c r="O79" s="374">
+      <c r="O80" s="351">
         <v>6</v>
       </c>
-      <c r="P79" s="375">
+      <c r="P80" s="352">
         <v>6</v>
       </c>
-      <c r="Q79" s="373">
+      <c r="Q80" s="350">
         <v>6</v>
       </c>
-      <c r="R79" s="373">
+      <c r="R80" s="350">
         <v>6</v>
       </c>
-      <c r="S79" s="373">
+      <c r="S80" s="350">
         <v>6</v>
       </c>
-      <c r="T79" s="376">
+      <c r="T80" s="353">
         <v>6</v>
       </c>
-      <c r="U79" s="377">
+      <c r="U80" s="354">
         <v>6</v>
       </c>
-      <c r="V79" s="373">
+      <c r="V80" s="350">
         <v>6</v>
       </c>
-      <c r="W79" s="373">
+      <c r="W80" s="350">
         <v>6</v>
       </c>
-      <c r="X79" s="373">
+      <c r="X80" s="350">
         <v>6</v>
       </c>
-      <c r="Y79" s="161"/>
-    </row>
-    <row r="80" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="277"/>
-      <c r="C80" s="277"/>
-      <c r="D80" s="6"/>
-      <c r="P80" s="4"/>
-      <c r="T80" s="5"/>
+      <c r="Y80" s="161"/>
     </row>
     <row r="81" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="119" t="s">
+      <c r="B81" s="358"/>
+      <c r="C81" s="358"/>
+      <c r="D81" s="6"/>
+      <c r="P81" s="4"/>
+      <c r="T81" s="5"/>
+    </row>
+    <row r="82" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="101"/>
-      <c r="D81" s="102">
-        <f>900-(D18+D26+D52+D65+D76+D83)</f>
+      <c r="C82" s="101"/>
+      <c r="D82" s="102">
+        <f>900-(D20+D28+D53+D66+D77+D84)</f>
         <v>84</v>
       </c>
-      <c r="E81" s="103"/>
-      <c r="F81" s="104"/>
-      <c r="G81" s="104"/>
-      <c r="H81" s="104"/>
-      <c r="I81" s="104"/>
-      <c r="J81" s="104"/>
-      <c r="K81" s="104"/>
-      <c r="L81" s="104"/>
-      <c r="M81" s="104"/>
-      <c r="N81" s="104"/>
-      <c r="O81" s="105"/>
-      <c r="P81" s="106"/>
-      <c r="Q81" s="104"/>
-      <c r="R81" s="104"/>
-      <c r="S81" s="104"/>
-      <c r="T81" s="107"/>
-      <c r="U81" s="103"/>
-      <c r="V81" s="104"/>
-      <c r="W81" s="104"/>
-      <c r="X81" s="104"/>
-      <c r="Y81" s="108"/>
-    </row>
-    <row r="82" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="277"/>
-      <c r="C82" s="277"/>
-      <c r="D82" s="6"/>
-      <c r="P82" s="4"/>
-      <c r="T82" s="5"/>
+      <c r="E82" s="103"/>
+      <c r="F82" s="104"/>
+      <c r="G82" s="104"/>
+      <c r="H82" s="104"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="104"/>
+      <c r="K82" s="104"/>
+      <c r="L82" s="104"/>
+      <c r="M82" s="104"/>
+      <c r="N82" s="104"/>
+      <c r="O82" s="105"/>
+      <c r="P82" s="106"/>
+      <c r="Q82" s="104"/>
+      <c r="R82" s="104"/>
+      <c r="S82" s="104"/>
+      <c r="T82" s="107"/>
+      <c r="U82" s="103"/>
+      <c r="V82" s="104"/>
+      <c r="W82" s="104"/>
+      <c r="X82" s="104"/>
+      <c r="Y82" s="108"/>
     </row>
     <row r="83" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="120" t="s">
+      <c r="B83" s="358"/>
+      <c r="C83" s="358"/>
+      <c r="D83" s="6"/>
+      <c r="P83" s="4"/>
+      <c r="T83" s="5"/>
+    </row>
+    <row r="84" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="37">
-        <f>SUM(D84:D86)</f>
+      <c r="C84" s="47"/>
+      <c r="D84" s="37">
+        <f>SUM(D85:D87)</f>
         <v>18</v>
       </c>
-      <c r="E83" s="15"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="163"/>
-      <c r="T83" s="166"/>
-      <c r="U83" s="162"/>
-      <c r="V83" s="163"/>
-      <c r="W83" s="163"/>
-      <c r="X83" s="241"/>
-      <c r="Y83" s="242"/>
-      <c r="Z83" s="174"/>
-    </row>
-    <row r="84" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="117" t="s">
+      <c r="E84" s="15"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="163"/>
+      <c r="T84" s="166"/>
+      <c r="U84" s="162"/>
+      <c r="V84" s="163"/>
+      <c r="W84" s="163"/>
+      <c r="X84" s="237"/>
+      <c r="Y84" s="238"/>
+      <c r="Z84" s="174"/>
+    </row>
+    <row r="85" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="36">
+      <c r="C85" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" s="36">
         <v>6</v>
       </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="14"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="178"/>
-      <c r="T84" s="181"/>
-      <c r="U84" s="177"/>
-      <c r="V84" s="178"/>
-      <c r="W84" s="178"/>
-      <c r="X84" s="240"/>
-      <c r="Y84" s="182"/>
-      <c r="Z84" s="174"/>
-    </row>
-    <row r="85" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="113" t="s">
+      <c r="E85" s="13"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="178"/>
+      <c r="T85" s="181"/>
+      <c r="U85" s="177"/>
+      <c r="V85" s="178"/>
+      <c r="W85" s="178"/>
+      <c r="X85" s="236"/>
+      <c r="Y85" s="182"/>
+      <c r="Z85" s="174"/>
+    </row>
+    <row r="86" spans="2:26" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="29">
+      <c r="C86" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="29">
         <v>8</v>
       </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="151"/>
-      <c r="T85" s="154"/>
-      <c r="U85" s="150"/>
-      <c r="V85" s="151"/>
-      <c r="W85" s="151"/>
-      <c r="X85" s="151"/>
-      <c r="Y85" s="238"/>
-      <c r="Z85" s="174"/>
-    </row>
-    <row r="86" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="114" t="s">
+      <c r="E86" s="11"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="23"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="151"/>
+      <c r="T86" s="154"/>
+      <c r="U86" s="150"/>
+      <c r="V86" s="151"/>
+      <c r="W86" s="151"/>
+      <c r="X86" s="151"/>
+      <c r="Y86" s="234"/>
+      <c r="Z86" s="174"/>
+    </row>
+    <row r="87" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="39"/>
-      <c r="D86" s="30">
+      <c r="C87" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="30">
         <v>4</v>
       </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="157"/>
-      <c r="T86" s="160"/>
-      <c r="U86" s="156"/>
-      <c r="V86" s="157"/>
-      <c r="W86" s="157"/>
-      <c r="X86" s="157"/>
-      <c r="Y86" s="239"/>
-      <c r="Z86" s="174"/>
-    </row>
-    <row r="87" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="203" t="s">
+      <c r="E87" s="12"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="157"/>
+      <c r="T87" s="160"/>
+      <c r="U87" s="156"/>
+      <c r="V87" s="157"/>
+      <c r="W87" s="157"/>
+      <c r="X87" s="157"/>
+      <c r="Y87" s="235"/>
+      <c r="Z87" s="174"/>
+    </row>
+    <row r="88" spans="2:26" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="200" t="s">
         <v>46</v>
       </c>
-      <c r="C87" s="201"/>
-      <c r="D87" s="202">
-        <f>D18+D26+D52+D65+D76+D81+D83</f>
+      <c r="C88" s="198"/>
+      <c r="D88" s="199">
+        <f>D20+D28+D53+D66+D77+D82+D84</f>
         <v>900</v>
       </c>
-      <c r="S87" s="174"/>
-      <c r="T87" s="174"/>
-      <c r="U87" s="174"/>
-      <c r="V87" s="174"/>
-      <c r="W87" s="174"/>
-      <c r="X87" s="174"/>
-      <c r="Y87" s="174"/>
-      <c r="Z87" s="174"/>
-    </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C89" s="221"/>
-      <c r="D89" s="221"/>
+      <c r="S88" s="174"/>
+      <c r="T88" s="174"/>
+      <c r="U88" s="174"/>
+      <c r="V88" s="174"/>
+      <c r="W88" s="174"/>
+      <c r="X88" s="174"/>
+      <c r="Y88" s="174"/>
+      <c r="Z88" s="174"/>
+    </row>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C90" s="218"/>
+      <c r="D90" s="218"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B51:C51"/>
+  <mergeCells count="23">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="P2:T2"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
-  <conditionalFormatting sqref="B42:B49">
+  <conditionalFormatting sqref="B43:B50">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D19" formulaRange="1"/>
+    <ignoredError sqref="D21" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE1D9AE-9DE4-429B-B54D-AD135E125BE6}">
-  <dimension ref="B1:E87"/>
+  <dimension ref="B1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5637,27 +5723,27 @@
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="271" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="266" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="286" t="s">
+      <c r="B2" s="367" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="288" t="s">
+      <c r="C2" s="369" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="290" t="s">
+      <c r="D2" s="371" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="291"/>
+      <c r="E2" s="372"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="287"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="251" t="s">
+      <c r="B3" s="368"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="247" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="61" t="s">
@@ -5672,12 +5758,12 @@
         <f>SUM(C5,C8,C9,C10)</f>
         <v>50</v>
       </c>
-      <c r="D4" s="252">
-        <f>C4*$D$73</f>
+      <c r="D4" s="248">
+        <f>C4*$D$72</f>
         <v>5950</v>
       </c>
       <c r="E4" s="64">
-        <f t="shared" ref="E4:E17" si="0">D4/$D$67</f>
+        <f>D4/$D$66</f>
         <v>9.2008412197686643E-2</v>
       </c>
     </row>
@@ -5689,12 +5775,12 @@
         <f>SUM(C6:C7)</f>
         <v>16</v>
       </c>
-      <c r="D5" s="253">
-        <f>C5*$D$73</f>
+      <c r="D5" s="249">
+        <f>C5*$D$72</f>
         <v>1904</v>
       </c>
       <c r="E5" s="66">
-        <f t="shared" si="0"/>
+        <f>D5/$D$66</f>
         <v>2.9442691903259727E-2</v>
       </c>
     </row>
@@ -5703,49 +5789,49 @@
         <v>51</v>
       </c>
       <c r="C6" s="68">
-        <f>Strukturplan!D20</f>
-        <v>12</v>
-      </c>
-      <c r="D6" s="254">
-        <f>C6*$D$73</f>
-        <v>1428</v>
-      </c>
-      <c r="E6" s="69">
-        <f t="shared" si="0"/>
-        <v>2.2082018927444796E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="191" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="247">
-        <f>Strukturplan!D21</f>
-        <v>4</v>
-      </c>
-      <c r="D7" s="255">
-        <f>C7*$D$73</f>
-        <v>476</v>
-      </c>
-      <c r="E7" s="70">
-        <f t="shared" si="0"/>
-        <v>7.3606729758149319E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="249" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="248">
         <f>Strukturplan!D22</f>
         <v>12</v>
       </c>
-      <c r="D8" s="256">
-        <f>C8*$D$73</f>
+      <c r="D6" s="250">
+        <f>C6*$D$72</f>
         <v>1428</v>
       </c>
+      <c r="E6" s="69">
+        <f>D6/$D$66</f>
+        <v>2.2082018927444796E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="188" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="243">
+        <f>Strukturplan!D23</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="251">
+        <f>C7*$D$72</f>
+        <v>476</v>
+      </c>
+      <c r="E7" s="70">
+        <f>D7/$D$66</f>
+        <v>7.3606729758149319E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="245" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="244">
+        <f>Strukturplan!D24</f>
+        <v>12</v>
+      </c>
+      <c r="D8" s="252">
+        <f>C8*$D$72</f>
+        <v>1428</v>
+      </c>
       <c r="E8" s="73">
-        <f t="shared" si="0"/>
+        <f>D8/$D$66</f>
         <v>2.2082018927444796E-2</v>
       </c>
     </row>
@@ -5753,16 +5839,16 @@
       <c r="B9" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="250">
-        <f>Strukturplan!D23</f>
+      <c r="C9" s="246">
+        <f>Strukturplan!D25</f>
         <v>12</v>
       </c>
-      <c r="D9" s="256">
-        <f>C9*$D$73</f>
+      <c r="D9" s="252">
+        <f>C9*$D$72</f>
         <v>1428</v>
       </c>
       <c r="E9" s="73">
-        <f t="shared" si="0"/>
+        <f>D9/$D$66</f>
         <v>2.2082018927444796E-2</v>
       </c>
     </row>
@@ -5770,16 +5856,16 @@
       <c r="B10" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="248">
-        <f>Strukturplan!D24</f>
+      <c r="C10" s="244">
+        <f>Strukturplan!D26</f>
         <v>10</v>
       </c>
-      <c r="D10" s="256">
-        <f>C10*$D$73</f>
+      <c r="D10" s="252">
+        <f>C10*$D$72</f>
         <v>1190</v>
       </c>
       <c r="E10" s="73">
-        <f t="shared" si="0"/>
+        <f>D10/$D$66</f>
         <v>1.8401682439537329E-2</v>
       </c>
     </row>
@@ -5788,15 +5874,15 @@
         <v>12</v>
       </c>
       <c r="C11" s="78">
-        <f>SUM(C12,C20,C27)</f>
+        <f>SUM(C12,C20,C26)</f>
         <v>146</v>
       </c>
-      <c r="D11" s="257">
-        <f>C11*$D$74</f>
+      <c r="D11" s="253">
+        <f>C11*$D$73</f>
         <v>9928</v>
       </c>
       <c r="E11" s="79">
-        <f t="shared" si="0"/>
+        <f>D11/$D$66</f>
         <v>0.15352260778128285</v>
       </c>
     </row>
@@ -5808,12 +5894,12 @@
         <f>SUM(C13:C19)</f>
         <v>75</v>
       </c>
-      <c r="D12" s="253">
-        <f>C12*$D$74</f>
+      <c r="D12" s="249">
+        <f>C12*$D$73</f>
         <v>5100</v>
       </c>
       <c r="E12" s="66">
-        <f t="shared" si="0"/>
+        <f>D12/$D$66</f>
         <v>7.8864353312302835E-2</v>
       </c>
     </row>
@@ -5822,49 +5908,49 @@
         <v>60</v>
       </c>
       <c r="C13" s="68">
-        <f>Strukturplan!D28</f>
+        <f>Strukturplan!D30</f>
         <v>24</v>
       </c>
-      <c r="D13" s="253">
-        <f>C13*$D$74</f>
+      <c r="D13" s="249">
+        <f>C13*$D$73</f>
         <v>1632</v>
       </c>
       <c r="E13" s="69">
-        <f t="shared" si="0"/>
+        <f>D13/$D$66</f>
         <v>2.5236593059936908E-2</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="215" t="s">
+      <c r="B14" s="212" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="68">
-        <f>Strukturplan!D29</f>
+        <f>Strukturplan!D31</f>
         <v>8</v>
       </c>
-      <c r="D14" s="253">
-        <f>C14*$D$74</f>
+      <c r="D14" s="249">
+        <f>C14*$D$73</f>
         <v>544</v>
       </c>
       <c r="E14" s="69">
-        <f t="shared" si="0"/>
+        <f>D14/$D$66</f>
         <v>8.4121976866456359E-3</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="188" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="68">
-        <f>Strukturplan!D30</f>
+        <f>Strukturplan!D32</f>
         <v>8</v>
       </c>
-      <c r="D15" s="253">
-        <f>C15*$D$74</f>
+      <c r="D15" s="249">
+        <f>C15*$D$73</f>
         <v>544</v>
       </c>
       <c r="E15" s="69">
-        <f t="shared" si="0"/>
+        <f>D15/$D$66</f>
         <v>8.4121976866456359E-3</v>
       </c>
     </row>
@@ -5873,66 +5959,66 @@
         <v>56</v>
       </c>
       <c r="C16" s="68">
-        <f>Strukturplan!D31</f>
+        <f>Strukturplan!D33</f>
         <v>8</v>
       </c>
-      <c r="D16" s="253">
-        <f>C16*$D$74</f>
+      <c r="D16" s="249">
+        <f>C16*$D$73</f>
         <v>544</v>
       </c>
       <c r="E16" s="69">
-        <f t="shared" si="0"/>
+        <f>D16/$D$66</f>
         <v>8.4121976866456359E-3</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="199" t="s">
+      <c r="B17" s="196" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="68">
-        <f>Strukturplan!D32</f>
+        <f>Strukturplan!D34</f>
         <v>6</v>
       </c>
-      <c r="D17" s="253">
-        <f>C17*$D$74</f>
+      <c r="D17" s="249">
+        <f>C17*$D$73</f>
         <v>408</v>
       </c>
       <c r="E17" s="69">
-        <f t="shared" si="0"/>
+        <f>D17/$D$66</f>
         <v>6.3091482649842269E-3</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="243" t="s">
+      <c r="B18" s="239" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="68">
-        <f>Strukturplan!D33</f>
+        <f>Strukturplan!D35</f>
         <v>9</v>
       </c>
-      <c r="D18" s="253">
-        <f>C18*$D$74</f>
+      <c r="D18" s="249">
+        <f>C18*$D$73</f>
         <v>612</v>
       </c>
       <c r="E18" s="69">
-        <f t="shared" ref="E18:E28" si="1">D18/$D$67</f>
+        <f>D18/$D$66</f>
         <v>9.4637223974763408E-3</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="243" t="s">
+      <c r="B19" s="239" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="68">
-        <f>Strukturplan!D34</f>
+        <f>Strukturplan!D36</f>
         <v>12</v>
       </c>
-      <c r="D19" s="253">
-        <f>C19*$D$74</f>
+      <c r="D19" s="249">
+        <f>C19*$D$73</f>
         <v>816</v>
       </c>
       <c r="E19" s="70">
-        <f t="shared" si="1"/>
+        <f>D19/$D$66</f>
         <v>1.2618296529968454E-2</v>
       </c>
     </row>
@@ -5941,15 +6027,15 @@
         <v>40</v>
       </c>
       <c r="C20" s="71">
-        <f>SUM(C21:C26)</f>
+        <f>SUM(C21:C25)</f>
         <v>37</v>
       </c>
-      <c r="D20" s="258">
-        <f>C20*$D$74</f>
+      <c r="D20" s="254">
+        <f>C20*$D$73</f>
         <v>2516</v>
       </c>
       <c r="E20" s="72">
-        <f t="shared" si="1"/>
+        <f>D20/$D$66</f>
         <v>3.8906414300736068E-2</v>
       </c>
     </row>
@@ -5958,15 +6044,15 @@
         <v>93</v>
       </c>
       <c r="C21" s="68">
-        <f>Strukturplan!D36</f>
+        <f>Strukturplan!D38</f>
         <v>12</v>
       </c>
-      <c r="D21" s="253">
-        <f>C21*$D$74</f>
+      <c r="D21" s="249">
+        <f>C21*$D$73</f>
         <v>816</v>
       </c>
       <c r="E21" s="69">
-        <f t="shared" si="1"/>
+        <f>D21/$D$66</f>
         <v>1.2618296529968454E-2</v>
       </c>
     </row>
@@ -5975,15 +6061,15 @@
         <v>41</v>
       </c>
       <c r="C22" s="68">
-        <f>Strukturplan!D37</f>
+        <f>Strukturplan!D39</f>
         <v>6</v>
       </c>
-      <c r="D22" s="253">
-        <f>C22*$D$74</f>
+      <c r="D22" s="249">
+        <f>C22*$D$73</f>
         <v>408</v>
       </c>
       <c r="E22" s="69">
-        <f t="shared" si="1"/>
+        <f>D22/$D$66</f>
         <v>6.3091482649842269E-3</v>
       </c>
     </row>
@@ -5992,15 +6078,15 @@
         <v>54</v>
       </c>
       <c r="C23" s="68">
-        <f>Strukturplan!D38</f>
+        <f>Strukturplan!D40</f>
         <v>9</v>
       </c>
-      <c r="D23" s="253">
-        <f>C23*$D$74</f>
+      <c r="D23" s="249">
+        <f>C23*$D$73</f>
         <v>612</v>
       </c>
       <c r="E23" s="69">
-        <f t="shared" si="1"/>
+        <f>D23/$D$66</f>
         <v>9.4637223974763408E-3</v>
       </c>
     </row>
@@ -6009,340 +6095,351 @@
         <v>53</v>
       </c>
       <c r="C24" s="68">
-        <f>Strukturplan!D39</f>
+        <f>Strukturplan!D41</f>
         <v>6</v>
       </c>
-      <c r="D24" s="253">
-        <f>C24*$D$74</f>
+      <c r="D24" s="249">
+        <f>C24*$D$73</f>
         <v>408</v>
       </c>
       <c r="E24" s="69">
-        <f t="shared" si="1"/>
+        <f>D24/$D$66</f>
         <v>6.3091482649842269E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="113" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="68">
-        <f>Strukturplan!D40</f>
+        <f>Strukturplan!D42</f>
         <v>4</v>
       </c>
-      <c r="D25" s="253">
-        <f>C25*$D$74</f>
+      <c r="D25" s="249">
+        <f>C25*$D$73</f>
         <v>272</v>
       </c>
       <c r="E25" s="69">
-        <f t="shared" si="1"/>
+        <f>D25/$D$66</f>
         <v>4.206098843322818E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="113"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="82"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="71">
+        <f>SUM(C27:C33)</f>
+        <v>34</v>
+      </c>
+      <c r="D26" s="254">
+        <f t="shared" ref="D26:D33" si="0">C26*$D$72</f>
+        <v>4046</v>
+      </c>
+      <c r="E26" s="72">
+        <f>D26/$D$66</f>
+        <v>6.2565720294426919E-2</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="115" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="71">
-        <f>SUM(C28:C34)</f>
-        <v>34</v>
-      </c>
-      <c r="D27" s="258">
-        <f>C27*$D$73</f>
-        <v>4046</v>
-      </c>
-      <c r="E27" s="72">
-        <f t="shared" si="1"/>
-        <v>6.2565720294426919E-2</v>
+      <c r="B27" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="68">
+        <f>Strukturplan!D44</f>
+        <v>4</v>
+      </c>
+      <c r="D27" s="250">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
+      <c r="E27" s="69">
+        <f>D27/$D$66</f>
+        <v>7.3606729758149319E-3</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="113" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="68">
-        <f>Strukturplan!D43</f>
+        <f>Strukturplan!D45</f>
         <v>4</v>
       </c>
-      <c r="D28" s="254">
-        <f>C28*$D$73</f>
+      <c r="D28" s="250">
+        <f t="shared" si="0"/>
         <v>476</v>
       </c>
       <c r="E28" s="69">
+        <f>D28/$D$66</f>
+        <v>7.3606729758149319E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="68">
+        <f>Strukturplan!D46</f>
+        <v>4</v>
+      </c>
+      <c r="D29" s="250">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
+      <c r="E29" s="69">
+        <f>D29/$D$66</f>
+        <v>7.3606729758149319E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="68">
+        <f>Strukturplan!D47</f>
+        <v>6</v>
+      </c>
+      <c r="D30" s="250">
+        <f t="shared" si="0"/>
+        <v>714</v>
+      </c>
+      <c r="E30" s="69">
+        <f t="shared" ref="E30:E35" si="1">D30/$D$66</f>
+        <v>1.1041009463722398E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="68">
+        <f>Strukturplan!D48</f>
+        <v>6</v>
+      </c>
+      <c r="D31" s="250">
+        <f t="shared" si="0"/>
+        <v>714</v>
+      </c>
+      <c r="E31" s="69">
+        <f t="shared" si="1"/>
+        <v>1.1041009463722398E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="68">
+        <f>Strukturplan!D49</f>
+        <v>6</v>
+      </c>
+      <c r="D32" s="250">
+        <f t="shared" si="0"/>
+        <v>714</v>
+      </c>
+      <c r="E32" s="69">
+        <f t="shared" si="1"/>
+        <v>1.1041009463722398E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="68">
+        <f>Strukturplan!D50</f>
+        <v>4</v>
+      </c>
+      <c r="D33" s="251">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
+      <c r="E33" s="70">
         <f t="shared" si="1"/>
         <v>7.3606729758149319E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="68">
-        <f>Strukturplan!D44</f>
-        <v>4</v>
-      </c>
-      <c r="D29" s="254">
-        <f>C29*$D$73</f>
-        <v>476</v>
-      </c>
-      <c r="E29" s="69">
-        <f>D29/$D$67</f>
-        <v>7.3606729758149319E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="68">
-        <f>Strukturplan!D45</f>
-        <v>4</v>
-      </c>
-      <c r="D30" s="254">
-        <f>C30*$D$73</f>
-        <v>476</v>
-      </c>
-      <c r="E30" s="69">
-        <f>D30/$D$67</f>
-        <v>7.3606729758149319E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="68">
-        <f>Strukturplan!D46</f>
-        <v>6</v>
-      </c>
-      <c r="D31" s="254">
-        <f>C31*$D$73</f>
-        <v>714</v>
-      </c>
-      <c r="E31" s="69">
-        <f t="shared" ref="E31:E36" si="2">D31/$D$67</f>
-        <v>1.1041009463722398E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="68">
-        <f>Strukturplan!D47</f>
-        <v>6</v>
-      </c>
-      <c r="D32" s="254">
-        <f>C32*$D$73</f>
-        <v>714</v>
-      </c>
-      <c r="E32" s="69">
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="84">
+        <f>SUM(C35,C42)</f>
+        <v>256</v>
+      </c>
+      <c r="D34" s="255">
+        <f t="shared" ref="D34:D45" si="2">C34*$D$73</f>
+        <v>17408</v>
+      </c>
+      <c r="E34" s="85">
+        <f t="shared" si="1"/>
+        <v>0.26919032597266035</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="65">
+        <f>SUM(C36:C41)</f>
+        <v>190</v>
+      </c>
+      <c r="D35" s="249">
         <f t="shared" si="2"/>
-        <v>1.1041009463722398E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="68">
-        <f>Strukturplan!D48</f>
-        <v>6</v>
-      </c>
-      <c r="D33" s="254">
-        <f>C33*$D$73</f>
-        <v>714</v>
-      </c>
-      <c r="E33" s="69">
+        <v>12920</v>
+      </c>
+      <c r="E35" s="66">
+        <f t="shared" si="1"/>
+        <v>0.19978969505783387</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="240">
+        <f>Strukturplan!D55</f>
+        <v>24</v>
+      </c>
+      <c r="D36" s="249">
         <f t="shared" si="2"/>
-        <v>1.1041009463722398E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="68">
-        <f>Strukturplan!D49</f>
-        <v>4</v>
-      </c>
-      <c r="D34" s="255">
-        <f>C34*$D$73</f>
-        <v>476</v>
-      </c>
-      <c r="E34" s="70">
-        <f t="shared" si="2"/>
-        <v>7.3606729758149319E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="84">
-        <f>SUM(C36,C43)</f>
-        <v>256</v>
-      </c>
-      <c r="D35" s="260">
-        <f>C35*$D$74</f>
-        <v>17408</v>
-      </c>
-      <c r="E35" s="85">
-        <f t="shared" si="2"/>
-        <v>0.26919032597266035</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="65">
-        <f>SUM(C37:C42)</f>
-        <v>190</v>
-      </c>
-      <c r="D36" s="253">
-        <f>C36*$D$74</f>
-        <v>12920</v>
+        <v>1632</v>
       </c>
       <c r="E36" s="66">
-        <f t="shared" si="2"/>
-        <v>0.19978969505783387</v>
+        <f>D36/$D$66</f>
+        <v>2.5236593059936908E-2</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="244">
-        <f>Strukturplan!D54</f>
-        <v>24</v>
-      </c>
-      <c r="D37" s="253">
-        <f>C37*$D$74</f>
-        <v>1632</v>
+        <v>76</v>
+      </c>
+      <c r="C37" s="240">
+        <f>Strukturplan!D56</f>
+        <v>36</v>
+      </c>
+      <c r="D37" s="249">
+        <f t="shared" si="2"/>
+        <v>2448</v>
       </c>
       <c r="E37" s="66">
-        <f>D37/$D$67</f>
-        <v>2.5236593059936908E-2</v>
+        <f>D37/$D$66</f>
+        <v>3.7854889589905363E-2</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="244">
-        <f>Strukturplan!D55</f>
-        <v>36</v>
-      </c>
-      <c r="D38" s="253">
-        <f>C38*$D$74</f>
-        <v>2448</v>
+      <c r="B38" s="188" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="240">
+        <f>Strukturplan!D57</f>
+        <v>18</v>
+      </c>
+      <c r="D38" s="249">
+        <f t="shared" si="2"/>
+        <v>1224</v>
       </c>
       <c r="E38" s="66">
-        <f>D38/$D$67</f>
-        <v>3.7854889589905363E-2</v>
+        <f>D38/$D$66</f>
+        <v>1.8927444794952682E-2</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="191" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="244">
-        <f>Strukturplan!D56</f>
-        <v>18</v>
-      </c>
-      <c r="D39" s="253">
-        <f>C39*$D$74</f>
-        <v>1224</v>
-      </c>
-      <c r="E39" s="66">
-        <f>D39/$D$67</f>
-        <v>1.8927444794952682E-2</v>
+      <c r="B39" s="188" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="68">
+        <f>Strukturplan!D58</f>
+        <v>16</v>
+      </c>
+      <c r="D39" s="249">
+        <f t="shared" si="2"/>
+        <v>1088</v>
+      </c>
+      <c r="E39" s="69">
+        <f t="shared" ref="E39:E45" si="3">D39/$D$66</f>
+        <v>1.6824395373291272E-2</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="191" t="s">
-        <v>78</v>
+      <c r="B40" s="188" t="s">
+        <v>80</v>
       </c>
       <c r="C40" s="68">
-        <f>Strukturplan!D57</f>
-        <v>16</v>
-      </c>
-      <c r="D40" s="253">
-        <f>C40*$D$74</f>
-        <v>1088</v>
+        <f>Strukturplan!D59</f>
+        <v>48</v>
+      </c>
+      <c r="D40" s="249">
+        <f t="shared" si="2"/>
+        <v>3264</v>
       </c>
       <c r="E40" s="69">
-        <f t="shared" ref="E40:E46" si="3">D40/$D$67</f>
-        <v>1.6824395373291272E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="191" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="68">
-        <f>Strukturplan!D58</f>
-        <v>48</v>
-      </c>
-      <c r="D41" s="253">
-        <f>C41*$D$74</f>
-        <v>3264</v>
-      </c>
-      <c r="E41" s="69">
         <f t="shared" si="3"/>
         <v>5.0473186119873815E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="113" t="s">
+    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="244">
-        <f>Strukturplan!D59</f>
+      <c r="C41" s="240">
+        <f>Strukturplan!D60</f>
         <v>48</v>
       </c>
-      <c r="D42" s="261">
-        <f>C42*$D$74</f>
+      <c r="D41" s="256">
+        <f t="shared" si="2"/>
         <v>3264</v>
       </c>
-      <c r="E42" s="70">
+      <c r="E41" s="70">
         <f t="shared" si="3"/>
         <v>5.0473186119873815E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="115" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="71">
-        <f>SUM(C44:C46)</f>
+      <c r="C42" s="71">
+        <f>SUM(C43:C45)</f>
         <v>66</v>
       </c>
-      <c r="D43" s="258">
-        <f>C43*$D$74</f>
+      <c r="D42" s="254">
+        <f t="shared" si="2"/>
         <v>4488</v>
       </c>
-      <c r="E43" s="72">
+      <c r="E42" s="72">
         <f t="shared" si="3"/>
         <v>6.9400630914826497E-2</v>
       </c>
     </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="242">
+        <f>Strukturplan!D62</f>
+        <v>24</v>
+      </c>
+      <c r="D43" s="257">
+        <f t="shared" si="2"/>
+        <v>1632</v>
+      </c>
+      <c r="E43" s="69">
+        <f t="shared" si="3"/>
+        <v>2.5236593059936908E-2</v>
+      </c>
+    </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="113" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="246">
-        <f>Strukturplan!D61</f>
+      <c r="B44" s="212" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="242">
+        <f>Strukturplan!D63</f>
         <v>24</v>
       </c>
-      <c r="D44" s="262">
-        <f>C44*$D$74</f>
+      <c r="D44" s="257">
+        <f t="shared" si="2"/>
         <v>1632</v>
       </c>
       <c r="E44" s="69">
@@ -6350,509 +6447,492 @@
         <v>2.5236593059936908E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="215" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="246">
-        <f>Strukturplan!D62</f>
-        <v>24</v>
-      </c>
-      <c r="D45" s="262">
-        <f>C45*$D$74</f>
-        <v>1632</v>
-      </c>
-      <c r="E45" s="69">
-        <f t="shared" si="3"/>
-        <v>2.5236593059936908E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="272" t="s">
+    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="267" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="245">
-        <f>Strukturplan!D63</f>
+      <c r="C45" s="241">
+        <f>Strukturplan!D64</f>
         <v>18</v>
       </c>
-      <c r="D46" s="263">
-        <f>C46*$D$74</f>
+      <c r="D45" s="258">
+        <f t="shared" si="2"/>
         <v>1224</v>
       </c>
-      <c r="E46" s="82">
+      <c r="E45" s="82">
         <f t="shared" si="3"/>
         <v>1.8927444794952682E-2</v>
       </c>
     </row>
+    <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="74"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="259"/>
+      <c r="E46" s="76"/>
+    </row>
     <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="74"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="264"/>
-      <c r="E47" s="76"/>
-    </row>
-    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="86" t="s">
+      <c r="B47" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="87">
-        <f>SUM(C49,C53)</f>
+      <c r="C47" s="87">
+        <f>SUM(C48,C52)</f>
         <v>240</v>
       </c>
-      <c r="D48" s="265">
-        <f>C48*$D$74</f>
+      <c r="D47" s="260">
+        <f t="shared" ref="D47:D61" si="4">C47*$D$73</f>
         <v>16320</v>
       </c>
-      <c r="E48" s="88">
-        <f t="shared" ref="E48:E66" si="4">D48/$D$67</f>
+      <c r="E47" s="88">
+        <f t="shared" ref="E47:E65" si="5">D47/$D$66</f>
         <v>0.25236593059936907</v>
       </c>
     </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="71">
+        <f>SUM(C49:C51)</f>
+        <v>124</v>
+      </c>
+      <c r="D48" s="254">
+        <f t="shared" si="4"/>
+        <v>8432</v>
+      </c>
+      <c r="E48" s="72">
+        <f t="shared" si="5"/>
+        <v>0.13038906414300735</v>
+      </c>
+    </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="115" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="71">
-        <f>SUM(C50:C52)</f>
-        <v>124</v>
-      </c>
-      <c r="D49" s="258">
-        <f>C49*$D$74</f>
-        <v>8432</v>
-      </c>
-      <c r="E49" s="72">
+      <c r="B49" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="68">
+        <f>Strukturplan!D68</f>
+        <v>52</v>
+      </c>
+      <c r="D49" s="249">
         <f t="shared" si="4"/>
-        <v>0.13038906414300735</v>
+        <v>3536</v>
+      </c>
+      <c r="E49" s="69">
+        <f t="shared" si="5"/>
+        <v>5.4679284963196635E-2</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="113" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C50" s="68">
-        <f>Strukturplan!D67</f>
-        <v>52</v>
-      </c>
-      <c r="D50" s="253">
-        <f>C50*$D$74</f>
-        <v>3536</v>
+        <f>Strukturplan!D69</f>
+        <v>50</v>
+      </c>
+      <c r="D50" s="249">
+        <f t="shared" si="4"/>
+        <v>3400</v>
       </c>
       <c r="E50" s="69">
+        <f t="shared" si="5"/>
+        <v>5.2576235541535225E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="243">
+        <f>Strukturplan!D70</f>
+        <v>22</v>
+      </c>
+      <c r="D51" s="256">
         <f t="shared" si="4"/>
-        <v>5.4679284963196635E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="68">
-        <f>Strukturplan!D68</f>
-        <v>50</v>
-      </c>
-      <c r="D51" s="253">
-        <f>C51*$D$74</f>
-        <v>3400</v>
-      </c>
-      <c r="E51" s="69">
+        <v>1496</v>
+      </c>
+      <c r="E51" s="70">
+        <f t="shared" si="5"/>
+        <v>2.3133543638275498E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="71">
+        <f>SUM(C53:C56)</f>
+        <v>116</v>
+      </c>
+      <c r="D52" s="254">
         <f t="shared" si="4"/>
-        <v>5.2576235541535225E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="247">
-        <f>Strukturplan!D69</f>
-        <v>22</v>
-      </c>
-      <c r="D52" s="261">
-        <f>C52*$D$74</f>
-        <v>1496</v>
-      </c>
-      <c r="E52" s="70">
+        <v>7888</v>
+      </c>
+      <c r="E52" s="72">
+        <f t="shared" si="5"/>
+        <v>0.12197686645636173</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="68">
+        <f>Strukturplan!D72</f>
+        <v>24</v>
+      </c>
+      <c r="D53" s="249">
         <f t="shared" si="4"/>
-        <v>2.3133543638275498E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="71">
-        <f>SUM(C54:C57)</f>
-        <v>116</v>
-      </c>
-      <c r="D53" s="258">
-        <f>C53*$D$74</f>
-        <v>7888</v>
-      </c>
-      <c r="E53" s="72">
-        <f t="shared" si="4"/>
-        <v>0.12197686645636173</v>
+        <v>1632</v>
+      </c>
+      <c r="E53" s="69">
+        <f t="shared" si="5"/>
+        <v>2.5236593059936908E-2</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="68">
+        <f>Strukturplan!D73</f>
+        <v>16</v>
+      </c>
+      <c r="D54" s="249">
+        <f t="shared" si="4"/>
+        <v>1088</v>
+      </c>
+      <c r="E54" s="69">
+        <f t="shared" si="5"/>
+        <v>1.6824395373291272E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="188" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="68">
+        <f>Strukturplan!D74</f>
+        <v>20</v>
+      </c>
+      <c r="D55" s="249">
+        <f t="shared" si="4"/>
+        <v>1360</v>
+      </c>
+      <c r="E55" s="69">
+        <f t="shared" si="5"/>
+        <v>2.1030494216614092E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="81">
+        <f>Strukturplan!D75</f>
+        <v>56</v>
+      </c>
+      <c r="D56" s="249">
+        <f t="shared" si="4"/>
+        <v>3808</v>
+      </c>
+      <c r="E56" s="82">
+        <f t="shared" si="5"/>
+        <v>5.8885383806519455E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="90">
+        <f>SUM(C58:C60)</f>
+        <v>106</v>
+      </c>
+      <c r="D57" s="261">
+        <f t="shared" si="4"/>
+        <v>7208</v>
+      </c>
+      <c r="E57" s="99">
+        <f t="shared" si="5"/>
+        <v>0.11146161934805468</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="65">
+        <f>Strukturplan!D78</f>
+        <v>8</v>
+      </c>
+      <c r="D58" s="249">
+        <f t="shared" si="4"/>
+        <v>544</v>
+      </c>
+      <c r="E58" s="66">
+        <f t="shared" si="5"/>
+        <v>8.4121976866456359E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="65">
+        <f>Strukturplan!D79</f>
+        <v>32</v>
+      </c>
+      <c r="D59" s="249">
+        <f t="shared" si="4"/>
+        <v>2176</v>
+      </c>
+      <c r="E59" s="69">
+        <f t="shared" si="5"/>
+        <v>3.3648790746582544E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="65">
+        <f>Strukturplan!D80</f>
+        <v>66</v>
+      </c>
+      <c r="D60" s="249">
+        <f t="shared" si="4"/>
+        <v>4488</v>
+      </c>
+      <c r="E60" s="82">
+        <f t="shared" si="5"/>
+        <v>6.9400630914826497E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="93">
+        <f>Strukturplan!D82</f>
         <v>84</v>
       </c>
-      <c r="C54" s="68">
-        <f>Strukturplan!D71</f>
-        <v>24</v>
-      </c>
-      <c r="D54" s="253">
-        <f>C54*$D$74</f>
-        <v>1632</v>
-      </c>
-      <c r="E54" s="69">
+      <c r="D61" s="262">
         <f t="shared" si="4"/>
-        <v>2.5236593059936908E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="68">
-        <f>Strukturplan!D72</f>
+        <v>5712</v>
+      </c>
+      <c r="E61" s="94">
+        <f t="shared" si="5"/>
+        <v>8.8328075709779186E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="253">
-        <f>C55*$D$74</f>
-        <v>1088</v>
-      </c>
-      <c r="E55" s="69">
-        <f t="shared" si="4"/>
-        <v>1.6824395373291272E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="191" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="68">
-        <f>Strukturplan!D73</f>
-        <v>20</v>
-      </c>
-      <c r="D56" s="253">
-        <f>C56*$D$74</f>
-        <v>1360</v>
-      </c>
-      <c r="E56" s="69">
-        <f t="shared" si="4"/>
-        <v>2.1030494216614092E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="81">
-        <f>Strukturplan!D74</f>
-        <v>56</v>
-      </c>
-      <c r="D57" s="253">
-        <f>C57*$D$74</f>
-        <v>3808</v>
-      </c>
-      <c r="E57" s="82">
-        <f t="shared" si="4"/>
-        <v>5.8885383806519455E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="90">
-        <f>SUM(C59:C61)</f>
-        <v>106</v>
-      </c>
-      <c r="D58" s="266">
-        <f>C58*$D$74</f>
-        <v>7208</v>
-      </c>
-      <c r="E58" s="99">
-        <f t="shared" si="4"/>
-        <v>0.11146161934805468</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="65">
-        <f>Strukturplan!D77</f>
+      <c r="C62" s="96">
+        <f>SUM(C63:C65)</f>
+        <v>18</v>
+      </c>
+      <c r="D62" s="263">
+        <f>C62*$D$72</f>
+        <v>2142</v>
+      </c>
+      <c r="E62" s="97">
+        <f t="shared" si="5"/>
+        <v>3.3123028391167195E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="65">
+        <f>Strukturplan!D85</f>
+        <v>6</v>
+      </c>
+      <c r="D63" s="249">
+        <f>C63*$D$72</f>
+        <v>714</v>
+      </c>
+      <c r="E63" s="66">
+        <f t="shared" si="5"/>
+        <v>1.1041009463722398E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="65">
+        <f>Strukturplan!D86</f>
         <v>8</v>
       </c>
-      <c r="D59" s="253">
-        <f>C59*$D$74</f>
-        <v>544</v>
-      </c>
-      <c r="E59" s="66">
-        <f t="shared" si="4"/>
-        <v>8.4121976866456359E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="113" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="65">
-        <f>Strukturplan!D78</f>
-        <v>32</v>
-      </c>
-      <c r="D60" s="253">
-        <f>C60*$D$74</f>
-        <v>2176</v>
-      </c>
-      <c r="E60" s="69">
-        <f t="shared" si="4"/>
-        <v>3.3648790746582544E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="65">
-        <f>Strukturplan!D79</f>
-        <v>66</v>
-      </c>
-      <c r="D61" s="253">
-        <f>C61*$D$74</f>
-        <v>4488</v>
-      </c>
-      <c r="E61" s="82">
-        <f t="shared" si="4"/>
-        <v>6.9400630914826497E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="93">
-        <f>Strukturplan!D81</f>
-        <v>84</v>
-      </c>
-      <c r="D62" s="267">
-        <f>C62*$D$74</f>
-        <v>5712</v>
-      </c>
-      <c r="E62" s="94">
-        <f t="shared" si="4"/>
-        <v>8.8328075709779186E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="96">
-        <f>SUM(C64:C66)</f>
-        <v>18</v>
-      </c>
-      <c r="D63" s="268">
-        <f>C63*$D$73</f>
-        <v>2142</v>
-      </c>
-      <c r="E63" s="97">
-        <f t="shared" si="4"/>
-        <v>3.3123028391167195E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="65">
-        <f>Strukturplan!D84</f>
-        <v>6</v>
-      </c>
-      <c r="D64" s="253">
-        <f>C64*$D$73</f>
-        <v>714</v>
-      </c>
-      <c r="E64" s="66">
-        <f t="shared" si="4"/>
-        <v>1.1041009463722398E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="67" t="s">
-        <v>18</v>
+      <c r="D64" s="250">
+        <f>C64*$D$72</f>
+        <v>952</v>
+      </c>
+      <c r="E64" s="69">
+        <f t="shared" si="5"/>
+        <v>1.4721345951629864E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="80" t="s">
+        <v>19</v>
       </c>
       <c r="C65" s="65">
-        <f>Strukturplan!D85</f>
-        <v>8</v>
-      </c>
-      <c r="D65" s="254">
-        <f>C65*$D$73</f>
-        <v>952</v>
-      </c>
-      <c r="E65" s="69">
-        <f t="shared" si="4"/>
-        <v>1.4721345951629864E-2</v>
+        <f>Strukturplan!D87</f>
+        <v>4</v>
+      </c>
+      <c r="D65" s="264">
+        <f>C65*$D$72</f>
+        <v>476</v>
+      </c>
+      <c r="E65" s="82">
+        <f t="shared" si="5"/>
+        <v>7.3606729758149319E-3</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="65">
-        <f>Strukturplan!D86</f>
-        <v>4</v>
-      </c>
-      <c r="D66" s="269">
-        <f>C66*$D$73</f>
-        <v>476</v>
-      </c>
-      <c r="E66" s="82">
-        <f t="shared" si="4"/>
-        <v>7.3606729758149319E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="109" t="s">
+      <c r="B66" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="110">
-        <f>SUM(C63,C62,C58,C48,C35,C11,C4)</f>
+      <c r="C66" s="110">
+        <f>SUM(C62,C61,C57,C47,C34,C11,C4)</f>
         <v>900</v>
       </c>
-      <c r="D67" s="270">
-        <f>SUM(D63,D62,D58,D48,D35,D11,D4)</f>
+      <c r="D66" s="265">
+        <f>SUM(D62,D61,D57,D47,D34,D11,D4)</f>
         <v>64668</v>
       </c>
-      <c r="E67" s="111">
-        <f>SUM(E63,E62,E58,E48,E35,E11,E4)</f>
+      <c r="E66" s="111">
+        <f>SUM(E62,E61,E57,E47,E34,E11,E4)</f>
         <v>0.99999999999999989</v>
       </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="98"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="259"/>
+      <c r="E67" s="98"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="98"/>
       <c r="C68" s="98"/>
-      <c r="D68" s="264"/>
+      <c r="D68" s="259"/>
       <c r="E68" s="98"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="98"/>
       <c r="C69" s="98"/>
-      <c r="D69" s="264"/>
+      <c r="D69" s="259"/>
       <c r="E69" s="98"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="98"/>
       <c r="C70" s="98"/>
-      <c r="D70" s="264"/>
+      <c r="D70" s="259"/>
       <c r="E70" s="98"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="98"/>
       <c r="C71" s="98"/>
-      <c r="D71" s="264"/>
+      <c r="D71" s="259"/>
       <c r="E71" s="98"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="98"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="264"/>
+      <c r="C72" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="259">
+        <v>119</v>
+      </c>
       <c r="E72" s="98"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="98"/>
       <c r="C73" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="264">
-        <v>119</v>
+        <v>33</v>
+      </c>
+      <c r="D73" s="259">
+        <v>68</v>
       </c>
       <c r="E73" s="98"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="98"/>
-      <c r="C74" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="264">
-        <v>68</v>
-      </c>
+      <c r="C74" s="98"/>
+      <c r="D74" s="259"/>
       <c r="E74" s="98"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="98"/>
       <c r="C75" s="98"/>
-      <c r="D75" s="264"/>
+      <c r="D75" s="259"/>
       <c r="E75" s="98"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="98"/>
       <c r="C76" s="98"/>
-      <c r="D76" s="264"/>
+      <c r="D76" s="259"/>
       <c r="E76" s="98"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="98"/>
       <c r="C77" s="98"/>
-      <c r="D77" s="264"/>
+      <c r="D77" s="259"/>
       <c r="E77" s="98"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="98"/>
       <c r="C78" s="98"/>
-      <c r="D78" s="264"/>
+      <c r="D78" s="259"/>
       <c r="E78" s="98"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="98"/>
       <c r="C79" s="98"/>
-      <c r="D79" s="264"/>
+      <c r="D79" s="259"/>
       <c r="E79" s="98"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="98"/>
       <c r="C80" s="98"/>
-      <c r="D80" s="264"/>
+      <c r="D80" s="259"/>
       <c r="E80" s="98"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="98"/>
       <c r="C81" s="98"/>
-      <c r="D81" s="264"/>
+      <c r="D81" s="259"/>
       <c r="E81" s="98"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="98"/>
       <c r="C82" s="98"/>
-      <c r="D82" s="264"/>
+      <c r="D82" s="259"/>
       <c r="E82" s="98"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="98"/>
       <c r="C83" s="98"/>
-      <c r="D83" s="264"/>
+      <c r="D83" s="259"/>
       <c r="E83" s="98"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="98"/>
       <c r="C84" s="98"/>
-      <c r="D84" s="264"/>
+      <c r="D84" s="259"/>
       <c r="E84" s="98"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="98"/>
-      <c r="C85" s="98"/>
-      <c r="D85" s="264"/>
       <c r="E85" s="98"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="98"/>
       <c r="E86" s="98"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="98"/>
-      <c r="E87" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6860,7 +6940,7 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B27:B34">
+  <conditionalFormatting sqref="B26:B33">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
